--- a/public/players.xlsx
+++ b/public/players.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrvorel35/projekt2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrvorel35/projekt2/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8650E86A-C13B-FF4C-8883-C731EA5165C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A563C34F-35ED-6948-9FEA-14052100209B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="2100" windowWidth="28040" windowHeight="17440" xr2:uid="{7EC8AFE5-59F6-F246-BCB8-55B35148A5E5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="553">
   <si>
     <t>Player</t>
   </si>
@@ -1692,6 +1692,9 @@
   </si>
   <si>
     <t>David Duke Jr.</t>
+  </si>
+  <si>
+    <t>Inches</t>
   </si>
 </sst>
 </file>
@@ -2104,13 +2107,14 @@
   <dimension ref="A1:H532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2124,6 +2128,9 @@
       <c r="C1" s="8" t="s">
         <v>432</v>
       </c>
+      <c r="D1" s="8" t="s">
+        <v>552</v>
+      </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -2139,7 +2146,9 @@
       <c r="C2" t="s">
         <v>444</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2">
+        <v>80</v>
+      </c>
       <c r="E2" s="6"/>
       <c r="F2" s="7"/>
       <c r="G2" s="6"/>
@@ -2155,7 +2164,9 @@
       <c r="C3" t="s">
         <v>445</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3">
+        <v>76</v>
+      </c>
       <c r="E3" s="6"/>
       <c r="F3" s="7"/>
       <c r="G3" s="6"/>
@@ -2171,7 +2182,9 @@
       <c r="C4" t="s">
         <v>446</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4">
+        <v>78</v>
+      </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7"/>
       <c r="G4" s="6"/>
@@ -2187,7 +2200,9 @@
       <c r="C5" t="s">
         <v>447</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5">
+        <v>86</v>
+      </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7"/>
       <c r="G5" s="6"/>
@@ -2203,7 +2218,9 @@
       <c r="C6" t="s">
         <v>445</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6">
+        <v>76</v>
+      </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
       <c r="G6" s="6"/>
@@ -2219,7 +2236,9 @@
       <c r="C7" t="s">
         <v>448</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7">
+        <v>73</v>
+      </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
       <c r="G7" s="6"/>
@@ -2235,7 +2254,9 @@
       <c r="C8" t="s">
         <v>449</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8">
+        <v>79</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
       <c r="G8" s="6"/>
@@ -2251,7 +2272,9 @@
       <c r="C9" t="s">
         <v>450</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9">
+        <v>81</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="7"/>
       <c r="G9" s="6"/>
@@ -2267,7 +2290,9 @@
       <c r="C10" t="s">
         <v>448</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10">
+        <v>73</v>
+      </c>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
@@ -2283,7 +2308,9 @@
       <c r="C11" t="s">
         <v>444</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11">
+        <v>80</v>
+      </c>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
@@ -2299,7 +2326,9 @@
       <c r="C12" t="s">
         <v>447</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12">
+        <v>86</v>
+      </c>
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="6"/>
@@ -2315,7 +2344,9 @@
       <c r="C13" t="s">
         <v>450</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13">
+        <v>81</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
       <c r="G13" s="6"/>
@@ -2331,7 +2362,9 @@
       <c r="C14" t="s">
         <v>450</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14">
+        <v>81</v>
+      </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
       <c r="G14" s="6"/>
@@ -2347,7 +2380,9 @@
       <c r="C15" t="s">
         <v>449</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15">
+        <v>79</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
       <c r="G15" s="6"/>
@@ -2363,7 +2398,9 @@
       <c r="C16" t="s">
         <v>446</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16">
+        <v>78</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
       <c r="G16" s="6"/>
@@ -2379,7 +2416,9 @@
       <c r="C17" t="s">
         <v>451</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17">
+        <v>84</v>
+      </c>
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
       <c r="G17" s="6"/>
@@ -2393,7 +2432,9 @@
       <c r="C18" t="s">
         <v>449</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18">
+        <v>79</v>
+      </c>
       <c r="E18" s="6"/>
       <c r="F18" s="7"/>
       <c r="G18" s="6"/>
@@ -2409,7 +2450,9 @@
       <c r="C19" t="s">
         <v>452</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19">
+        <v>74</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="7"/>
       <c r="G19" s="6"/>
@@ -2425,7 +2468,9 @@
       <c r="C20" t="s">
         <v>446</v>
       </c>
-      <c r="D20" s="6"/>
+      <c r="D20">
+        <v>78</v>
+      </c>
       <c r="E20" s="6"/>
       <c r="F20" s="7"/>
       <c r="G20" s="6"/>
@@ -2441,7 +2486,9 @@
       <c r="C21" t="s">
         <v>445</v>
       </c>
-      <c r="D21" s="6"/>
+      <c r="D21">
+        <v>76</v>
+      </c>
       <c r="E21" s="6"/>
       <c r="F21" s="7"/>
       <c r="G21" s="6"/>
@@ -2457,7 +2504,9 @@
       <c r="C22" t="s">
         <v>446</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22">
+        <v>78</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="7"/>
       <c r="G22" s="6"/>
@@ -2473,7 +2522,9 @@
       <c r="C23" t="s">
         <v>453</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23">
+        <v>82</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="7"/>
       <c r="G23" s="6"/>
@@ -2489,7 +2540,9 @@
       <c r="C24" t="s">
         <v>454</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24">
+        <v>85</v>
+      </c>
       <c r="E24" s="6"/>
       <c r="F24" s="7"/>
       <c r="G24" s="6"/>
@@ -2505,7 +2558,9 @@
       <c r="C25" t="s">
         <v>453</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25">
+        <v>82</v>
+      </c>
       <c r="E25" s="6"/>
       <c r="F25" s="7"/>
       <c r="G25" s="6"/>
@@ -2521,7 +2576,9 @@
       <c r="C26" t="s">
         <v>455</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26">
+        <v>75</v>
+      </c>
       <c r="E26" s="6"/>
       <c r="F26" s="7"/>
       <c r="G26" s="6"/>
@@ -2537,7 +2594,9 @@
       <c r="C27" t="s">
         <v>445</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27">
+        <v>76</v>
+      </c>
       <c r="E27" s="6"/>
       <c r="F27" s="7"/>
       <c r="G27" s="6"/>
@@ -2553,7 +2612,9 @@
       <c r="C28" t="s">
         <v>449</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28">
+        <v>79</v>
+      </c>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
       <c r="G28" s="6"/>
@@ -2569,7 +2630,9 @@
       <c r="C29" t="s">
         <v>455</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29">
+        <v>75</v>
+      </c>
       <c r="E29" s="6"/>
       <c r="F29" s="7"/>
       <c r="G29" s="6"/>
@@ -2585,7 +2648,9 @@
       <c r="C30" t="s">
         <v>456</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30">
+        <v>77</v>
+      </c>
       <c r="E30" s="6"/>
       <c r="F30" s="7"/>
       <c r="G30" s="6"/>
@@ -2601,7 +2666,9 @@
       <c r="C31" t="s">
         <v>452</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31">
+        <v>74</v>
+      </c>
       <c r="E31" s="6"/>
       <c r="F31" s="7"/>
       <c r="G31" s="6"/>
@@ -2617,7 +2684,9 @@
       <c r="C32" t="s">
         <v>457</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32">
+        <v>83</v>
+      </c>
       <c r="E32" s="6"/>
       <c r="F32" s="7"/>
       <c r="G32" s="6"/>
@@ -2633,7 +2702,9 @@
       <c r="C33" t="s">
         <v>454</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33">
+        <v>85</v>
+      </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
       <c r="G33" s="6"/>
@@ -2649,7 +2720,9 @@
       <c r="C34" t="s">
         <v>449</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34">
+        <v>79</v>
+      </c>
       <c r="E34" s="6"/>
       <c r="F34" s="7"/>
       <c r="G34" s="6"/>
@@ -2665,7 +2738,9 @@
       <c r="C35" t="s">
         <v>446</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35">
+        <v>78</v>
+      </c>
       <c r="E35" s="6"/>
       <c r="F35" s="7"/>
       <c r="G35" s="6"/>
@@ -2681,7 +2756,9 @@
       <c r="C36" t="s">
         <v>446</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36">
+        <v>78</v>
+      </c>
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
       <c r="G36" s="6"/>
@@ -2697,7 +2774,9 @@
       <c r="C37" t="s">
         <v>452</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37">
+        <v>74</v>
+      </c>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
       <c r="G37" s="6"/>
@@ -2713,7 +2792,9 @@
       <c r="C38" t="s">
         <v>446</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38">
+        <v>78</v>
+      </c>
       <c r="E38" s="6"/>
       <c r="F38" s="7"/>
       <c r="G38" s="6"/>
@@ -2729,7 +2810,9 @@
       <c r="C39" t="s">
         <v>444</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39">
+        <v>80</v>
+      </c>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
       <c r="G39" s="6"/>
@@ -2745,7 +2828,9 @@
       <c r="C40" t="s">
         <v>451</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40">
+        <v>84</v>
+      </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
       <c r="G40" s="6"/>
@@ -2761,7 +2846,9 @@
       <c r="C41" t="s">
         <v>452</v>
       </c>
-      <c r="D41" s="6"/>
+      <c r="D41">
+        <v>74</v>
+      </c>
       <c r="E41" s="6"/>
       <c r="F41" s="7"/>
       <c r="G41" s="6"/>
@@ -2777,7 +2864,9 @@
       <c r="C42" t="s">
         <v>449</v>
       </c>
-      <c r="D42" s="6"/>
+      <c r="D42">
+        <v>79</v>
+      </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
       <c r="G42" s="6"/>
@@ -2793,7 +2882,9 @@
       <c r="C43" t="s">
         <v>445</v>
       </c>
-      <c r="D43" s="6"/>
+      <c r="D43">
+        <v>76</v>
+      </c>
       <c r="E43" s="6"/>
       <c r="F43" s="7"/>
       <c r="G43" s="6"/>
@@ -2809,7 +2900,9 @@
       <c r="C44" t="s">
         <v>444</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44">
+        <v>80</v>
+      </c>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
       <c r="G44" s="6"/>
@@ -2825,7 +2918,9 @@
       <c r="C45" t="s">
         <v>446</v>
       </c>
-      <c r="D45" s="6"/>
+      <c r="D45">
+        <v>78</v>
+      </c>
       <c r="E45" s="6"/>
       <c r="F45" s="7"/>
       <c r="G45" s="6"/>
@@ -2841,7 +2936,9 @@
       <c r="C46" t="s">
         <v>451</v>
       </c>
-      <c r="D46" s="6"/>
+      <c r="D46">
+        <v>84</v>
+      </c>
       <c r="E46" s="6"/>
       <c r="F46" s="7"/>
       <c r="G46" s="6"/>
@@ -2857,7 +2954,9 @@
       <c r="C47" t="s">
         <v>452</v>
       </c>
-      <c r="D47" s="6"/>
+      <c r="D47">
+        <v>74</v>
+      </c>
       <c r="E47" s="6"/>
       <c r="F47" s="7"/>
       <c r="G47" s="6"/>
@@ -2873,7 +2972,9 @@
       <c r="C48" t="s">
         <v>446</v>
       </c>
-      <c r="D48" s="6"/>
+      <c r="D48">
+        <v>78</v>
+      </c>
       <c r="E48" s="6"/>
       <c r="F48" s="7"/>
       <c r="G48" s="6"/>
@@ -2889,7 +2990,9 @@
       <c r="C49" t="s">
         <v>449</v>
       </c>
-      <c r="D49" s="6"/>
+      <c r="D49">
+        <v>79</v>
+      </c>
       <c r="E49" s="6"/>
       <c r="F49" s="7"/>
       <c r="G49" s="6"/>
@@ -2905,7 +3008,9 @@
       <c r="C50" t="s">
         <v>449</v>
       </c>
-      <c r="D50" s="6"/>
+      <c r="D50">
+        <v>79</v>
+      </c>
       <c r="E50" s="6"/>
       <c r="F50" s="7"/>
       <c r="G50" s="6"/>
@@ -2921,7 +3026,9 @@
       <c r="C51" t="s">
         <v>449</v>
       </c>
-      <c r="D51" s="6"/>
+      <c r="D51">
+        <v>79</v>
+      </c>
       <c r="E51" s="6"/>
       <c r="F51" s="7"/>
       <c r="G51" s="6"/>
@@ -2937,7 +3044,9 @@
       <c r="C52" t="s">
         <v>444</v>
       </c>
-      <c r="D52" s="6"/>
+      <c r="D52">
+        <v>80</v>
+      </c>
       <c r="E52" s="6"/>
       <c r="F52" s="7"/>
       <c r="G52" s="6"/>
@@ -2953,7 +3062,9 @@
       <c r="C53" t="s">
         <v>450</v>
       </c>
-      <c r="D53" s="6"/>
+      <c r="D53">
+        <v>81</v>
+      </c>
       <c r="E53" s="6"/>
       <c r="F53" s="7"/>
       <c r="G53" s="6"/>
@@ -2967,7 +3078,9 @@
       <c r="C54" t="s">
         <v>445</v>
       </c>
-      <c r="D54" s="6"/>
+      <c r="D54">
+        <v>76</v>
+      </c>
       <c r="E54" s="6"/>
       <c r="F54" s="7"/>
       <c r="G54" s="6"/>
@@ -2983,7 +3096,9 @@
       <c r="C55" t="s">
         <v>456</v>
       </c>
-      <c r="D55" s="6"/>
+      <c r="D55">
+        <v>77</v>
+      </c>
       <c r="E55" s="6"/>
       <c r="F55" s="7"/>
       <c r="G55" s="6"/>
@@ -2999,7 +3114,9 @@
       <c r="C56" t="s">
         <v>445</v>
       </c>
-      <c r="D56" s="6"/>
+      <c r="D56">
+        <v>76</v>
+      </c>
       <c r="E56" s="6"/>
       <c r="F56" s="7"/>
       <c r="G56" s="6"/>
@@ -3015,7 +3132,9 @@
       <c r="C57" t="s">
         <v>453</v>
       </c>
-      <c r="D57" s="6"/>
+      <c r="D57">
+        <v>82</v>
+      </c>
       <c r="E57" s="6"/>
       <c r="F57" s="7"/>
       <c r="G57" s="6"/>
@@ -3031,7 +3150,9 @@
       <c r="C58" t="s">
         <v>458</v>
       </c>
-      <c r="D58" s="6"/>
+      <c r="D58">
+        <v>72</v>
+      </c>
       <c r="E58" s="6"/>
       <c r="F58" s="7"/>
       <c r="G58" s="6"/>
@@ -3047,7 +3168,9 @@
       <c r="C59" t="s">
         <v>449</v>
       </c>
-      <c r="D59" s="6"/>
+      <c r="D59">
+        <v>79</v>
+      </c>
       <c r="E59" s="6"/>
       <c r="F59" s="7"/>
       <c r="G59" s="6"/>
@@ -3063,7 +3186,9 @@
       <c r="C60" t="s">
         <v>455</v>
       </c>
-      <c r="D60" s="6"/>
+      <c r="D60">
+        <v>75</v>
+      </c>
       <c r="E60" s="6"/>
       <c r="F60" s="7"/>
       <c r="G60" s="6"/>
@@ -3079,7 +3204,9 @@
       <c r="C61" t="s">
         <v>446</v>
       </c>
-      <c r="D61" s="6"/>
+      <c r="D61">
+        <v>78</v>
+      </c>
       <c r="E61" s="6"/>
       <c r="F61" s="7"/>
       <c r="G61" s="6"/>
@@ -3095,7 +3222,9 @@
       <c r="C62" t="s">
         <v>450</v>
       </c>
-      <c r="D62" s="6"/>
+      <c r="D62">
+        <v>81</v>
+      </c>
       <c r="E62" s="6"/>
       <c r="F62" s="7"/>
       <c r="G62" s="6"/>
@@ -3111,7 +3240,9 @@
       <c r="C63" t="s">
         <v>456</v>
       </c>
-      <c r="D63" s="6"/>
+      <c r="D63">
+        <v>77</v>
+      </c>
       <c r="E63" s="6"/>
       <c r="F63" s="7"/>
       <c r="G63" s="6"/>
@@ -3127,7 +3258,9 @@
       <c r="C64" t="s">
         <v>456</v>
       </c>
-      <c r="D64" s="6"/>
+      <c r="D64">
+        <v>77</v>
+      </c>
       <c r="E64" s="6"/>
       <c r="F64" s="7"/>
       <c r="G64" s="6"/>
@@ -3143,7 +3276,9 @@
       <c r="C65" t="s">
         <v>450</v>
       </c>
-      <c r="D65" s="6"/>
+      <c r="D65">
+        <v>81</v>
+      </c>
       <c r="E65" s="6"/>
       <c r="F65" s="7"/>
       <c r="G65" s="6"/>
@@ -3159,7 +3294,9 @@
       <c r="C66" t="s">
         <v>449</v>
       </c>
-      <c r="D66" s="6"/>
+      <c r="D66">
+        <v>79</v>
+      </c>
       <c r="E66" s="6"/>
       <c r="F66" s="7"/>
       <c r="G66" s="6"/>
@@ -3175,7 +3312,9 @@
       <c r="C67" t="s">
         <v>449</v>
       </c>
-      <c r="D67" s="6"/>
+      <c r="D67">
+        <v>79</v>
+      </c>
       <c r="E67" s="6"/>
       <c r="F67" s="7"/>
       <c r="G67" s="6"/>
@@ -3191,7 +3330,9 @@
       <c r="C68" t="s">
         <v>451</v>
       </c>
-      <c r="D68" s="6"/>
+      <c r="D68">
+        <v>84</v>
+      </c>
       <c r="E68" s="6"/>
       <c r="F68" s="7"/>
       <c r="G68" s="6"/>
@@ -3207,7 +3348,9 @@
       <c r="C69" t="s">
         <v>453</v>
       </c>
-      <c r="D69" s="6"/>
+      <c r="D69">
+        <v>82</v>
+      </c>
       <c r="E69" s="6"/>
       <c r="F69" s="7"/>
       <c r="G69" s="6"/>
@@ -3223,7 +3366,9 @@
       <c r="C70" t="s">
         <v>444</v>
       </c>
-      <c r="D70" s="6"/>
+      <c r="D70">
+        <v>80</v>
+      </c>
       <c r="E70" s="6"/>
       <c r="F70" s="7"/>
       <c r="G70" s="6"/>
@@ -3239,7 +3384,9 @@
       <c r="C71" t="s">
         <v>449</v>
       </c>
-      <c r="D71" s="6"/>
+      <c r="D71">
+        <v>79</v>
+      </c>
       <c r="E71" s="6"/>
       <c r="F71" s="7"/>
       <c r="G71" s="6"/>
@@ -3255,7 +3402,9 @@
       <c r="C72" t="s">
         <v>449</v>
       </c>
-      <c r="D72" s="2"/>
+      <c r="D72">
+        <v>79</v>
+      </c>
       <c r="E72" s="2"/>
       <c r="F72" s="5"/>
       <c r="G72" s="2"/>
@@ -3271,7 +3420,9 @@
       <c r="C73" t="s">
         <v>453</v>
       </c>
-      <c r="D73" s="2"/>
+      <c r="D73">
+        <v>82</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="5"/>
       <c r="G73" s="2"/>
@@ -3287,7 +3438,9 @@
       <c r="C74" t="s">
         <v>444</v>
       </c>
-      <c r="D74" s="2"/>
+      <c r="D74">
+        <v>80</v>
+      </c>
       <c r="E74" s="2"/>
       <c r="F74" s="5"/>
       <c r="G74" s="2"/>
@@ -3303,7 +3456,9 @@
       <c r="C75" t="s">
         <v>446</v>
       </c>
-      <c r="D75" s="2"/>
+      <c r="D75">
+        <v>78</v>
+      </c>
       <c r="E75" s="2"/>
       <c r="F75" s="5"/>
       <c r="G75" s="2"/>
@@ -3319,7 +3474,9 @@
       <c r="C76" t="s">
         <v>456</v>
       </c>
-      <c r="D76" s="2"/>
+      <c r="D76">
+        <v>77</v>
+      </c>
       <c r="E76" s="2"/>
       <c r="F76" s="5"/>
       <c r="G76" s="2"/>
@@ -3335,7 +3492,9 @@
       <c r="C77" t="s">
         <v>453</v>
       </c>
-      <c r="D77" s="2"/>
+      <c r="D77">
+        <v>82</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="5"/>
       <c r="G77" s="2"/>
@@ -3351,7 +3510,9 @@
       <c r="C78" t="s">
         <v>450</v>
       </c>
-      <c r="D78" s="2"/>
+      <c r="D78">
+        <v>81</v>
+      </c>
       <c r="E78" s="2"/>
       <c r="F78" s="5"/>
       <c r="G78" s="2"/>
@@ -3367,7 +3528,9 @@
       <c r="C79" t="s">
         <v>446</v>
       </c>
-      <c r="D79" s="2"/>
+      <c r="D79">
+        <v>78</v>
+      </c>
       <c r="E79" s="2"/>
       <c r="F79" s="5"/>
       <c r="G79" s="2"/>
@@ -3383,7 +3546,9 @@
       <c r="C80" t="s">
         <v>444</v>
       </c>
-      <c r="D80" s="2"/>
+      <c r="D80">
+        <v>80</v>
+      </c>
       <c r="E80" s="2"/>
       <c r="F80" s="5"/>
       <c r="G80" s="2"/>
@@ -3399,7 +3564,9 @@
       <c r="C81" t="s">
         <v>445</v>
       </c>
-      <c r="D81" s="2"/>
+      <c r="D81">
+        <v>76</v>
+      </c>
       <c r="E81" s="2"/>
       <c r="F81" s="5"/>
       <c r="G81" s="2"/>
@@ -3415,7 +3582,9 @@
       <c r="C82" t="s">
         <v>445</v>
       </c>
-      <c r="D82" s="2"/>
+      <c r="D82">
+        <v>76</v>
+      </c>
       <c r="E82" s="2"/>
       <c r="F82" s="5"/>
       <c r="G82" s="2"/>
@@ -3431,7 +3600,9 @@
       <c r="C83" t="s">
         <v>457</v>
       </c>
-      <c r="D83" s="2"/>
+      <c r="D83">
+        <v>83</v>
+      </c>
       <c r="E83" s="2"/>
       <c r="F83" s="5"/>
       <c r="G83" s="2"/>
@@ -3447,7 +3618,9 @@
       <c r="C84" t="s">
         <v>453</v>
       </c>
-      <c r="D84" s="2"/>
+      <c r="D84">
+        <v>82</v>
+      </c>
       <c r="E84" s="2"/>
       <c r="F84" s="5"/>
       <c r="G84" s="2"/>
@@ -3463,7 +3636,9 @@
       <c r="C85" t="s">
         <v>456</v>
       </c>
-      <c r="D85" s="2"/>
+      <c r="D85">
+        <v>77</v>
+      </c>
       <c r="E85" s="2"/>
       <c r="F85" s="5"/>
       <c r="G85" s="2"/>
@@ -3479,7 +3654,9 @@
       <c r="C86" t="s">
         <v>453</v>
       </c>
-      <c r="D86" s="2"/>
+      <c r="D86">
+        <v>82</v>
+      </c>
       <c r="E86" s="2"/>
       <c r="F86" s="5"/>
       <c r="G86" s="2"/>
@@ -3495,7 +3672,9 @@
       <c r="C87" t="s">
         <v>457</v>
       </c>
-      <c r="D87" s="2"/>
+      <c r="D87">
+        <v>83</v>
+      </c>
       <c r="E87" s="2"/>
       <c r="F87" s="5"/>
       <c r="G87" s="2"/>
@@ -3511,7 +3690,9 @@
       <c r="C88" t="s">
         <v>452</v>
       </c>
-      <c r="D88" s="2"/>
+      <c r="D88">
+        <v>74</v>
+      </c>
       <c r="E88" s="2"/>
       <c r="F88" s="5"/>
       <c r="G88" s="2"/>
@@ -3525,7 +3706,9 @@
       <c r="C89" t="s">
         <v>456</v>
       </c>
-      <c r="D89" s="2"/>
+      <c r="D89">
+        <v>77</v>
+      </c>
       <c r="E89" s="2"/>
       <c r="F89" s="5"/>
       <c r="G89" s="2"/>
@@ -3541,7 +3724,9 @@
       <c r="C90" t="s">
         <v>456</v>
       </c>
-      <c r="D90" s="2"/>
+      <c r="D90">
+        <v>77</v>
+      </c>
       <c r="E90" s="2"/>
       <c r="F90" s="5"/>
       <c r="G90" s="2"/>
@@ -3557,7 +3742,9 @@
       <c r="C91" t="s">
         <v>446</v>
       </c>
-      <c r="D91" s="2"/>
+      <c r="D91">
+        <v>78</v>
+      </c>
       <c r="E91" s="2"/>
       <c r="F91" s="5"/>
       <c r="G91" s="2"/>
@@ -3573,7 +3760,9 @@
       <c r="C92" t="s">
         <v>450</v>
       </c>
-      <c r="D92" s="2"/>
+      <c r="D92">
+        <v>81</v>
+      </c>
       <c r="E92" s="2"/>
       <c r="F92" s="5"/>
       <c r="G92" s="2"/>
@@ -3589,7 +3778,9 @@
       <c r="C93" t="s">
         <v>456</v>
       </c>
-      <c r="D93" s="2"/>
+      <c r="D93">
+        <v>77</v>
+      </c>
       <c r="E93" s="2"/>
       <c r="F93" s="5"/>
       <c r="G93" s="2"/>
@@ -3605,7 +3796,9 @@
       <c r="C94" t="s">
         <v>444</v>
       </c>
-      <c r="D94" s="2"/>
+      <c r="D94">
+        <v>80</v>
+      </c>
       <c r="E94" s="2"/>
       <c r="F94" s="5"/>
       <c r="G94" s="2"/>
@@ -3621,7 +3814,9 @@
       <c r="C95" t="s">
         <v>445</v>
       </c>
-      <c r="D95" s="2"/>
+      <c r="D95">
+        <v>76</v>
+      </c>
       <c r="E95" s="2"/>
       <c r="F95" s="5"/>
       <c r="G95" s="2"/>
@@ -3637,7 +3832,9 @@
       <c r="C96" t="s">
         <v>448</v>
       </c>
-      <c r="D96" s="2"/>
+      <c r="D96">
+        <v>73</v>
+      </c>
       <c r="E96" s="2"/>
       <c r="F96" s="5"/>
       <c r="G96" s="2"/>
@@ -3653,7 +3850,9 @@
       <c r="C97" t="s">
         <v>444</v>
       </c>
-      <c r="D97" s="2"/>
+      <c r="D97">
+        <v>80</v>
+      </c>
       <c r="E97" s="2"/>
       <c r="F97" s="5"/>
       <c r="G97" s="2"/>
@@ -3669,7 +3868,9 @@
       <c r="C98" t="s">
         <v>445</v>
       </c>
-      <c r="D98" s="2"/>
+      <c r="D98">
+        <v>76</v>
+      </c>
       <c r="E98" s="2"/>
       <c r="F98" s="5"/>
       <c r="G98" s="2"/>
@@ -3685,7 +3886,9 @@
       <c r="C99" t="s">
         <v>444</v>
       </c>
-      <c r="D99" s="2"/>
+      <c r="D99">
+        <v>80</v>
+      </c>
       <c r="E99" s="2"/>
       <c r="F99" s="5"/>
       <c r="G99" s="2"/>
@@ -3701,7 +3904,9 @@
       <c r="C100" t="s">
         <v>449</v>
       </c>
-      <c r="D100" s="2"/>
+      <c r="D100">
+        <v>79</v>
+      </c>
       <c r="E100" s="2"/>
       <c r="F100" s="5"/>
       <c r="G100" s="2"/>
@@ -3717,7 +3922,9 @@
       <c r="C101" t="s">
         <v>445</v>
       </c>
-      <c r="D101" s="2"/>
+      <c r="D101">
+        <v>76</v>
+      </c>
       <c r="E101" s="2"/>
       <c r="F101" s="5"/>
       <c r="G101" s="2"/>
@@ -3733,7 +3940,9 @@
       <c r="C102" t="s">
         <v>453</v>
       </c>
-      <c r="D102" s="2"/>
+      <c r="D102">
+        <v>82</v>
+      </c>
       <c r="E102" s="2"/>
       <c r="F102" s="5"/>
       <c r="G102" s="2"/>
@@ -3749,7 +3958,9 @@
       <c r="C103" t="s">
         <v>456</v>
       </c>
-      <c r="D103" s="2"/>
+      <c r="D103">
+        <v>77</v>
+      </c>
       <c r="E103" s="2"/>
       <c r="F103" s="5"/>
       <c r="G103" s="2"/>
@@ -3765,7 +3976,9 @@
       <c r="C104" t="s">
         <v>453</v>
       </c>
-      <c r="D104" s="2"/>
+      <c r="D104">
+        <v>82</v>
+      </c>
       <c r="E104" s="2"/>
       <c r="F104" s="5"/>
       <c r="G104" s="2"/>
@@ -3781,7 +3994,9 @@
       <c r="C105" t="s">
         <v>446</v>
       </c>
-      <c r="D105" s="2"/>
+      <c r="D105">
+        <v>78</v>
+      </c>
       <c r="E105" s="2"/>
       <c r="F105" s="5"/>
       <c r="G105" s="2"/>
@@ -3797,7 +4012,9 @@
       <c r="C106" t="s">
         <v>457</v>
       </c>
-      <c r="D106" s="2"/>
+      <c r="D106">
+        <v>83</v>
+      </c>
       <c r="E106" s="2"/>
       <c r="F106" s="5"/>
       <c r="G106" s="2"/>
@@ -3813,7 +4030,9 @@
       <c r="C107" t="s">
         <v>450</v>
       </c>
-      <c r="D107" s="2"/>
+      <c r="D107">
+        <v>81</v>
+      </c>
       <c r="E107" s="2"/>
       <c r="F107" s="5"/>
       <c r="G107" s="2"/>
@@ -3829,7 +4048,9 @@
       <c r="C108" t="s">
         <v>450</v>
       </c>
-      <c r="D108" s="2"/>
+      <c r="D108">
+        <v>81</v>
+      </c>
       <c r="E108" s="2"/>
       <c r="F108" s="5"/>
       <c r="G108" s="2"/>
@@ -3845,7 +4066,9 @@
       <c r="C109" t="s">
         <v>445</v>
       </c>
-      <c r="D109" s="2"/>
+      <c r="D109">
+        <v>76</v>
+      </c>
       <c r="E109" s="2"/>
       <c r="F109" s="5"/>
       <c r="G109" s="2"/>
@@ -3861,7 +4084,9 @@
       <c r="C110" t="s">
         <v>452</v>
       </c>
-      <c r="D110" s="2"/>
+      <c r="D110">
+        <v>74</v>
+      </c>
       <c r="E110" s="2"/>
       <c r="F110" s="5"/>
       <c r="G110" s="2"/>
@@ -3877,7 +4102,9 @@
       <c r="C111" t="s">
         <v>445</v>
       </c>
-      <c r="D111" s="2"/>
+      <c r="D111">
+        <v>76</v>
+      </c>
       <c r="E111" s="2"/>
       <c r="F111" s="5"/>
       <c r="G111" s="2"/>
@@ -3893,7 +4120,9 @@
       <c r="C112" t="s">
         <v>444</v>
       </c>
-      <c r="D112" s="2"/>
+      <c r="D112">
+        <v>80</v>
+      </c>
       <c r="E112" s="2"/>
       <c r="F112" s="5"/>
       <c r="G112" s="2"/>
@@ -3909,7 +4138,9 @@
       <c r="C113" t="s">
         <v>456</v>
       </c>
-      <c r="D113" s="2"/>
+      <c r="D113">
+        <v>77</v>
+      </c>
       <c r="E113" s="2"/>
       <c r="F113" s="5"/>
       <c r="G113" s="2"/>
@@ -3925,7 +4156,9 @@
       <c r="C114" t="s">
         <v>449</v>
       </c>
-      <c r="D114" s="2"/>
+      <c r="D114">
+        <v>79</v>
+      </c>
       <c r="E114" s="2"/>
       <c r="F114" s="5"/>
       <c r="G114" s="2"/>
@@ -3941,7 +4174,9 @@
       <c r="C115" t="s">
         <v>452</v>
       </c>
-      <c r="D115" s="2"/>
+      <c r="D115">
+        <v>74</v>
+      </c>
       <c r="E115" s="2"/>
       <c r="F115" s="5"/>
       <c r="G115" s="2"/>
@@ -3957,7 +4192,9 @@
       <c r="C116" t="s">
         <v>446</v>
       </c>
-      <c r="D116" s="2"/>
+      <c r="D116">
+        <v>78</v>
+      </c>
       <c r="E116" s="2"/>
       <c r="F116" s="5"/>
       <c r="G116" s="2"/>
@@ -3973,7 +4210,9 @@
       <c r="C117" t="s">
         <v>451</v>
       </c>
-      <c r="D117" s="2"/>
+      <c r="D117">
+        <v>84</v>
+      </c>
       <c r="E117" s="2"/>
       <c r="F117" s="5"/>
       <c r="G117" s="2"/>
@@ -3989,7 +4228,9 @@
       <c r="C118" t="s">
         <v>444</v>
       </c>
-      <c r="D118" s="2"/>
+      <c r="D118">
+        <v>80</v>
+      </c>
       <c r="E118" s="2"/>
       <c r="F118" s="5"/>
       <c r="G118" s="2"/>
@@ -4005,7 +4246,9 @@
       <c r="C119" t="s">
         <v>446</v>
       </c>
-      <c r="D119" s="2"/>
+      <c r="D119">
+        <v>78</v>
+      </c>
       <c r="E119" s="2"/>
       <c r="F119" s="5"/>
       <c r="G119" s="2"/>
@@ -4021,7 +4264,9 @@
       <c r="C120" t="s">
         <v>453</v>
       </c>
-      <c r="D120" s="2"/>
+      <c r="D120">
+        <v>82</v>
+      </c>
       <c r="E120" s="2"/>
       <c r="F120" s="5"/>
       <c r="G120" s="2"/>
@@ -4037,7 +4282,9 @@
       <c r="C121" t="s">
         <v>455</v>
       </c>
-      <c r="D121" s="2"/>
+      <c r="D121">
+        <v>75</v>
+      </c>
       <c r="E121" s="2"/>
       <c r="F121" s="5"/>
       <c r="G121" s="2"/>
@@ -4053,7 +4300,9 @@
       <c r="C122" t="s">
         <v>451</v>
       </c>
-      <c r="D122" s="2"/>
+      <c r="D122">
+        <v>84</v>
+      </c>
       <c r="E122" s="2"/>
       <c r="F122" s="5"/>
       <c r="G122" s="2"/>
@@ -4069,7 +4318,9 @@
       <c r="C123" t="s">
         <v>450</v>
       </c>
-      <c r="D123" s="2"/>
+      <c r="D123">
+        <v>81</v>
+      </c>
       <c r="E123" s="2"/>
       <c r="F123" s="5"/>
       <c r="G123" s="2"/>
@@ -4083,7 +4334,9 @@
       <c r="C124" t="s">
         <v>448</v>
       </c>
-      <c r="D124" s="2"/>
+      <c r="D124">
+        <v>73</v>
+      </c>
       <c r="E124" s="2"/>
       <c r="F124" s="5"/>
       <c r="G124" s="2"/>
@@ -4099,7 +4352,9 @@
       <c r="C125" t="s">
         <v>456</v>
       </c>
-      <c r="D125" s="2"/>
+      <c r="D125">
+        <v>77</v>
+      </c>
       <c r="E125" s="2"/>
       <c r="F125" s="5"/>
       <c r="G125" s="2"/>
@@ -4115,7 +4370,9 @@
       <c r="C126" t="s">
         <v>456</v>
       </c>
-      <c r="D126" s="2"/>
+      <c r="D126">
+        <v>77</v>
+      </c>
       <c r="E126" s="2"/>
       <c r="F126" s="5"/>
       <c r="G126" s="2"/>
@@ -4131,7 +4388,9 @@
       <c r="C127" t="s">
         <v>446</v>
       </c>
-      <c r="D127" s="2"/>
+      <c r="D127">
+        <v>78</v>
+      </c>
       <c r="E127" s="2"/>
       <c r="F127" s="5"/>
       <c r="G127" s="2"/>
@@ -4147,7 +4406,9 @@
       <c r="C128" t="s">
         <v>457</v>
       </c>
-      <c r="D128" s="2"/>
+      <c r="D128">
+        <v>83</v>
+      </c>
       <c r="E128" s="2"/>
       <c r="F128" s="5"/>
       <c r="G128" s="2"/>
@@ -4163,7 +4424,9 @@
       <c r="C129" t="s">
         <v>445</v>
       </c>
-      <c r="D129" s="2"/>
+      <c r="D129">
+        <v>76</v>
+      </c>
       <c r="E129" s="2"/>
       <c r="F129" s="5"/>
       <c r="G129" s="2"/>
@@ -4179,7 +4442,9 @@
       <c r="C130" t="s">
         <v>452</v>
       </c>
-      <c r="D130" s="2"/>
+      <c r="D130">
+        <v>74</v>
+      </c>
       <c r="E130" s="2"/>
       <c r="F130" s="5"/>
       <c r="G130" s="2"/>
@@ -4195,7 +4460,9 @@
       <c r="C131" t="s">
         <v>448</v>
       </c>
-      <c r="D131" s="2"/>
+      <c r="D131">
+        <v>73</v>
+      </c>
       <c r="E131" s="2"/>
       <c r="F131" s="5"/>
       <c r="G131" s="2"/>
@@ -4211,7 +4478,9 @@
       <c r="C132" t="s">
         <v>450</v>
       </c>
-      <c r="D132" s="2"/>
+      <c r="D132">
+        <v>81</v>
+      </c>
       <c r="E132" s="2"/>
       <c r="F132" s="5"/>
       <c r="G132" s="2"/>
@@ -4227,7 +4496,9 @@
       <c r="C133" t="s">
         <v>444</v>
       </c>
-      <c r="D133" s="2"/>
+      <c r="D133">
+        <v>80</v>
+      </c>
       <c r="E133" s="2"/>
       <c r="F133" s="5"/>
       <c r="G133" s="2"/>
@@ -4243,7 +4514,9 @@
       <c r="C134" t="s">
         <v>449</v>
       </c>
-      <c r="D134" s="2"/>
+      <c r="D134">
+        <v>79</v>
+      </c>
       <c r="E134" s="2"/>
       <c r="F134" s="5"/>
       <c r="G134" s="2"/>
@@ -4259,7 +4532,9 @@
       <c r="C135" t="s">
         <v>453</v>
       </c>
-      <c r="D135" s="2"/>
+      <c r="D135">
+        <v>82</v>
+      </c>
       <c r="E135" s="2"/>
       <c r="F135" s="5"/>
       <c r="G135" s="2"/>
@@ -4275,7 +4550,9 @@
       <c r="C136" t="s">
         <v>457</v>
       </c>
-      <c r="D136" s="2"/>
+      <c r="D136">
+        <v>83</v>
+      </c>
       <c r="E136" s="2"/>
       <c r="F136" s="5"/>
       <c r="G136" s="2"/>
@@ -4291,7 +4568,9 @@
       <c r="C137" t="s">
         <v>457</v>
       </c>
-      <c r="D137" s="2"/>
+      <c r="D137">
+        <v>83</v>
+      </c>
       <c r="E137" s="2"/>
       <c r="F137" s="5"/>
       <c r="G137" s="2"/>
@@ -4307,7 +4586,9 @@
       <c r="C138" t="s">
         <v>450</v>
       </c>
-      <c r="D138" s="2"/>
+      <c r="D138">
+        <v>81</v>
+      </c>
       <c r="E138" s="2"/>
       <c r="F138" s="5"/>
       <c r="G138" s="2"/>
@@ -4323,7 +4604,9 @@
       <c r="C139" t="s">
         <v>456</v>
       </c>
-      <c r="D139" s="2"/>
+      <c r="D139">
+        <v>77</v>
+      </c>
       <c r="E139" s="2"/>
       <c r="F139" s="5"/>
       <c r="G139" s="2"/>
@@ -4339,7 +4622,9 @@
       <c r="C140" t="s">
         <v>455</v>
       </c>
-      <c r="D140" s="2"/>
+      <c r="D140">
+        <v>75</v>
+      </c>
       <c r="E140" s="2"/>
       <c r="F140" s="5"/>
       <c r="G140" s="2"/>
@@ -4353,7 +4638,9 @@
       <c r="C141" t="s">
         <v>452</v>
       </c>
-      <c r="D141" s="2"/>
+      <c r="D141">
+        <v>74</v>
+      </c>
       <c r="E141" s="2"/>
       <c r="F141" s="5"/>
       <c r="G141" s="2"/>
@@ -4369,7 +4656,9 @@
       <c r="C142" t="s">
         <v>449</v>
       </c>
-      <c r="D142" s="2"/>
+      <c r="D142">
+        <v>79</v>
+      </c>
       <c r="E142" s="2"/>
       <c r="F142" s="5"/>
       <c r="G142" s="2"/>
@@ -4385,7 +4674,9 @@
       <c r="C143" t="s">
         <v>445</v>
       </c>
-      <c r="D143" s="2"/>
+      <c r="D143">
+        <v>76</v>
+      </c>
       <c r="E143" s="2"/>
       <c r="F143" s="5"/>
       <c r="G143" s="2"/>
@@ -4401,7 +4692,9 @@
       <c r="C144" t="s">
         <v>446</v>
       </c>
-      <c r="D144" s="2"/>
+      <c r="D144">
+        <v>78</v>
+      </c>
       <c r="E144" s="2"/>
       <c r="F144" s="5"/>
       <c r="G144" s="2"/>
@@ -4417,7 +4710,9 @@
       <c r="C145" t="s">
         <v>444</v>
       </c>
-      <c r="D145" s="2"/>
+      <c r="D145">
+        <v>80</v>
+      </c>
       <c r="E145" s="2"/>
       <c r="F145" s="5"/>
       <c r="G145" s="2"/>
@@ -4433,7 +4728,9 @@
       <c r="C146" t="s">
         <v>452</v>
       </c>
-      <c r="D146" s="2"/>
+      <c r="D146">
+        <v>74</v>
+      </c>
       <c r="E146" s="2"/>
       <c r="F146" s="5"/>
       <c r="G146" s="2"/>
@@ -4449,7 +4746,9 @@
       <c r="C147" t="s">
         <v>445</v>
       </c>
-      <c r="D147" s="2"/>
+      <c r="D147">
+        <v>76</v>
+      </c>
       <c r="E147" s="2"/>
       <c r="F147" s="5"/>
       <c r="G147" s="2"/>
@@ -4465,7 +4764,9 @@
       <c r="C148" t="s">
         <v>450</v>
       </c>
-      <c r="D148" s="2"/>
+      <c r="D148">
+        <v>81</v>
+      </c>
       <c r="E148" s="2"/>
       <c r="F148" s="5"/>
       <c r="G148" s="2"/>
@@ -4481,7 +4782,9 @@
       <c r="C149" t="s">
         <v>453</v>
       </c>
-      <c r="D149" s="2"/>
+      <c r="D149">
+        <v>82</v>
+      </c>
       <c r="E149" s="2"/>
       <c r="F149" s="5"/>
       <c r="G149" s="2"/>
@@ -4497,7 +4800,9 @@
       <c r="C150" t="s">
         <v>455</v>
       </c>
-      <c r="D150" s="2"/>
+      <c r="D150">
+        <v>75</v>
+      </c>
       <c r="E150" s="2"/>
       <c r="F150" s="5"/>
       <c r="G150" s="2"/>
@@ -4513,7 +4818,9 @@
       <c r="C151" t="s">
         <v>457</v>
       </c>
-      <c r="D151" s="2"/>
+      <c r="D151">
+        <v>83</v>
+      </c>
       <c r="E151" s="2"/>
       <c r="F151" s="5"/>
       <c r="G151" s="2"/>
@@ -4529,7 +4836,9 @@
       <c r="C152" t="s">
         <v>457</v>
       </c>
-      <c r="D152" s="2"/>
+      <c r="D152">
+        <v>83</v>
+      </c>
       <c r="E152" s="2"/>
       <c r="F152" s="5"/>
       <c r="G152" s="2"/>
@@ -4545,7 +4854,9 @@
       <c r="C153" t="s">
         <v>453</v>
       </c>
-      <c r="D153" s="2"/>
+      <c r="D153">
+        <v>82</v>
+      </c>
       <c r="E153" s="2"/>
       <c r="F153" s="5"/>
       <c r="G153" s="2"/>
@@ -4561,7 +4872,9 @@
       <c r="C154" t="s">
         <v>444</v>
       </c>
-      <c r="D154" s="2"/>
+      <c r="D154">
+        <v>80</v>
+      </c>
       <c r="E154" s="2"/>
       <c r="F154" s="5"/>
       <c r="G154" s="2"/>
@@ -4577,7 +4890,9 @@
       <c r="C155" t="s">
         <v>445</v>
       </c>
-      <c r="D155" s="2"/>
+      <c r="D155">
+        <v>76</v>
+      </c>
       <c r="E155" s="2"/>
       <c r="F155" s="5"/>
       <c r="G155" s="2"/>
@@ -4593,7 +4908,9 @@
       <c r="C156" t="s">
         <v>456</v>
       </c>
-      <c r="D156" s="2"/>
+      <c r="D156">
+        <v>77</v>
+      </c>
       <c r="E156" s="2"/>
       <c r="F156" s="5"/>
       <c r="G156" s="2"/>
@@ -4609,7 +4926,9 @@
       <c r="C157" t="s">
         <v>449</v>
       </c>
-      <c r="D157" s="2"/>
+      <c r="D157">
+        <v>79</v>
+      </c>
       <c r="E157" s="2"/>
       <c r="F157" s="5"/>
       <c r="G157" s="2"/>
@@ -4625,7 +4944,9 @@
       <c r="C158" t="s">
         <v>457</v>
       </c>
-      <c r="D158" s="2"/>
+      <c r="D158">
+        <v>83</v>
+      </c>
       <c r="E158" s="2"/>
       <c r="F158" s="5"/>
       <c r="G158" s="2"/>
@@ -4641,7 +4962,9 @@
       <c r="C159" t="s">
         <v>456</v>
       </c>
-      <c r="D159" s="2"/>
+      <c r="D159">
+        <v>77</v>
+      </c>
       <c r="E159" s="2"/>
       <c r="F159" s="5"/>
       <c r="G159" s="2"/>
@@ -4657,7 +4980,9 @@
       <c r="C160" t="s">
         <v>456</v>
       </c>
-      <c r="D160" s="2"/>
+      <c r="D160">
+        <v>77</v>
+      </c>
       <c r="E160" s="2"/>
       <c r="F160" s="5"/>
       <c r="G160" s="2"/>
@@ -4673,7 +4998,9 @@
       <c r="C161" t="s">
         <v>457</v>
       </c>
-      <c r="D161" s="2"/>
+      <c r="D161">
+        <v>83</v>
+      </c>
       <c r="E161" s="2"/>
       <c r="F161" s="5"/>
       <c r="G161" s="2"/>
@@ -4689,7 +5016,9 @@
       <c r="C162" t="s">
         <v>448</v>
       </c>
-      <c r="D162" s="2"/>
+      <c r="D162">
+        <v>73</v>
+      </c>
       <c r="E162" s="2"/>
       <c r="F162" s="5"/>
       <c r="G162" s="2"/>
@@ -4705,7 +5034,9 @@
       <c r="C163" t="s">
         <v>456</v>
       </c>
-      <c r="D163" s="2"/>
+      <c r="D163">
+        <v>77</v>
+      </c>
       <c r="E163" s="2"/>
       <c r="F163" s="5"/>
       <c r="G163" s="2"/>
@@ -4721,7 +5052,9 @@
       <c r="C164" t="s">
         <v>456</v>
       </c>
-      <c r="D164" s="2"/>
+      <c r="D164">
+        <v>77</v>
+      </c>
       <c r="E164" s="2"/>
       <c r="F164" s="5"/>
       <c r="G164" s="2"/>
@@ -4737,7 +5070,9 @@
       <c r="C165" t="s">
         <v>453</v>
       </c>
-      <c r="D165" s="2"/>
+      <c r="D165">
+        <v>82</v>
+      </c>
       <c r="E165" s="2"/>
       <c r="F165" s="5"/>
       <c r="G165" s="2"/>
@@ -4753,7 +5088,9 @@
       <c r="C166" t="s">
         <v>446</v>
       </c>
-      <c r="D166" s="2"/>
+      <c r="D166">
+        <v>78</v>
+      </c>
       <c r="E166" s="2"/>
       <c r="F166" s="5"/>
       <c r="G166" s="2"/>
@@ -4769,7 +5106,9 @@
       <c r="C167" t="s">
         <v>456</v>
       </c>
-      <c r="D167" s="2"/>
+      <c r="D167">
+        <v>77</v>
+      </c>
       <c r="E167" s="2"/>
       <c r="F167" s="5"/>
       <c r="G167" s="2"/>
@@ -4785,7 +5124,9 @@
       <c r="C168" t="s">
         <v>449</v>
       </c>
-      <c r="D168" s="2"/>
+      <c r="D168">
+        <v>79</v>
+      </c>
       <c r="E168" s="2"/>
       <c r="F168" s="5"/>
       <c r="G168" s="2"/>
@@ -4801,7 +5142,9 @@
       <c r="C169" t="s">
         <v>444</v>
       </c>
-      <c r="D169" s="2"/>
+      <c r="D169">
+        <v>80</v>
+      </c>
       <c r="E169" s="2"/>
       <c r="F169" s="5"/>
       <c r="G169" s="2"/>
@@ -4817,7 +5160,9 @@
       <c r="C170" t="s">
         <v>446</v>
       </c>
-      <c r="D170" s="2"/>
+      <c r="D170">
+        <v>78</v>
+      </c>
       <c r="E170" s="2"/>
       <c r="F170" s="5"/>
       <c r="G170" s="2"/>
@@ -4833,7 +5178,9 @@
       <c r="C171" t="s">
         <v>450</v>
       </c>
-      <c r="D171" s="2"/>
+      <c r="D171">
+        <v>81</v>
+      </c>
       <c r="E171" s="2"/>
       <c r="F171" s="5"/>
       <c r="G171" s="2"/>
@@ -4849,7 +5196,9 @@
       <c r="C172" t="s">
         <v>449</v>
       </c>
-      <c r="D172" s="2"/>
+      <c r="D172">
+        <v>79</v>
+      </c>
       <c r="E172" s="2"/>
       <c r="F172" s="5"/>
       <c r="G172" s="2"/>
@@ -4865,7 +5214,9 @@
       <c r="C173" t="s">
         <v>456</v>
       </c>
-      <c r="D173" s="2"/>
+      <c r="D173">
+        <v>77</v>
+      </c>
       <c r="E173" s="2"/>
       <c r="F173" s="5"/>
       <c r="G173" s="2"/>
@@ -4881,7 +5232,9 @@
       <c r="C174" t="s">
         <v>449</v>
       </c>
-      <c r="D174" s="2"/>
+      <c r="D174">
+        <v>79</v>
+      </c>
       <c r="E174" s="2"/>
       <c r="F174" s="5"/>
       <c r="G174" s="2"/>
@@ -4895,7 +5248,9 @@
       <c r="C175" t="s">
         <v>446</v>
       </c>
-      <c r="D175" s="2"/>
+      <c r="D175">
+        <v>78</v>
+      </c>
       <c r="E175" s="2"/>
       <c r="F175" s="5"/>
       <c r="G175" s="2"/>
@@ -4909,7 +5264,9 @@
       <c r="C176" t="s">
         <v>450</v>
       </c>
-      <c r="D176" s="2"/>
+      <c r="D176">
+        <v>81</v>
+      </c>
       <c r="E176" s="2"/>
       <c r="F176" s="5"/>
       <c r="G176" s="2"/>
@@ -4925,7 +5282,9 @@
       <c r="C177" t="s">
         <v>450</v>
       </c>
-      <c r="D177" s="2"/>
+      <c r="D177">
+        <v>81</v>
+      </c>
       <c r="E177" s="2"/>
       <c r="F177" s="5"/>
       <c r="G177" s="2"/>
@@ -4941,7 +5300,9 @@
       <c r="C178" t="s">
         <v>445</v>
       </c>
-      <c r="D178" s="2"/>
+      <c r="D178">
+        <v>76</v>
+      </c>
       <c r="E178" s="2"/>
       <c r="F178" s="5"/>
       <c r="G178" s="2"/>
@@ -4957,7 +5318,9 @@
       <c r="C179" t="s">
         <v>446</v>
       </c>
-      <c r="D179" s="2"/>
+      <c r="D179">
+        <v>78</v>
+      </c>
       <c r="E179" s="2"/>
       <c r="F179" s="5"/>
       <c r="G179" s="2"/>
@@ -4973,7 +5336,9 @@
       <c r="C180" t="s">
         <v>445</v>
       </c>
-      <c r="D180" s="2"/>
+      <c r="D180">
+        <v>76</v>
+      </c>
       <c r="E180" s="2"/>
       <c r="F180" s="5"/>
       <c r="G180" s="2"/>
@@ -4989,7 +5354,9 @@
       <c r="C181" t="s">
         <v>456</v>
       </c>
-      <c r="D181" s="2"/>
+      <c r="D181">
+        <v>77</v>
+      </c>
       <c r="E181" s="2"/>
       <c r="F181" s="5"/>
       <c r="G181" s="2"/>
@@ -5005,7 +5372,9 @@
       <c r="C182" t="s">
         <v>452</v>
       </c>
-      <c r="D182" s="2"/>
+      <c r="D182">
+        <v>74</v>
+      </c>
       <c r="E182" s="2"/>
       <c r="F182" s="5"/>
       <c r="G182" s="2"/>
@@ -5021,7 +5390,9 @@
       <c r="C183" t="s">
         <v>448</v>
       </c>
-      <c r="D183" s="2"/>
+      <c r="D183">
+        <v>73</v>
+      </c>
       <c r="E183" s="2"/>
       <c r="F183" s="5"/>
       <c r="G183" s="2"/>
@@ -5037,7 +5408,9 @@
       <c r="C184" t="s">
         <v>444</v>
       </c>
-      <c r="D184" s="2"/>
+      <c r="D184">
+        <v>80</v>
+      </c>
       <c r="E184" s="2"/>
       <c r="F184" s="5"/>
       <c r="G184" s="2"/>
@@ -5053,7 +5426,9 @@
       <c r="C185" t="s">
         <v>456</v>
       </c>
-      <c r="D185" s="2"/>
+      <c r="D185">
+        <v>77</v>
+      </c>
       <c r="E185" s="2"/>
       <c r="F185" s="5"/>
       <c r="G185" s="2"/>
@@ -5069,7 +5444,9 @@
       <c r="C186" t="s">
         <v>446</v>
       </c>
-      <c r="D186" s="2"/>
+      <c r="D186">
+        <v>78</v>
+      </c>
       <c r="E186" s="2"/>
       <c r="F186" s="5"/>
       <c r="G186" s="2"/>
@@ -5085,7 +5462,9 @@
       <c r="C187" t="s">
         <v>453</v>
       </c>
-      <c r="D187" s="2"/>
+      <c r="D187">
+        <v>82</v>
+      </c>
       <c r="E187" s="2"/>
       <c r="F187" s="5"/>
       <c r="G187" s="2"/>
@@ -5101,7 +5480,9 @@
       <c r="C188" t="s">
         <v>444</v>
       </c>
-      <c r="D188" s="2"/>
+      <c r="D188">
+        <v>80</v>
+      </c>
       <c r="E188" s="2"/>
       <c r="F188" s="5"/>
       <c r="G188" s="2"/>
@@ -5117,7 +5498,9 @@
       <c r="C189" t="s">
         <v>457</v>
       </c>
-      <c r="D189" s="2"/>
+      <c r="D189">
+        <v>83</v>
+      </c>
       <c r="E189" s="2"/>
       <c r="F189" s="5"/>
       <c r="G189" s="2"/>
@@ -5133,7 +5516,9 @@
       <c r="C190" t="s">
         <v>450</v>
       </c>
-      <c r="D190" s="2"/>
+      <c r="D190">
+        <v>81</v>
+      </c>
       <c r="E190" s="2"/>
       <c r="F190" s="5"/>
       <c r="G190" s="2"/>
@@ -5149,7 +5534,9 @@
       <c r="C191" t="s">
         <v>456</v>
       </c>
-      <c r="D191" s="2"/>
+      <c r="D191">
+        <v>77</v>
+      </c>
       <c r="E191" s="2"/>
       <c r="F191" s="5"/>
       <c r="G191" s="2"/>
@@ -5165,7 +5552,9 @@
       <c r="C192" t="s">
         <v>456</v>
       </c>
-      <c r="D192" s="2"/>
+      <c r="D192">
+        <v>77</v>
+      </c>
       <c r="E192" s="2"/>
       <c r="F192" s="5"/>
       <c r="G192" s="2"/>
@@ -5181,7 +5570,9 @@
       <c r="C193" t="s">
         <v>449</v>
       </c>
-      <c r="D193" s="2"/>
+      <c r="D193">
+        <v>79</v>
+      </c>
       <c r="E193" s="2"/>
       <c r="F193" s="5"/>
       <c r="G193" s="2"/>
@@ -5195,7 +5586,9 @@
       <c r="C194" t="s">
         <v>444</v>
       </c>
-      <c r="D194" s="2"/>
+      <c r="D194">
+        <v>80</v>
+      </c>
       <c r="E194" s="2"/>
       <c r="F194" s="5"/>
       <c r="G194" s="2"/>
@@ -5211,7 +5604,9 @@
       <c r="C195" t="s">
         <v>446</v>
       </c>
-      <c r="D195" s="2"/>
+      <c r="D195">
+        <v>78</v>
+      </c>
       <c r="E195" s="2"/>
       <c r="F195" s="5"/>
       <c r="G195" s="2"/>
@@ -5227,7 +5622,9 @@
       <c r="C196" t="s">
         <v>450</v>
       </c>
-      <c r="D196" s="2"/>
+      <c r="D196">
+        <v>81</v>
+      </c>
       <c r="E196" s="2"/>
       <c r="F196" s="5"/>
       <c r="G196" s="2"/>
@@ -5243,7 +5640,9 @@
       <c r="C197" t="s">
         <v>449</v>
       </c>
-      <c r="D197" s="2"/>
+      <c r="D197">
+        <v>79</v>
+      </c>
       <c r="E197" s="2"/>
       <c r="F197" s="5"/>
       <c r="G197" s="2"/>
@@ -5259,7 +5658,9 @@
       <c r="C198" t="s">
         <v>455</v>
       </c>
-      <c r="D198" s="2"/>
+      <c r="D198">
+        <v>75</v>
+      </c>
       <c r="E198" s="2"/>
       <c r="F198" s="5"/>
       <c r="G198" s="2"/>
@@ -5275,7 +5676,9 @@
       <c r="C199" t="s">
         <v>446</v>
       </c>
-      <c r="D199" s="2"/>
+      <c r="D199">
+        <v>78</v>
+      </c>
       <c r="E199" s="2"/>
       <c r="F199" s="5"/>
       <c r="G199" s="2"/>
@@ -5291,7 +5694,9 @@
       <c r="C200" t="s">
         <v>456</v>
       </c>
-      <c r="D200" s="2"/>
+      <c r="D200">
+        <v>77</v>
+      </c>
       <c r="E200" s="2"/>
       <c r="F200" s="5"/>
       <c r="G200" s="2"/>
@@ -5307,7 +5712,9 @@
       <c r="C201" t="s">
         <v>448</v>
       </c>
-      <c r="D201" s="2"/>
+      <c r="D201">
+        <v>73</v>
+      </c>
       <c r="E201" s="2"/>
       <c r="F201" s="5"/>
       <c r="G201" s="2"/>
@@ -5323,7 +5730,9 @@
       <c r="C202" t="s">
         <v>451</v>
       </c>
-      <c r="D202" s="2"/>
+      <c r="D202">
+        <v>84</v>
+      </c>
       <c r="E202" s="2"/>
       <c r="F202" s="5"/>
       <c r="G202" s="2"/>
@@ -5339,7 +5748,9 @@
       <c r="C203" t="s">
         <v>444</v>
       </c>
-      <c r="D203" s="2"/>
+      <c r="D203">
+        <v>80</v>
+      </c>
       <c r="E203" s="2"/>
       <c r="F203" s="5"/>
       <c r="G203" s="2"/>
@@ -5355,7 +5766,9 @@
       <c r="C204" t="s">
         <v>459</v>
       </c>
-      <c r="D204" s="2"/>
+      <c r="D204">
+        <v>68</v>
+      </c>
       <c r="E204" s="2"/>
       <c r="F204" s="5"/>
       <c r="G204" s="2"/>
@@ -5371,7 +5784,9 @@
       <c r="C205" t="s">
         <v>450</v>
       </c>
-      <c r="D205" s="2"/>
+      <c r="D205">
+        <v>81</v>
+      </c>
       <c r="E205" s="2"/>
       <c r="F205" s="5"/>
       <c r="G205" s="2"/>
@@ -5387,7 +5802,9 @@
       <c r="C206" t="s">
         <v>444</v>
       </c>
-      <c r="D206" s="2"/>
+      <c r="D206">
+        <v>80</v>
+      </c>
       <c r="E206" s="2"/>
       <c r="F206" s="5"/>
       <c r="G206" s="2"/>
@@ -5403,7 +5820,9 @@
       <c r="C207" t="s">
         <v>456</v>
       </c>
-      <c r="D207" s="2"/>
+      <c r="D207">
+        <v>77</v>
+      </c>
       <c r="E207" s="2"/>
       <c r="F207" s="5"/>
       <c r="G207" s="2"/>
@@ -5419,7 +5838,9 @@
       <c r="C208" t="s">
         <v>444</v>
       </c>
-      <c r="D208" s="2"/>
+      <c r="D208">
+        <v>80</v>
+      </c>
       <c r="E208" s="2"/>
       <c r="F208" s="5"/>
       <c r="G208" s="2"/>
@@ -5433,7 +5854,9 @@
       <c r="C209" t="s">
         <v>457</v>
       </c>
-      <c r="D209" s="2"/>
+      <c r="D209">
+        <v>83</v>
+      </c>
       <c r="E209" s="2"/>
       <c r="F209" s="5"/>
       <c r="G209" s="2"/>
@@ -5447,7 +5870,9 @@
       <c r="C210" t="s">
         <v>454</v>
       </c>
-      <c r="D210" s="2"/>
+      <c r="D210">
+        <v>85</v>
+      </c>
       <c r="E210" s="2"/>
       <c r="F210" s="5"/>
       <c r="G210" s="2"/>
@@ -5461,7 +5886,9 @@
       <c r="C211" t="s">
         <v>445</v>
       </c>
-      <c r="D211" s="2"/>
+      <c r="D211">
+        <v>76</v>
+      </c>
       <c r="E211" s="2"/>
       <c r="F211" s="5"/>
       <c r="G211" s="2"/>
@@ -5477,7 +5904,9 @@
       <c r="C212" t="s">
         <v>449</v>
       </c>
-      <c r="D212" s="2"/>
+      <c r="D212">
+        <v>79</v>
+      </c>
       <c r="E212" s="2"/>
       <c r="F212" s="5"/>
       <c r="G212" s="2"/>
@@ -5493,7 +5922,9 @@
       <c r="C213" t="s">
         <v>449</v>
       </c>
-      <c r="D213" s="2"/>
+      <c r="D213">
+        <v>79</v>
+      </c>
       <c r="E213" s="2"/>
       <c r="F213" s="5"/>
       <c r="G213" s="2"/>
@@ -5509,7 +5940,9 @@
       <c r="C214" t="s">
         <v>456</v>
       </c>
-      <c r="D214" s="2"/>
+      <c r="D214">
+        <v>77</v>
+      </c>
       <c r="E214" s="2"/>
       <c r="F214" s="5"/>
       <c r="G214" s="2"/>
@@ -5525,7 +5958,9 @@
       <c r="C215" t="s">
         <v>448</v>
       </c>
-      <c r="D215" s="2"/>
+      <c r="D215">
+        <v>73</v>
+      </c>
       <c r="E215" s="2"/>
       <c r="F215" s="5"/>
       <c r="G215" s="2"/>
@@ -5541,7 +5976,9 @@
       <c r="C216" t="s">
         <v>451</v>
       </c>
-      <c r="D216" s="2"/>
+      <c r="D216">
+        <v>84</v>
+      </c>
       <c r="E216" s="2"/>
       <c r="F216" s="5"/>
       <c r="G216" s="2"/>
@@ -5557,7 +5994,9 @@
       <c r="C217" t="s">
         <v>451</v>
       </c>
-      <c r="D217" s="2"/>
+      <c r="D217">
+        <v>84</v>
+      </c>
       <c r="E217" s="2"/>
       <c r="F217" s="5"/>
       <c r="G217" s="2"/>
@@ -5573,7 +6012,9 @@
       <c r="C218" t="s">
         <v>449</v>
       </c>
-      <c r="D218" s="2"/>
+      <c r="D218">
+        <v>79</v>
+      </c>
       <c r="E218" s="2"/>
       <c r="F218" s="5"/>
       <c r="G218" s="2"/>
@@ -5589,7 +6030,9 @@
       <c r="C219" t="s">
         <v>456</v>
       </c>
-      <c r="D219" s="2"/>
+      <c r="D219">
+        <v>77</v>
+      </c>
       <c r="E219" s="2"/>
       <c r="F219" s="5"/>
       <c r="G219" s="2"/>
@@ -5605,7 +6048,9 @@
       <c r="C220" t="s">
         <v>456</v>
       </c>
-      <c r="D220" s="2"/>
+      <c r="D220">
+        <v>77</v>
+      </c>
       <c r="E220" s="2"/>
       <c r="F220" s="5"/>
       <c r="G220" s="2"/>
@@ -5621,7 +6066,9 @@
       <c r="C221" t="s">
         <v>456</v>
       </c>
-      <c r="D221" s="2"/>
+      <c r="D221">
+        <v>77</v>
+      </c>
       <c r="E221" s="2"/>
       <c r="F221" s="5"/>
       <c r="G221" s="2"/>
@@ -5637,7 +6084,9 @@
       <c r="C222" t="s">
         <v>450</v>
       </c>
-      <c r="D222" s="2"/>
+      <c r="D222">
+        <v>81</v>
+      </c>
       <c r="E222" s="2"/>
       <c r="F222" s="5"/>
       <c r="G222" s="2"/>
@@ -5653,7 +6102,9 @@
       <c r="C223" t="s">
         <v>458</v>
       </c>
-      <c r="D223" s="2"/>
+      <c r="D223">
+        <v>72</v>
+      </c>
       <c r="E223" s="2"/>
       <c r="F223" s="5"/>
       <c r="G223" s="2"/>
@@ -5669,7 +6120,9 @@
       <c r="C224" t="s">
         <v>449</v>
       </c>
-      <c r="D224" s="2"/>
+      <c r="D224">
+        <v>79</v>
+      </c>
       <c r="E224" s="2"/>
       <c r="F224" s="5"/>
       <c r="G224" s="2"/>
@@ -5685,7 +6138,9 @@
       <c r="C225" t="s">
         <v>453</v>
       </c>
-      <c r="D225" s="2"/>
+      <c r="D225">
+        <v>82</v>
+      </c>
       <c r="E225" s="2"/>
       <c r="F225" s="5"/>
       <c r="G225" s="2"/>
@@ -5701,7 +6156,9 @@
       <c r="C226" t="s">
         <v>450</v>
       </c>
-      <c r="D226" s="2"/>
+      <c r="D226">
+        <v>81</v>
+      </c>
       <c r="E226" s="2"/>
       <c r="F226" s="5"/>
       <c r="G226" s="2"/>
@@ -5717,7 +6174,9 @@
       <c r="C227" t="s">
         <v>449</v>
       </c>
-      <c r="D227" s="2"/>
+      <c r="D227">
+        <v>79</v>
+      </c>
       <c r="E227" s="2"/>
       <c r="F227" s="5"/>
       <c r="G227" s="2"/>
@@ -5733,7 +6192,9 @@
       <c r="C228" t="s">
         <v>444</v>
       </c>
-      <c r="D228" s="2"/>
+      <c r="D228">
+        <v>80</v>
+      </c>
       <c r="E228" s="2"/>
       <c r="F228" s="5"/>
       <c r="G228" s="2"/>
@@ -5747,7 +6208,9 @@
       <c r="C229" t="s">
         <v>445</v>
       </c>
-      <c r="D229" s="2"/>
+      <c r="D229">
+        <v>76</v>
+      </c>
       <c r="E229" s="2"/>
       <c r="F229" s="5"/>
       <c r="G229" s="2"/>
@@ -5763,7 +6226,9 @@
       <c r="C230" t="s">
         <v>446</v>
       </c>
-      <c r="D230" s="2"/>
+      <c r="D230">
+        <v>78</v>
+      </c>
       <c r="E230" s="2"/>
       <c r="F230" s="5"/>
       <c r="G230" s="2"/>
@@ -5779,7 +6244,9 @@
       <c r="C231" t="s">
         <v>456</v>
       </c>
-      <c r="D231" s="2"/>
+      <c r="D231">
+        <v>77</v>
+      </c>
       <c r="E231" s="2"/>
       <c r="F231" s="5"/>
       <c r="G231" s="2"/>
@@ -5795,7 +6262,9 @@
       <c r="C232" t="s">
         <v>455</v>
       </c>
-      <c r="D232" s="2"/>
+      <c r="D232">
+        <v>75</v>
+      </c>
       <c r="E232" s="2"/>
       <c r="F232" s="5"/>
       <c r="G232" s="2"/>
@@ -5811,7 +6280,9 @@
       <c r="C233" t="s">
         <v>448</v>
       </c>
-      <c r="D233" s="2"/>
+      <c r="D233">
+        <v>73</v>
+      </c>
       <c r="E233" s="2"/>
       <c r="F233" s="5"/>
       <c r="G233" s="2"/>
@@ -5827,7 +6298,9 @@
       <c r="C234" t="s">
         <v>450</v>
       </c>
-      <c r="D234" s="2"/>
+      <c r="D234">
+        <v>81</v>
+      </c>
       <c r="E234" s="2"/>
       <c r="F234" s="5"/>
       <c r="G234" s="2"/>
@@ -5843,7 +6316,9 @@
       <c r="C235" t="s">
         <v>450</v>
       </c>
-      <c r="D235" s="2"/>
+      <c r="D235">
+        <v>81</v>
+      </c>
       <c r="E235" s="2"/>
       <c r="F235" s="5"/>
       <c r="G235" s="2"/>
@@ -5859,7 +6334,9 @@
       <c r="C236" t="s">
         <v>445</v>
       </c>
-      <c r="D236" s="2"/>
+      <c r="D236">
+        <v>76</v>
+      </c>
       <c r="E236" s="2"/>
       <c r="F236" s="5"/>
       <c r="G236" s="2"/>
@@ -5875,7 +6352,9 @@
       <c r="C237" t="s">
         <v>445</v>
       </c>
-      <c r="D237" s="2"/>
+      <c r="D237">
+        <v>76</v>
+      </c>
       <c r="E237" s="2"/>
       <c r="F237" s="5"/>
       <c r="G237" s="2"/>
@@ -5891,7 +6370,9 @@
       <c r="C238" t="s">
         <v>449</v>
       </c>
-      <c r="D238" s="2"/>
+      <c r="D238">
+        <v>79</v>
+      </c>
       <c r="E238" s="2"/>
       <c r="F238" s="5"/>
       <c r="G238" s="2"/>
@@ -5907,7 +6388,9 @@
       <c r="C239" t="s">
         <v>449</v>
       </c>
-      <c r="D239" s="2"/>
+      <c r="D239">
+        <v>79</v>
+      </c>
       <c r="E239" s="2"/>
       <c r="F239" s="5"/>
       <c r="G239" s="2"/>
@@ -5923,7 +6406,9 @@
       <c r="C240" t="s">
         <v>445</v>
       </c>
-      <c r="D240" s="2"/>
+      <c r="D240">
+        <v>76</v>
+      </c>
       <c r="E240" s="2"/>
       <c r="F240" s="5"/>
       <c r="G240" s="2"/>
@@ -5939,7 +6424,9 @@
       <c r="C241" t="s">
         <v>453</v>
       </c>
-      <c r="D241" s="2"/>
+      <c r="D241">
+        <v>82</v>
+      </c>
       <c r="E241" s="2"/>
       <c r="F241" s="5"/>
       <c r="G241" s="2"/>
@@ -5955,7 +6442,9 @@
       <c r="C242" t="s">
         <v>449</v>
       </c>
-      <c r="D242" s="2"/>
+      <c r="D242">
+        <v>79</v>
+      </c>
       <c r="E242" s="2"/>
       <c r="F242" s="5"/>
       <c r="G242" s="2"/>
@@ -5971,7 +6460,9 @@
       <c r="C243" t="s">
         <v>450</v>
       </c>
-      <c r="D243" s="2"/>
+      <c r="D243">
+        <v>81</v>
+      </c>
       <c r="E243" s="2"/>
       <c r="F243" s="5"/>
       <c r="G243" s="2"/>
@@ -5987,7 +6478,9 @@
       <c r="C244" t="s">
         <v>453</v>
       </c>
-      <c r="D244" s="2"/>
+      <c r="D244">
+        <v>82</v>
+      </c>
       <c r="E244" s="2"/>
       <c r="F244" s="5"/>
       <c r="G244" s="2"/>
@@ -6003,7 +6496,9 @@
       <c r="C245" t="s">
         <v>456</v>
       </c>
-      <c r="D245" s="2"/>
+      <c r="D245">
+        <v>77</v>
+      </c>
       <c r="E245" s="2"/>
       <c r="F245" s="5"/>
       <c r="G245" s="2"/>
@@ -6019,7 +6514,9 @@
       <c r="C246" t="s">
         <v>453</v>
       </c>
-      <c r="D246" s="2"/>
+      <c r="D246">
+        <v>82</v>
+      </c>
       <c r="E246" s="2"/>
       <c r="F246" s="5"/>
       <c r="G246" s="2"/>
@@ -6035,7 +6532,9 @@
       <c r="C247" t="s">
         <v>449</v>
       </c>
-      <c r="D247" s="2"/>
+      <c r="D247">
+        <v>79</v>
+      </c>
       <c r="E247" s="2"/>
       <c r="F247" s="5"/>
       <c r="G247" s="2"/>
@@ -6051,7 +6550,9 @@
       <c r="C248" t="s">
         <v>453</v>
       </c>
-      <c r="D248" s="2"/>
+      <c r="D248">
+        <v>82</v>
+      </c>
       <c r="E248" s="2"/>
       <c r="F248" s="5"/>
       <c r="G248" s="2"/>
@@ -6067,7 +6568,9 @@
       <c r="C249" t="s">
         <v>446</v>
       </c>
-      <c r="D249" s="2"/>
+      <c r="D249">
+        <v>78</v>
+      </c>
       <c r="E249" s="2"/>
       <c r="F249" s="5"/>
       <c r="G249" s="2"/>
@@ -6083,7 +6586,9 @@
       <c r="C250" t="s">
         <v>456</v>
       </c>
-      <c r="D250" s="2"/>
+      <c r="D250">
+        <v>77</v>
+      </c>
       <c r="E250" s="2"/>
       <c r="F250" s="5"/>
       <c r="G250" s="2"/>
@@ -6099,7 +6604,9 @@
       <c r="C251" t="s">
         <v>446</v>
       </c>
-      <c r="D251" s="2"/>
+      <c r="D251">
+        <v>78</v>
+      </c>
       <c r="E251" s="2"/>
       <c r="F251" s="5"/>
       <c r="G251" s="2"/>
@@ -6115,7 +6622,9 @@
       <c r="C252" t="s">
         <v>449</v>
       </c>
-      <c r="D252" s="2"/>
+      <c r="D252">
+        <v>79</v>
+      </c>
       <c r="E252" s="2"/>
       <c r="F252" s="5"/>
       <c r="G252" s="2"/>
@@ -6131,7 +6640,9 @@
       <c r="C253" t="s">
         <v>449</v>
       </c>
-      <c r="D253" s="2"/>
+      <c r="D253">
+        <v>79</v>
+      </c>
       <c r="E253" s="2"/>
       <c r="F253" s="5"/>
       <c r="G253" s="2"/>
@@ -6147,7 +6658,9 @@
       <c r="C254" t="s">
         <v>451</v>
       </c>
-      <c r="D254" s="2"/>
+      <c r="D254">
+        <v>84</v>
+      </c>
       <c r="E254" s="2"/>
       <c r="F254" s="5"/>
       <c r="G254" s="2"/>
@@ -6163,7 +6676,9 @@
       <c r="C255" t="s">
         <v>446</v>
       </c>
-      <c r="D255" s="2"/>
+      <c r="D255">
+        <v>78</v>
+      </c>
       <c r="E255" s="2"/>
       <c r="F255" s="5"/>
       <c r="G255" s="2"/>
@@ -6179,7 +6694,9 @@
       <c r="C256" t="s">
         <v>446</v>
       </c>
-      <c r="D256" s="2"/>
+      <c r="D256">
+        <v>78</v>
+      </c>
       <c r="E256" s="2"/>
       <c r="F256" s="5"/>
       <c r="G256" s="2"/>
@@ -6195,7 +6712,9 @@
       <c r="C257" t="s">
         <v>446</v>
       </c>
-      <c r="D257" s="2"/>
+      <c r="D257">
+        <v>78</v>
+      </c>
       <c r="E257" s="2"/>
       <c r="F257" s="5"/>
       <c r="G257" s="2"/>
@@ -6211,7 +6730,9 @@
       <c r="C258" t="s">
         <v>445</v>
       </c>
-      <c r="D258" s="2"/>
+      <c r="D258">
+        <v>76</v>
+      </c>
       <c r="E258" s="2"/>
       <c r="F258" s="5"/>
       <c r="G258" s="2"/>
@@ -6227,7 +6748,9 @@
       <c r="C259" t="s">
         <v>449</v>
       </c>
-      <c r="D259" s="2"/>
+      <c r="D259">
+        <v>79</v>
+      </c>
       <c r="E259" s="2"/>
       <c r="F259" s="5"/>
       <c r="G259" s="2"/>
@@ -6243,7 +6766,9 @@
       <c r="C260" t="s">
         <v>452</v>
       </c>
-      <c r="D260" s="2"/>
+      <c r="D260">
+        <v>74</v>
+      </c>
       <c r="E260" s="2"/>
       <c r="F260" s="5"/>
       <c r="G260" s="2"/>
@@ -6259,7 +6784,9 @@
       <c r="C261" t="s">
         <v>444</v>
       </c>
-      <c r="D261" s="2"/>
+      <c r="D261">
+        <v>80</v>
+      </c>
       <c r="E261" s="2"/>
       <c r="F261" s="5"/>
       <c r="G261" s="2"/>
@@ -6275,7 +6802,9 @@
       <c r="C262" t="s">
         <v>446</v>
       </c>
-      <c r="D262" s="2"/>
+      <c r="D262">
+        <v>78</v>
+      </c>
       <c r="E262" s="2"/>
       <c r="F262" s="5"/>
       <c r="G262" s="2"/>
@@ -6291,7 +6820,9 @@
       <c r="C263" t="s">
         <v>453</v>
       </c>
-      <c r="D263" s="2"/>
+      <c r="D263">
+        <v>82</v>
+      </c>
       <c r="E263" s="2"/>
       <c r="F263" s="5"/>
       <c r="G263" s="2"/>
@@ -6307,7 +6838,9 @@
       <c r="C264" t="s">
         <v>449</v>
       </c>
-      <c r="D264" s="2"/>
+      <c r="D264">
+        <v>79</v>
+      </c>
       <c r="E264" s="2"/>
       <c r="F264" s="5"/>
       <c r="G264" s="2"/>
@@ -6321,7 +6854,9 @@
       <c r="C265" t="s">
         <v>452</v>
       </c>
-      <c r="D265" s="2"/>
+      <c r="D265">
+        <v>74</v>
+      </c>
       <c r="E265" s="2"/>
       <c r="F265" s="5"/>
       <c r="G265" s="2"/>
@@ -6337,7 +6872,9 @@
       <c r="C266" t="s">
         <v>450</v>
       </c>
-      <c r="D266" s="2"/>
+      <c r="D266">
+        <v>81</v>
+      </c>
       <c r="E266" s="2"/>
       <c r="F266" s="5"/>
       <c r="G266" s="2"/>
@@ -6353,7 +6890,9 @@
       <c r="C267" t="s">
         <v>450</v>
       </c>
-      <c r="D267" s="2"/>
+      <c r="D267">
+        <v>81</v>
+      </c>
       <c r="E267" s="2"/>
       <c r="F267" s="5"/>
       <c r="G267" s="2"/>
@@ -6369,7 +6908,9 @@
       <c r="C268" t="s">
         <v>445</v>
       </c>
-      <c r="D268" s="2"/>
+      <c r="D268">
+        <v>76</v>
+      </c>
       <c r="E268" s="2"/>
       <c r="F268" s="5"/>
       <c r="G268" s="2"/>
@@ -6385,7 +6926,9 @@
       <c r="C269" t="s">
         <v>458</v>
       </c>
-      <c r="D269" s="2"/>
+      <c r="D269">
+        <v>72</v>
+      </c>
       <c r="E269" s="2"/>
       <c r="F269" s="5"/>
       <c r="G269" s="2"/>
@@ -6401,7 +6944,9 @@
       <c r="C270" t="s">
         <v>456</v>
       </c>
-      <c r="D270" s="2"/>
+      <c r="D270">
+        <v>77</v>
+      </c>
       <c r="E270" s="2"/>
       <c r="F270" s="5"/>
       <c r="G270" s="2"/>
@@ -6417,7 +6962,9 @@
       <c r="C271" t="s">
         <v>444</v>
       </c>
-      <c r="D271" s="2"/>
+      <c r="D271">
+        <v>80</v>
+      </c>
       <c r="E271" s="2"/>
       <c r="F271" s="5"/>
       <c r="G271" s="2"/>
@@ -6433,7 +6980,9 @@
       <c r="C272" t="s">
         <v>456</v>
       </c>
-      <c r="D272" s="2"/>
+      <c r="D272">
+        <v>77</v>
+      </c>
       <c r="E272" s="2"/>
       <c r="F272" s="5"/>
       <c r="G272" s="2"/>
@@ -6449,7 +6998,9 @@
       <c r="C273" t="s">
         <v>458</v>
       </c>
-      <c r="D273" s="2"/>
+      <c r="D273">
+        <v>72</v>
+      </c>
       <c r="E273" s="2"/>
       <c r="F273" s="5"/>
       <c r="G273" s="2"/>
@@ -6465,7 +7016,9 @@
       <c r="C274" t="s">
         <v>450</v>
       </c>
-      <c r="D274" s="2"/>
+      <c r="D274">
+        <v>81</v>
+      </c>
       <c r="E274" s="2"/>
       <c r="F274" s="5"/>
       <c r="G274" s="2"/>
@@ -6481,7 +7034,9 @@
       <c r="C275" t="s">
         <v>456</v>
       </c>
-      <c r="D275" s="2"/>
+      <c r="D275">
+        <v>77</v>
+      </c>
       <c r="E275" s="2"/>
       <c r="F275" s="5"/>
       <c r="G275" s="2"/>
@@ -6497,7 +7052,9 @@
       <c r="C276" t="s">
         <v>456</v>
       </c>
-      <c r="D276" s="2"/>
+      <c r="D276">
+        <v>77</v>
+      </c>
       <c r="E276" s="2"/>
       <c r="F276" s="5"/>
       <c r="G276" s="2"/>
@@ -6513,7 +7070,9 @@
       <c r="C277" t="s">
         <v>446</v>
       </c>
-      <c r="D277" s="2"/>
+      <c r="D277">
+        <v>78</v>
+      </c>
       <c r="E277" s="2"/>
       <c r="F277" s="5"/>
       <c r="G277" s="2"/>
@@ -6529,7 +7088,9 @@
       <c r="C278" t="s">
         <v>454</v>
       </c>
-      <c r="D278" s="2"/>
+      <c r="D278">
+        <v>85</v>
+      </c>
       <c r="E278" s="2"/>
       <c r="F278" s="5"/>
       <c r="G278" s="2"/>
@@ -6545,7 +7106,9 @@
       <c r="C279" t="s">
         <v>451</v>
       </c>
-      <c r="D279" s="2"/>
+      <c r="D279">
+        <v>84</v>
+      </c>
       <c r="E279" s="2"/>
       <c r="F279" s="5"/>
       <c r="G279" s="2"/>
@@ -6561,7 +7124,9 @@
       <c r="C280" t="s">
         <v>453</v>
       </c>
-      <c r="D280" s="2"/>
+      <c r="D280">
+        <v>82</v>
+      </c>
       <c r="E280" s="2"/>
       <c r="F280" s="5"/>
       <c r="G280" s="2"/>
@@ -6577,7 +7142,9 @@
       <c r="C281" t="s">
         <v>453</v>
       </c>
-      <c r="D281" s="2"/>
+      <c r="D281">
+        <v>82</v>
+      </c>
       <c r="E281" s="2"/>
       <c r="F281" s="5"/>
       <c r="G281" s="2"/>
@@ -6591,7 +7158,9 @@
       <c r="C282" t="s">
         <v>456</v>
       </c>
-      <c r="D282" s="2"/>
+      <c r="D282">
+        <v>77</v>
+      </c>
       <c r="E282" s="2"/>
       <c r="F282" s="5"/>
       <c r="G282" s="2"/>
@@ -6607,7 +7176,9 @@
       <c r="C283" t="s">
         <v>446</v>
       </c>
-      <c r="D283" s="2"/>
+      <c r="D283">
+        <v>78</v>
+      </c>
       <c r="E283" s="2"/>
       <c r="F283" s="5"/>
       <c r="G283" s="2"/>
@@ -6623,7 +7194,9 @@
       <c r="C284" t="s">
         <v>444</v>
       </c>
-      <c r="D284" s="2"/>
+      <c r="D284">
+        <v>80</v>
+      </c>
       <c r="E284" s="2"/>
       <c r="F284" s="5"/>
       <c r="G284" s="2"/>
@@ -6639,7 +7212,9 @@
       <c r="C285" t="s">
         <v>455</v>
       </c>
-      <c r="D285" s="2"/>
+      <c r="D285">
+        <v>75</v>
+      </c>
       <c r="E285" s="2"/>
       <c r="F285" s="5"/>
       <c r="G285" s="2"/>
@@ -6655,7 +7230,9 @@
       <c r="C286" t="s">
         <v>450</v>
       </c>
-      <c r="D286" s="2"/>
+      <c r="D286">
+        <v>81</v>
+      </c>
       <c r="E286" s="2"/>
       <c r="F286" s="5"/>
       <c r="G286" s="2"/>
@@ -6671,7 +7248,9 @@
       <c r="C287" t="s">
         <v>454</v>
       </c>
-      <c r="D287" s="2"/>
+      <c r="D287">
+        <v>85</v>
+      </c>
       <c r="E287" s="2"/>
       <c r="F287" s="5"/>
       <c r="G287" s="2"/>
@@ -6687,7 +7266,9 @@
       <c r="C288" t="s">
         <v>456</v>
       </c>
-      <c r="D288" s="2"/>
+      <c r="D288">
+        <v>77</v>
+      </c>
       <c r="E288" s="2"/>
       <c r="F288" s="5"/>
       <c r="G288" s="2"/>
@@ -6703,7 +7284,9 @@
       <c r="C289" t="s">
         <v>453</v>
       </c>
-      <c r="D289" s="2"/>
+      <c r="D289">
+        <v>82</v>
+      </c>
       <c r="E289" s="2"/>
       <c r="F289" s="5"/>
       <c r="G289" s="2"/>
@@ -6719,7 +7302,9 @@
       <c r="C290" t="s">
         <v>445</v>
       </c>
-      <c r="D290" s="2"/>
+      <c r="D290">
+        <v>76</v>
+      </c>
       <c r="E290" s="2"/>
       <c r="F290" s="5"/>
       <c r="G290" s="2"/>
@@ -6735,7 +7320,9 @@
       <c r="C291" t="s">
         <v>446</v>
       </c>
-      <c r="D291" s="2"/>
+      <c r="D291">
+        <v>78</v>
+      </c>
       <c r="E291" s="2"/>
       <c r="F291" s="5"/>
       <c r="G291" s="2"/>
@@ -6751,7 +7338,9 @@
       <c r="C292" t="s">
         <v>453</v>
       </c>
-      <c r="D292" s="2"/>
+      <c r="D292">
+        <v>82</v>
+      </c>
       <c r="E292" s="2"/>
       <c r="F292" s="5"/>
       <c r="G292" s="2"/>
@@ -6767,7 +7356,9 @@
       <c r="C293" t="s">
         <v>451</v>
       </c>
-      <c r="D293" s="2"/>
+      <c r="D293">
+        <v>84</v>
+      </c>
       <c r="E293" s="2"/>
       <c r="F293" s="5"/>
       <c r="G293" s="2"/>
@@ -6783,7 +7374,9 @@
       <c r="C294" t="s">
         <v>456</v>
       </c>
-      <c r="D294" s="2"/>
+      <c r="D294">
+        <v>77</v>
+      </c>
       <c r="E294" s="2"/>
       <c r="F294" s="5"/>
       <c r="G294" s="2"/>
@@ -6799,7 +7392,9 @@
       <c r="C295" t="s">
         <v>446</v>
       </c>
-      <c r="D295" s="2"/>
+      <c r="D295">
+        <v>78</v>
+      </c>
       <c r="E295" s="2"/>
       <c r="F295" s="5"/>
       <c r="G295" s="2"/>
@@ -6815,7 +7410,9 @@
       <c r="C296" t="s">
         <v>445</v>
       </c>
-      <c r="D296" s="2"/>
+      <c r="D296">
+        <v>76</v>
+      </c>
       <c r="E296" s="2"/>
       <c r="F296" s="5"/>
       <c r="G296" s="2"/>
@@ -6831,7 +7428,9 @@
       <c r="C297" t="s">
         <v>455</v>
       </c>
-      <c r="D297" s="2"/>
+      <c r="D297">
+        <v>75</v>
+      </c>
       <c r="E297" s="2"/>
       <c r="F297" s="5"/>
       <c r="G297" s="2"/>
@@ -6847,7 +7446,9 @@
       <c r="C298" t="s">
         <v>456</v>
       </c>
-      <c r="D298" s="2"/>
+      <c r="D298">
+        <v>77</v>
+      </c>
       <c r="E298" s="2"/>
       <c r="F298" s="5"/>
       <c r="G298" s="2"/>
@@ -6863,7 +7464,9 @@
       <c r="C299" t="s">
         <v>451</v>
       </c>
-      <c r="D299" s="2"/>
+      <c r="D299">
+        <v>84</v>
+      </c>
       <c r="E299" s="2"/>
       <c r="F299" s="5"/>
       <c r="G299" s="2"/>
@@ -6879,7 +7482,9 @@
       <c r="C300" t="s">
         <v>446</v>
       </c>
-      <c r="D300" s="2"/>
+      <c r="D300">
+        <v>78</v>
+      </c>
       <c r="E300" s="2"/>
       <c r="F300" s="5"/>
       <c r="G300" s="2"/>
@@ -6895,7 +7500,9 @@
       <c r="C301" t="s">
         <v>446</v>
       </c>
-      <c r="D301" s="2"/>
+      <c r="D301">
+        <v>78</v>
+      </c>
       <c r="E301" s="2"/>
       <c r="F301" s="5"/>
       <c r="G301" s="2"/>
@@ -6911,7 +7518,9 @@
       <c r="C302" t="s">
         <v>453</v>
       </c>
-      <c r="D302" s="2"/>
+      <c r="D302">
+        <v>82</v>
+      </c>
       <c r="E302" s="2"/>
       <c r="F302" s="5"/>
       <c r="G302" s="2"/>
@@ -6927,7 +7536,9 @@
       <c r="C303" t="s">
         <v>449</v>
       </c>
-      <c r="D303" s="2"/>
+      <c r="D303">
+        <v>79</v>
+      </c>
       <c r="E303" s="2"/>
       <c r="F303" s="5"/>
       <c r="G303" s="2"/>
@@ -6943,7 +7554,9 @@
       <c r="C304" t="s">
         <v>444</v>
       </c>
-      <c r="D304" s="2"/>
+      <c r="D304">
+        <v>80</v>
+      </c>
       <c r="E304" s="2"/>
       <c r="F304" s="5"/>
       <c r="G304" s="2"/>
@@ -6959,7 +7572,9 @@
       <c r="C305" t="s">
         <v>456</v>
       </c>
-      <c r="D305" s="2"/>
+      <c r="D305">
+        <v>77</v>
+      </c>
       <c r="E305" s="2"/>
       <c r="F305" s="5"/>
       <c r="G305" s="2"/>
@@ -6975,7 +7590,9 @@
       <c r="C306" t="s">
         <v>457</v>
       </c>
-      <c r="D306" s="2"/>
+      <c r="D306">
+        <v>83</v>
+      </c>
       <c r="E306" s="2"/>
       <c r="F306" s="5"/>
       <c r="G306" s="2"/>
@@ -6991,7 +7608,9 @@
       <c r="C307" t="s">
         <v>452</v>
       </c>
-      <c r="D307" s="2"/>
+      <c r="D307">
+        <v>74</v>
+      </c>
       <c r="E307" s="2"/>
       <c r="F307" s="5"/>
       <c r="G307" s="2"/>
@@ -7007,7 +7626,9 @@
       <c r="C308" t="s">
         <v>444</v>
       </c>
-      <c r="D308" s="2"/>
+      <c r="D308">
+        <v>80</v>
+      </c>
       <c r="E308" s="2"/>
       <c r="F308" s="5"/>
       <c r="G308" s="2"/>
@@ -7023,7 +7644,9 @@
       <c r="C309" t="s">
         <v>446</v>
       </c>
-      <c r="D309" s="2"/>
+      <c r="D309">
+        <v>78</v>
+      </c>
       <c r="E309" s="2"/>
       <c r="F309" s="5"/>
       <c r="G309" s="2"/>
@@ -7039,7 +7662,9 @@
       <c r="C310" t="s">
         <v>444</v>
       </c>
-      <c r="D310" s="2"/>
+      <c r="D310">
+        <v>80</v>
+      </c>
       <c r="E310" s="2"/>
       <c r="F310" s="5"/>
       <c r="G310" s="2"/>
@@ -7055,7 +7680,9 @@
       <c r="C311" t="s">
         <v>457</v>
       </c>
-      <c r="D311" s="2"/>
+      <c r="D311">
+        <v>83</v>
+      </c>
       <c r="E311" s="2"/>
       <c r="F311" s="5"/>
       <c r="G311" s="2"/>
@@ -7071,7 +7698,9 @@
       <c r="C312" t="s">
         <v>448</v>
       </c>
-      <c r="D312" s="2"/>
+      <c r="D312">
+        <v>73</v>
+      </c>
       <c r="E312" s="2"/>
       <c r="F312" s="5"/>
       <c r="G312" s="2"/>
@@ -7087,7 +7716,9 @@
       <c r="C313" t="s">
         <v>450</v>
       </c>
-      <c r="D313" s="2"/>
+      <c r="D313">
+        <v>81</v>
+      </c>
       <c r="E313" s="2"/>
       <c r="F313" s="5"/>
       <c r="G313" s="2"/>
@@ -7103,7 +7734,9 @@
       <c r="C314" t="s">
         <v>445</v>
       </c>
-      <c r="D314" s="2"/>
+      <c r="D314">
+        <v>76</v>
+      </c>
       <c r="E314" s="2"/>
       <c r="F314" s="5"/>
       <c r="G314" s="2"/>
@@ -7119,7 +7752,9 @@
       <c r="C315" t="s">
         <v>445</v>
       </c>
-      <c r="D315" s="2"/>
+      <c r="D315">
+        <v>76</v>
+      </c>
       <c r="E315" s="2"/>
       <c r="F315" s="5"/>
       <c r="G315" s="2"/>
@@ -7135,7 +7770,9 @@
       <c r="C316" t="s">
         <v>454</v>
       </c>
-      <c r="D316" s="2"/>
+      <c r="D316">
+        <v>85</v>
+      </c>
       <c r="E316" s="2"/>
       <c r="F316" s="5"/>
       <c r="G316" s="2"/>
@@ -7151,7 +7788,9 @@
       <c r="C317" t="s">
         <v>444</v>
       </c>
-      <c r="D317" s="2"/>
+      <c r="D317">
+        <v>80</v>
+      </c>
       <c r="E317" s="2"/>
       <c r="F317" s="5"/>
       <c r="G317" s="2"/>
@@ -7165,7 +7804,9 @@
       <c r="C318" t="s">
         <v>444</v>
       </c>
-      <c r="D318" s="2"/>
+      <c r="D318">
+        <v>80</v>
+      </c>
       <c r="E318" s="2"/>
       <c r="F318" s="5"/>
       <c r="G318" s="2"/>
@@ -7181,7 +7822,9 @@
       <c r="C319" t="s">
         <v>445</v>
       </c>
-      <c r="D319" s="2"/>
+      <c r="D319">
+        <v>76</v>
+      </c>
       <c r="E319" s="2"/>
       <c r="F319" s="5"/>
       <c r="G319" s="2"/>
@@ -7197,7 +7840,9 @@
       <c r="C320" t="s">
         <v>456</v>
       </c>
-      <c r="D320" s="2"/>
+      <c r="D320">
+        <v>77</v>
+      </c>
       <c r="E320" s="2"/>
       <c r="F320" s="5"/>
       <c r="G320" s="2"/>
@@ -7213,7 +7858,9 @@
       <c r="C321" t="s">
         <v>449</v>
       </c>
-      <c r="D321" s="2"/>
+      <c r="D321">
+        <v>79</v>
+      </c>
       <c r="E321" s="2"/>
       <c r="F321" s="5"/>
       <c r="G321" s="2"/>
@@ -7229,7 +7876,9 @@
       <c r="C322" t="s">
         <v>449</v>
       </c>
-      <c r="D322" s="2"/>
+      <c r="D322">
+        <v>79</v>
+      </c>
       <c r="E322" s="2"/>
       <c r="F322" s="5"/>
       <c r="G322" s="2"/>
@@ -7245,7 +7894,9 @@
       <c r="C323" t="s">
         <v>452</v>
       </c>
-      <c r="D323" s="2"/>
+      <c r="D323">
+        <v>74</v>
+      </c>
       <c r="E323" s="2"/>
       <c r="F323" s="5"/>
       <c r="G323" s="2"/>
@@ -7261,7 +7912,9 @@
       <c r="C324" t="s">
         <v>449</v>
       </c>
-      <c r="D324" s="2"/>
+      <c r="D324">
+        <v>79</v>
+      </c>
       <c r="E324" s="2"/>
       <c r="F324" s="5"/>
       <c r="G324" s="2"/>
@@ -7277,7 +7930,9 @@
       <c r="C325" t="s">
         <v>444</v>
       </c>
-      <c r="D325" s="2"/>
+      <c r="D325">
+        <v>80</v>
+      </c>
       <c r="E325" s="2"/>
       <c r="F325" s="5"/>
       <c r="G325" s="2"/>
@@ -7293,7 +7948,9 @@
       <c r="C326" t="s">
         <v>449</v>
       </c>
-      <c r="D326" s="2"/>
+      <c r="D326">
+        <v>79</v>
+      </c>
       <c r="E326" s="2"/>
       <c r="F326" s="5"/>
       <c r="G326" s="2"/>
@@ -7309,7 +7966,9 @@
       <c r="C327" t="s">
         <v>446</v>
       </c>
-      <c r="D327" s="2"/>
+      <c r="D327">
+        <v>78</v>
+      </c>
       <c r="E327" s="2"/>
       <c r="F327" s="5"/>
       <c r="G327" s="2"/>
@@ -7325,7 +7984,9 @@
       <c r="C328" t="s">
         <v>444</v>
       </c>
-      <c r="D328" s="2"/>
+      <c r="D328">
+        <v>80</v>
+      </c>
       <c r="E328" s="2"/>
       <c r="F328" s="5"/>
       <c r="G328" s="2"/>
@@ -7341,7 +8002,9 @@
       <c r="C329" t="s">
         <v>456</v>
       </c>
-      <c r="D329" s="2"/>
+      <c r="D329">
+        <v>77</v>
+      </c>
       <c r="E329" s="2"/>
       <c r="F329" s="5"/>
       <c r="G329" s="2"/>
@@ -7357,7 +8020,9 @@
       <c r="C330" t="s">
         <v>456</v>
       </c>
-      <c r="D330" s="2"/>
+      <c r="D330">
+        <v>77</v>
+      </c>
       <c r="E330" s="2"/>
       <c r="F330" s="5"/>
       <c r="G330" s="2"/>
@@ -7373,7 +8038,9 @@
       <c r="C331" t="s">
         <v>449</v>
       </c>
-      <c r="D331" s="2"/>
+      <c r="D331">
+        <v>79</v>
+      </c>
       <c r="E331" s="2"/>
       <c r="F331" s="5"/>
       <c r="G331" s="2"/>
@@ -7389,7 +8056,9 @@
       <c r="C332" t="s">
         <v>452</v>
       </c>
-      <c r="D332" s="2"/>
+      <c r="D332">
+        <v>74</v>
+      </c>
       <c r="E332" s="2"/>
       <c r="F332" s="5"/>
       <c r="G332" s="2"/>
@@ -7405,7 +8074,9 @@
       <c r="C333" t="s">
         <v>455</v>
       </c>
-      <c r="D333" s="2"/>
+      <c r="D333">
+        <v>75</v>
+      </c>
       <c r="E333" s="2"/>
       <c r="F333" s="5"/>
       <c r="G333" s="2"/>
@@ -7421,7 +8092,9 @@
       <c r="C334" t="s">
         <v>457</v>
       </c>
-      <c r="D334" s="2"/>
+      <c r="D334">
+        <v>83</v>
+      </c>
       <c r="E334" s="2"/>
       <c r="F334" s="5"/>
       <c r="G334" s="2"/>
@@ -7437,7 +8110,9 @@
       <c r="C335" t="s">
         <v>451</v>
       </c>
-      <c r="D335" s="2"/>
+      <c r="D335">
+        <v>84</v>
+      </c>
       <c r="E335" s="2"/>
       <c r="F335" s="5"/>
       <c r="G335" s="2"/>
@@ -7453,7 +8128,9 @@
       <c r="C336" t="s">
         <v>453</v>
       </c>
-      <c r="D336" s="2"/>
+      <c r="D336">
+        <v>82</v>
+      </c>
       <c r="E336" s="2"/>
       <c r="F336" s="5"/>
       <c r="G336" s="2"/>
@@ -7469,7 +8146,9 @@
       <c r="C337" t="s">
         <v>451</v>
       </c>
-      <c r="D337" s="2"/>
+      <c r="D337">
+        <v>84</v>
+      </c>
       <c r="E337" s="2"/>
       <c r="F337" s="5"/>
       <c r="G337" s="2"/>
@@ -7485,7 +8164,9 @@
       <c r="C338" t="s">
         <v>455</v>
       </c>
-      <c r="D338" s="2"/>
+      <c r="D338">
+        <v>75</v>
+      </c>
       <c r="E338" s="2"/>
       <c r="F338" s="5"/>
       <c r="G338" s="2"/>
@@ -7501,7 +8182,9 @@
       <c r="C339" t="s">
         <v>446</v>
       </c>
-      <c r="D339" s="2"/>
+      <c r="D339">
+        <v>78</v>
+      </c>
       <c r="E339" s="2"/>
       <c r="F339" s="5"/>
       <c r="G339" s="2"/>
@@ -7517,7 +8200,9 @@
       <c r="C340" t="s">
         <v>455</v>
       </c>
-      <c r="D340" s="2"/>
+      <c r="D340">
+        <v>75</v>
+      </c>
       <c r="E340" s="2"/>
       <c r="F340" s="5"/>
       <c r="G340" s="2"/>
@@ -7533,7 +8218,9 @@
       <c r="C341" t="s">
         <v>450</v>
       </c>
-      <c r="D341" s="2"/>
+      <c r="D341">
+        <v>81</v>
+      </c>
       <c r="E341" s="2"/>
       <c r="F341" s="5"/>
       <c r="G341" s="2"/>
@@ -7549,7 +8236,9 @@
       <c r="C342" t="s">
         <v>449</v>
       </c>
-      <c r="D342" s="2"/>
+      <c r="D342">
+        <v>79</v>
+      </c>
       <c r="E342" s="2"/>
       <c r="F342" s="5"/>
       <c r="G342" s="2"/>
@@ -7565,7 +8254,9 @@
       <c r="C343" t="s">
         <v>453</v>
       </c>
-      <c r="D343" s="2"/>
+      <c r="D343">
+        <v>82</v>
+      </c>
       <c r="E343" s="2"/>
       <c r="F343" s="5"/>
       <c r="G343" s="2"/>
@@ -7581,7 +8272,9 @@
       <c r="C344" t="s">
         <v>444</v>
       </c>
-      <c r="D344" s="2"/>
+      <c r="D344">
+        <v>80</v>
+      </c>
       <c r="E344" s="2"/>
       <c r="F344" s="5"/>
       <c r="G344" s="2"/>
@@ -7597,7 +8290,9 @@
       <c r="C345" t="s">
         <v>452</v>
       </c>
-      <c r="D345" s="2"/>
+      <c r="D345">
+        <v>74</v>
+      </c>
       <c r="E345" s="2"/>
       <c r="F345" s="5"/>
       <c r="G345" s="2"/>
@@ -7613,7 +8308,9 @@
       <c r="C346" t="s">
         <v>444</v>
       </c>
-      <c r="D346" s="2"/>
+      <c r="D346">
+        <v>80</v>
+      </c>
       <c r="E346" s="2"/>
       <c r="F346" s="5"/>
       <c r="G346" s="2"/>
@@ -7629,7 +8326,9 @@
       <c r="C347" t="s">
         <v>449</v>
       </c>
-      <c r="D347" s="2"/>
+      <c r="D347">
+        <v>79</v>
+      </c>
       <c r="E347" s="2"/>
       <c r="F347" s="5"/>
       <c r="G347" s="2"/>
@@ -7645,7 +8344,9 @@
       <c r="C348" t="s">
         <v>446</v>
       </c>
-      <c r="D348" s="2"/>
+      <c r="D348">
+        <v>78</v>
+      </c>
       <c r="E348" s="2"/>
       <c r="F348" s="5"/>
       <c r="G348" s="2"/>
@@ -7661,7 +8362,9 @@
       <c r="C349" t="s">
         <v>446</v>
       </c>
-      <c r="D349" s="2"/>
+      <c r="D349">
+        <v>78</v>
+      </c>
       <c r="E349" s="2"/>
       <c r="F349" s="5"/>
       <c r="G349" s="2"/>
@@ -7677,7 +8380,9 @@
       <c r="C350" t="s">
         <v>451</v>
       </c>
-      <c r="D350" s="2"/>
+      <c r="D350">
+        <v>84</v>
+      </c>
       <c r="E350" s="2"/>
       <c r="F350" s="5"/>
       <c r="G350" s="2"/>
@@ -7693,7 +8398,9 @@
       <c r="C351" t="s">
         <v>448</v>
       </c>
-      <c r="D351" s="2"/>
+      <c r="D351">
+        <v>73</v>
+      </c>
       <c r="E351" s="2"/>
       <c r="F351" s="5"/>
       <c r="G351" s="2"/>
@@ -7709,7 +8416,9 @@
       <c r="C352" t="s">
         <v>444</v>
       </c>
-      <c r="D352" s="2"/>
+      <c r="D352">
+        <v>80</v>
+      </c>
       <c r="E352" s="2"/>
       <c r="F352" s="5"/>
       <c r="G352" s="2"/>
@@ -7725,7 +8434,9 @@
       <c r="C353" t="s">
         <v>450</v>
       </c>
-      <c r="D353" s="2"/>
+      <c r="D353">
+        <v>81</v>
+      </c>
       <c r="E353" s="2"/>
       <c r="F353" s="5"/>
       <c r="G353" s="2"/>
@@ -7741,7 +8452,9 @@
       <c r="C354" t="s">
         <v>446</v>
       </c>
-      <c r="D354" s="2"/>
+      <c r="D354">
+        <v>78</v>
+      </c>
       <c r="E354" s="2"/>
       <c r="F354" s="5"/>
       <c r="G354" s="2"/>
@@ -7757,7 +8470,9 @@
       <c r="C355" t="s">
         <v>449</v>
       </c>
-      <c r="D355" s="2"/>
+      <c r="D355">
+        <v>79</v>
+      </c>
       <c r="E355" s="2"/>
       <c r="F355" s="5"/>
       <c r="G355" s="2"/>
@@ -7773,7 +8488,9 @@
       <c r="C356" t="s">
         <v>446</v>
       </c>
-      <c r="D356" s="2"/>
+      <c r="D356">
+        <v>78</v>
+      </c>
       <c r="E356" s="2"/>
       <c r="F356" s="5"/>
       <c r="G356" s="2"/>
@@ -7789,7 +8506,9 @@
       <c r="C357" t="s">
         <v>455</v>
       </c>
-      <c r="D357" s="2"/>
+      <c r="D357">
+        <v>75</v>
+      </c>
       <c r="E357" s="2"/>
       <c r="F357" s="5"/>
       <c r="G357" s="2"/>
@@ -7805,7 +8524,9 @@
       <c r="C358" t="s">
         <v>444</v>
       </c>
-      <c r="D358" s="2"/>
+      <c r="D358">
+        <v>80</v>
+      </c>
       <c r="E358" s="2"/>
       <c r="F358" s="5"/>
       <c r="G358" s="2"/>
@@ -7821,7 +8542,9 @@
       <c r="C359" t="s">
         <v>449</v>
       </c>
-      <c r="D359" s="2"/>
+      <c r="D359">
+        <v>79</v>
+      </c>
       <c r="E359" s="2"/>
       <c r="F359" s="5"/>
       <c r="G359" s="2"/>
@@ -7837,7 +8560,9 @@
       <c r="C360" t="s">
         <v>444</v>
       </c>
-      <c r="D360" s="2"/>
+      <c r="D360">
+        <v>80</v>
+      </c>
       <c r="E360" s="2"/>
       <c r="F360" s="5"/>
       <c r="G360" s="2"/>
@@ -7853,7 +8578,9 @@
       <c r="C361" t="s">
         <v>448</v>
       </c>
-      <c r="D361" s="2"/>
+      <c r="D361">
+        <v>73</v>
+      </c>
       <c r="E361" s="2"/>
       <c r="F361" s="5"/>
       <c r="G361" s="2"/>
@@ -7869,7 +8596,9 @@
       <c r="C362" t="s">
         <v>444</v>
       </c>
-      <c r="D362" s="2"/>
+      <c r="D362">
+        <v>80</v>
+      </c>
       <c r="E362" s="2"/>
       <c r="F362" s="5"/>
       <c r="G362" s="2"/>
@@ -7885,7 +8614,9 @@
       <c r="C363" t="s">
         <v>458</v>
       </c>
-      <c r="D363" s="2"/>
+      <c r="D363">
+        <v>72</v>
+      </c>
       <c r="E363" s="2"/>
       <c r="F363" s="5"/>
       <c r="G363" s="2"/>
@@ -7901,7 +8632,9 @@
       <c r="C364" t="s">
         <v>457</v>
       </c>
-      <c r="D364" s="2"/>
+      <c r="D364">
+        <v>83</v>
+      </c>
       <c r="E364" s="2"/>
       <c r="F364" s="5"/>
       <c r="G364" s="2"/>
@@ -7917,7 +8650,9 @@
       <c r="C365" t="s">
         <v>444</v>
       </c>
-      <c r="D365" s="2"/>
+      <c r="D365">
+        <v>80</v>
+      </c>
       <c r="E365" s="2"/>
       <c r="F365" s="5"/>
       <c r="G365" s="2"/>
@@ -7933,7 +8668,9 @@
       <c r="C366" t="s">
         <v>456</v>
       </c>
-      <c r="D366" s="2"/>
+      <c r="D366">
+        <v>77</v>
+      </c>
       <c r="E366" s="2"/>
       <c r="F366" s="5"/>
       <c r="G366" s="2"/>
@@ -7949,7 +8686,9 @@
       <c r="C367" t="s">
         <v>444</v>
       </c>
-      <c r="D367" s="2"/>
+      <c r="D367">
+        <v>80</v>
+      </c>
       <c r="E367" s="2"/>
       <c r="F367" s="5"/>
       <c r="G367" s="2"/>
@@ -7965,7 +8704,9 @@
       <c r="C368" t="s">
         <v>449</v>
       </c>
-      <c r="D368" s="2"/>
+      <c r="D368">
+        <v>79</v>
+      </c>
       <c r="E368" s="2"/>
       <c r="F368" s="5"/>
       <c r="G368" s="2"/>
@@ -7981,7 +8722,9 @@
       <c r="C369" t="s">
         <v>446</v>
       </c>
-      <c r="D369" s="2"/>
+      <c r="D369">
+        <v>78</v>
+      </c>
       <c r="E369" s="2"/>
       <c r="F369" s="5"/>
       <c r="G369" s="2"/>
@@ -7997,7 +8740,9 @@
       <c r="C370" t="s">
         <v>457</v>
       </c>
-      <c r="D370" s="2"/>
+      <c r="D370">
+        <v>83</v>
+      </c>
       <c r="E370" s="2"/>
       <c r="F370" s="5"/>
       <c r="G370" s="2"/>
@@ -8013,7 +8758,9 @@
       <c r="C371" t="s">
         <v>450</v>
       </c>
-      <c r="D371" s="2"/>
+      <c r="D371">
+        <v>81</v>
+      </c>
       <c r="E371" s="2"/>
       <c r="F371" s="5"/>
       <c r="G371" s="2"/>
@@ -8029,7 +8776,9 @@
       <c r="C372" t="s">
         <v>452</v>
       </c>
-      <c r="D372" s="2"/>
+      <c r="D372">
+        <v>74</v>
+      </c>
       <c r="E372" s="2"/>
       <c r="F372" s="5"/>
       <c r="G372" s="2"/>
@@ -8045,7 +8794,9 @@
       <c r="C373" t="s">
         <v>456</v>
       </c>
-      <c r="D373" s="2"/>
+      <c r="D373">
+        <v>77</v>
+      </c>
       <c r="E373" s="2"/>
       <c r="F373" s="5"/>
       <c r="G373" s="2"/>
@@ -8061,7 +8812,9 @@
       <c r="C374" t="s">
         <v>445</v>
       </c>
-      <c r="D374" s="2"/>
+      <c r="D374">
+        <v>76</v>
+      </c>
       <c r="E374" s="2"/>
       <c r="F374" s="5"/>
       <c r="G374" s="2"/>
@@ -8077,7 +8830,9 @@
       <c r="C375" t="s">
         <v>454</v>
       </c>
-      <c r="D375" s="2"/>
+      <c r="D375">
+        <v>85</v>
+      </c>
       <c r="E375" s="2"/>
       <c r="F375" s="5"/>
       <c r="G375" s="2"/>
@@ -8093,7 +8848,9 @@
       <c r="C376" t="s">
         <v>446</v>
       </c>
-      <c r="D376" s="2"/>
+      <c r="D376">
+        <v>78</v>
+      </c>
       <c r="E376" s="2"/>
       <c r="F376" s="5"/>
       <c r="G376" s="2"/>
@@ -8109,7 +8866,9 @@
       <c r="C377" t="s">
         <v>453</v>
       </c>
-      <c r="D377" s="2"/>
+      <c r="D377">
+        <v>82</v>
+      </c>
       <c r="E377" s="2"/>
       <c r="F377" s="5"/>
       <c r="G377" s="2"/>
@@ -8125,7 +8884,9 @@
       <c r="C378" t="s">
         <v>456</v>
       </c>
-      <c r="D378" s="2"/>
+      <c r="D378">
+        <v>77</v>
+      </c>
       <c r="E378" s="2"/>
       <c r="F378" s="5"/>
       <c r="G378" s="2"/>
@@ -8141,7 +8902,9 @@
       <c r="C379" t="s">
         <v>446</v>
       </c>
-      <c r="D379" s="2"/>
+      <c r="D379">
+        <v>78</v>
+      </c>
       <c r="E379" s="2"/>
       <c r="F379" s="5"/>
       <c r="G379" s="2"/>
@@ -8157,7 +8920,9 @@
       <c r="C380" t="s">
         <v>456</v>
       </c>
-      <c r="D380" s="2"/>
+      <c r="D380">
+        <v>77</v>
+      </c>
       <c r="E380" s="2"/>
       <c r="F380" s="5"/>
       <c r="G380" s="2"/>
@@ -8173,7 +8938,9 @@
       <c r="C381" t="s">
         <v>452</v>
       </c>
-      <c r="D381" s="2"/>
+      <c r="D381">
+        <v>74</v>
+      </c>
       <c r="E381" s="2"/>
       <c r="F381" s="5"/>
       <c r="G381" s="2"/>
@@ -8189,7 +8956,9 @@
       <c r="C382" t="s">
         <v>449</v>
       </c>
-      <c r="D382" s="2"/>
+      <c r="D382">
+        <v>79</v>
+      </c>
       <c r="E382" s="2"/>
       <c r="F382" s="5"/>
       <c r="G382" s="2"/>
@@ -8205,7 +8974,9 @@
       <c r="C383" t="s">
         <v>444</v>
       </c>
-      <c r="D383" s="2"/>
+      <c r="D383">
+        <v>80</v>
+      </c>
       <c r="E383" s="2"/>
       <c r="F383" s="5"/>
       <c r="G383" s="2"/>
@@ -8221,7 +8992,9 @@
       <c r="C384" t="s">
         <v>453</v>
       </c>
-      <c r="D384" s="2"/>
+      <c r="D384">
+        <v>82</v>
+      </c>
       <c r="E384" s="2"/>
       <c r="F384" s="5"/>
       <c r="G384" s="2"/>
@@ -8237,7 +9010,9 @@
       <c r="C385" t="s">
         <v>448</v>
       </c>
-      <c r="D385" s="2"/>
+      <c r="D385">
+        <v>73</v>
+      </c>
       <c r="E385" s="2"/>
       <c r="F385" s="5"/>
       <c r="G385" s="2"/>
@@ -8253,7 +9028,9 @@
       <c r="C386" t="s">
         <v>453</v>
       </c>
-      <c r="D386" s="2"/>
+      <c r="D386">
+        <v>82</v>
+      </c>
       <c r="E386" s="2"/>
       <c r="F386" s="5"/>
       <c r="G386" s="2"/>
@@ -8269,7 +9046,9 @@
       <c r="C387" t="s">
         <v>456</v>
       </c>
-      <c r="D387" s="2"/>
+      <c r="D387">
+        <v>77</v>
+      </c>
       <c r="E387" s="2"/>
       <c r="F387" s="5"/>
       <c r="G387" s="2"/>
@@ -8285,7 +9064,9 @@
       <c r="C388" t="s">
         <v>449</v>
       </c>
-      <c r="D388" s="2"/>
+      <c r="D388">
+        <v>79</v>
+      </c>
       <c r="E388" s="2"/>
       <c r="F388" s="5"/>
       <c r="G388" s="2"/>
@@ -8301,7 +9082,9 @@
       <c r="C389" t="s">
         <v>450</v>
       </c>
-      <c r="D389" s="2"/>
+      <c r="D389">
+        <v>81</v>
+      </c>
       <c r="E389" s="2"/>
       <c r="F389" s="5"/>
       <c r="G389" s="2"/>
@@ -8317,7 +9100,9 @@
       <c r="C390" t="s">
         <v>455</v>
       </c>
-      <c r="D390" s="2"/>
+      <c r="D390">
+        <v>75</v>
+      </c>
       <c r="E390" s="2"/>
       <c r="F390" s="5"/>
       <c r="G390" s="2"/>
@@ -8333,7 +9118,9 @@
       <c r="C391" t="s">
         <v>446</v>
       </c>
-      <c r="D391" s="2"/>
+      <c r="D391">
+        <v>78</v>
+      </c>
       <c r="E391" s="2"/>
       <c r="F391" s="5"/>
       <c r="G391" s="2"/>
@@ -8349,7 +9136,9 @@
       <c r="C392" t="s">
         <v>445</v>
       </c>
-      <c r="D392" s="2"/>
+      <c r="D392">
+        <v>76</v>
+      </c>
       <c r="E392" s="2"/>
       <c r="F392" s="5"/>
       <c r="G392" s="2"/>
@@ -8365,7 +9154,9 @@
       <c r="C393" t="s">
         <v>445</v>
       </c>
-      <c r="D393" s="2"/>
+      <c r="D393">
+        <v>76</v>
+      </c>
       <c r="E393" s="2"/>
       <c r="F393" s="5"/>
       <c r="G393" s="2"/>
@@ -8381,7 +9172,9 @@
       <c r="C394" t="s">
         <v>450</v>
       </c>
-      <c r="D394" s="2"/>
+      <c r="D394">
+        <v>81</v>
+      </c>
       <c r="E394" s="2"/>
       <c r="F394" s="5"/>
       <c r="G394" s="2"/>
@@ -8397,7 +9190,9 @@
       <c r="C395" t="s">
         <v>445</v>
       </c>
-      <c r="D395" s="2"/>
+      <c r="D395">
+        <v>76</v>
+      </c>
       <c r="E395" s="2"/>
       <c r="F395" s="5"/>
       <c r="G395" s="2"/>
@@ -8413,7 +9208,9 @@
       <c r="C396" t="s">
         <v>460</v>
       </c>
-      <c r="D396" s="2"/>
+      <c r="D396">
+        <v>87</v>
+      </c>
       <c r="E396" s="2"/>
       <c r="F396" s="5"/>
       <c r="G396" s="2"/>
@@ -8429,7 +9226,9 @@
       <c r="C397" t="s">
         <v>450</v>
       </c>
-      <c r="D397" s="2"/>
+      <c r="D397">
+        <v>81</v>
+      </c>
       <c r="E397" s="2"/>
       <c r="F397" s="5"/>
       <c r="G397" s="2"/>
@@ -8445,7 +9244,9 @@
       <c r="C398" t="s">
         <v>450</v>
       </c>
-      <c r="D398" s="2"/>
+      <c r="D398">
+        <v>81</v>
+      </c>
       <c r="E398" s="2"/>
       <c r="F398" s="5"/>
       <c r="G398" s="2"/>
@@ -8461,7 +9262,9 @@
       <c r="C399" t="s">
         <v>451</v>
       </c>
-      <c r="D399" s="2"/>
+      <c r="D399">
+        <v>84</v>
+      </c>
       <c r="E399" s="2"/>
       <c r="F399" s="5"/>
       <c r="G399" s="2"/>
@@ -8477,7 +9280,9 @@
       <c r="C400" t="s">
         <v>444</v>
       </c>
-      <c r="D400" s="2"/>
+      <c r="D400">
+        <v>80</v>
+      </c>
       <c r="E400" s="2"/>
       <c r="F400" s="5"/>
       <c r="G400" s="2"/>
@@ -8493,7 +9298,9 @@
       <c r="C401" t="s">
         <v>455</v>
       </c>
-      <c r="D401" s="2"/>
+      <c r="D401">
+        <v>75</v>
+      </c>
       <c r="E401" s="2"/>
       <c r="F401" s="5"/>
       <c r="G401" s="2"/>
@@ -8509,7 +9316,9 @@
       <c r="C402" t="s">
         <v>456</v>
       </c>
-      <c r="D402" s="2"/>
+      <c r="D402">
+        <v>77</v>
+      </c>
       <c r="E402" s="2"/>
       <c r="F402" s="5"/>
       <c r="G402" s="2"/>
@@ -8525,7 +9334,9 @@
       <c r="C403" t="s">
         <v>453</v>
       </c>
-      <c r="D403" s="2"/>
+      <c r="D403">
+        <v>82</v>
+      </c>
       <c r="E403" s="2"/>
       <c r="F403" s="5"/>
       <c r="G403" s="2"/>
@@ -8541,7 +9352,9 @@
       <c r="C404" t="s">
         <v>457</v>
       </c>
-      <c r="D404" s="2"/>
+      <c r="D404">
+        <v>83</v>
+      </c>
       <c r="E404" s="2"/>
       <c r="F404" s="5"/>
       <c r="G404" s="2"/>
@@ -8557,7 +9370,9 @@
       <c r="C405" t="s">
         <v>452</v>
       </c>
-      <c r="D405" s="2"/>
+      <c r="D405">
+        <v>74</v>
+      </c>
       <c r="E405" s="2"/>
       <c r="F405" s="5"/>
       <c r="G405" s="2"/>
@@ -8571,7 +9386,9 @@
       <c r="C406" t="s">
         <v>445</v>
       </c>
-      <c r="D406" s="2"/>
+      <c r="D406">
+        <v>76</v>
+      </c>
       <c r="E406" s="2"/>
       <c r="F406" s="5"/>
       <c r="G406" s="2"/>
@@ -8585,7 +9402,9 @@
       <c r="C407" t="s">
         <v>456</v>
       </c>
-      <c r="D407" s="2"/>
+      <c r="D407">
+        <v>77</v>
+      </c>
       <c r="E407" s="2"/>
       <c r="F407" s="5"/>
       <c r="G407" s="2"/>
@@ -8601,7 +9420,9 @@
       <c r="C408" t="s">
         <v>449</v>
       </c>
-      <c r="D408" s="2"/>
+      <c r="D408">
+        <v>79</v>
+      </c>
       <c r="E408" s="2"/>
       <c r="F408" s="5"/>
       <c r="G408" s="2"/>
@@ -8617,7 +9438,9 @@
       <c r="C409" t="s">
         <v>458</v>
       </c>
-      <c r="D409" s="2"/>
+      <c r="D409">
+        <v>72</v>
+      </c>
       <c r="E409" s="2"/>
       <c r="F409" s="5"/>
       <c r="G409" s="2"/>
@@ -8633,7 +9456,9 @@
       <c r="C410" t="s">
         <v>449</v>
       </c>
-      <c r="D410" s="2"/>
+      <c r="D410">
+        <v>79</v>
+      </c>
       <c r="E410" s="2"/>
       <c r="F410" s="5"/>
       <c r="G410" s="2"/>
@@ -8649,7 +9474,9 @@
       <c r="C411" t="s">
         <v>457</v>
       </c>
-      <c r="D411" s="2"/>
+      <c r="D411">
+        <v>83</v>
+      </c>
       <c r="E411" s="2"/>
       <c r="F411" s="5"/>
       <c r="G411" s="2"/>
@@ -8665,7 +9492,9 @@
       <c r="C412" t="s">
         <v>445</v>
       </c>
-      <c r="D412" s="2"/>
+      <c r="D412">
+        <v>76</v>
+      </c>
       <c r="E412" s="2"/>
       <c r="F412" s="5"/>
       <c r="G412" s="2"/>
@@ -8681,7 +9510,9 @@
       <c r="C413" t="s">
         <v>458</v>
       </c>
-      <c r="D413" s="2"/>
+      <c r="D413">
+        <v>72</v>
+      </c>
       <c r="E413" s="2"/>
       <c r="F413" s="5"/>
       <c r="G413" s="2"/>
@@ -8697,7 +9528,9 @@
       <c r="C414" t="s">
         <v>449</v>
       </c>
-      <c r="D414" s="2"/>
+      <c r="D414">
+        <v>79</v>
+      </c>
       <c r="E414" s="2"/>
       <c r="F414" s="5"/>
       <c r="G414" s="2"/>
@@ -8713,7 +9546,9 @@
       <c r="C415" t="s">
         <v>445</v>
       </c>
-      <c r="D415" s="2"/>
+      <c r="D415">
+        <v>76</v>
+      </c>
       <c r="E415" s="2"/>
       <c r="F415" s="5"/>
       <c r="G415" s="2"/>
@@ -8729,7 +9564,9 @@
       <c r="C416" t="s">
         <v>446</v>
       </c>
-      <c r="D416" s="2"/>
+      <c r="D416">
+        <v>78</v>
+      </c>
       <c r="E416" s="2"/>
       <c r="F416" s="5"/>
       <c r="G416" s="2"/>
@@ -8745,7 +9582,9 @@
       <c r="C417" t="s">
         <v>457</v>
       </c>
-      <c r="D417" s="2"/>
+      <c r="D417">
+        <v>83</v>
+      </c>
       <c r="E417" s="2"/>
       <c r="F417" s="5"/>
       <c r="G417" s="2"/>
@@ -8761,7 +9600,9 @@
       <c r="C418" t="s">
         <v>456</v>
       </c>
-      <c r="D418" s="2"/>
+      <c r="D418">
+        <v>77</v>
+      </c>
       <c r="E418" s="2"/>
       <c r="F418" s="5"/>
       <c r="G418" s="2"/>
@@ -8777,7 +9618,9 @@
       <c r="C419" t="s">
         <v>444</v>
       </c>
-      <c r="D419" s="2"/>
+      <c r="D419">
+        <v>80</v>
+      </c>
       <c r="E419" s="2"/>
       <c r="F419" s="5"/>
       <c r="G419" s="2"/>
@@ -8793,7 +9636,9 @@
       <c r="C420" t="s">
         <v>456</v>
       </c>
-      <c r="D420" s="2"/>
+      <c r="D420">
+        <v>77</v>
+      </c>
       <c r="E420" s="2"/>
       <c r="F420" s="5"/>
       <c r="G420" s="2"/>
@@ -8809,7 +9654,9 @@
       <c r="C421" t="s">
         <v>446</v>
       </c>
-      <c r="D421" s="2"/>
+      <c r="D421">
+        <v>78</v>
+      </c>
       <c r="E421" s="2"/>
       <c r="F421" s="5"/>
       <c r="G421" s="2"/>
@@ -8825,7 +9672,9 @@
       <c r="C422" t="s">
         <v>457</v>
       </c>
-      <c r="D422" s="2"/>
+      <c r="D422">
+        <v>83</v>
+      </c>
       <c r="E422" s="2"/>
       <c r="F422" s="5"/>
       <c r="G422" s="2"/>
@@ -8841,7 +9690,9 @@
       <c r="C423" t="s">
         <v>444</v>
       </c>
-      <c r="D423" s="2"/>
+      <c r="D423">
+        <v>80</v>
+      </c>
       <c r="E423" s="2"/>
       <c r="F423" s="5"/>
       <c r="G423" s="2"/>
@@ -8857,7 +9708,9 @@
       <c r="C424" t="s">
         <v>461</v>
       </c>
-      <c r="D424" s="2"/>
+      <c r="D424">
+        <v>88</v>
+      </c>
       <c r="E424" s="2"/>
       <c r="F424" s="5"/>
       <c r="G424" s="2"/>
@@ -8871,7 +9724,9 @@
       <c r="C425" t="s">
         <v>455</v>
       </c>
-      <c r="D425" s="2"/>
+      <c r="D425">
+        <v>75</v>
+      </c>
       <c r="E425" s="2"/>
       <c r="F425" s="5"/>
       <c r="G425" s="2"/>
@@ -8887,7 +9742,9 @@
       <c r="C426" t="s">
         <v>446</v>
       </c>
-      <c r="D426" s="2"/>
+      <c r="D426">
+        <v>78</v>
+      </c>
       <c r="E426" s="2"/>
       <c r="F426" s="5"/>
       <c r="G426" s="2"/>
@@ -8903,7 +9760,9 @@
       <c r="C427" t="s">
         <v>455</v>
       </c>
-      <c r="D427" s="2"/>
+      <c r="D427">
+        <v>75</v>
+      </c>
       <c r="E427" s="2"/>
       <c r="F427" s="5"/>
       <c r="G427" s="2"/>
@@ -8919,7 +9778,9 @@
       <c r="C428" t="s">
         <v>444</v>
       </c>
-      <c r="D428" s="2"/>
+      <c r="D428">
+        <v>80</v>
+      </c>
       <c r="E428" s="2"/>
       <c r="F428" s="5"/>
       <c r="G428" s="2"/>
@@ -8935,7 +9796,9 @@
       <c r="C429" t="s">
         <v>453</v>
       </c>
-      <c r="D429" s="2"/>
+      <c r="D429">
+        <v>82</v>
+      </c>
       <c r="E429" s="2"/>
       <c r="F429" s="5"/>
       <c r="G429" s="2"/>
@@ -8951,7 +9814,9 @@
       <c r="C430" t="s">
         <v>444</v>
       </c>
-      <c r="D430" s="2"/>
+      <c r="D430">
+        <v>80</v>
+      </c>
       <c r="E430" s="2"/>
       <c r="F430" s="5"/>
       <c r="G430" s="2"/>
@@ -8967,7 +9832,9 @@
       <c r="C431" t="s">
         <v>455</v>
       </c>
-      <c r="D431" s="2"/>
+      <c r="D431">
+        <v>75</v>
+      </c>
       <c r="E431" s="2"/>
       <c r="F431" s="5"/>
       <c r="G431" s="2"/>
@@ -8983,7 +9850,9 @@
       <c r="C432" t="s">
         <v>446</v>
       </c>
-      <c r="D432" s="2"/>
+      <c r="D432">
+        <v>78</v>
+      </c>
       <c r="E432" s="2"/>
       <c r="F432" s="5"/>
       <c r="G432" s="2"/>
@@ -8999,7 +9868,9 @@
       <c r="C433" t="s">
         <v>451</v>
       </c>
-      <c r="D433" s="2"/>
+      <c r="D433">
+        <v>84</v>
+      </c>
       <c r="E433" s="2"/>
       <c r="F433" s="5"/>
       <c r="G433" s="2"/>
@@ -9015,7 +9886,9 @@
       <c r="C434" t="s">
         <v>446</v>
       </c>
-      <c r="D434" s="2"/>
+      <c r="D434">
+        <v>78</v>
+      </c>
       <c r="E434" s="2"/>
       <c r="F434" s="5"/>
       <c r="G434" s="2"/>
@@ -9031,7 +9904,9 @@
       <c r="C435" t="s">
         <v>457</v>
       </c>
-      <c r="D435" s="2"/>
+      <c r="D435">
+        <v>83</v>
+      </c>
       <c r="E435" s="2"/>
       <c r="F435" s="5"/>
       <c r="G435" s="2"/>
@@ -9047,7 +9922,9 @@
       <c r="C436" t="s">
         <v>456</v>
       </c>
-      <c r="D436" s="2"/>
+      <c r="D436">
+        <v>77</v>
+      </c>
       <c r="E436" s="2"/>
       <c r="F436" s="5"/>
       <c r="G436" s="2"/>
@@ -9063,7 +9940,9 @@
       <c r="C437" t="s">
         <v>444</v>
       </c>
-      <c r="D437" s="2"/>
+      <c r="D437">
+        <v>80</v>
+      </c>
       <c r="E437" s="2"/>
       <c r="F437" s="5"/>
       <c r="G437" s="2"/>
@@ -9079,7 +9958,9 @@
       <c r="C438" t="s">
         <v>449</v>
       </c>
-      <c r="D438" s="2"/>
+      <c r="D438">
+        <v>79</v>
+      </c>
       <c r="E438" s="2"/>
       <c r="F438" s="5"/>
       <c r="G438" s="2"/>
@@ -9095,7 +9976,9 @@
       <c r="C439" t="s">
         <v>450</v>
       </c>
-      <c r="D439" s="2"/>
+      <c r="D439">
+        <v>81</v>
+      </c>
       <c r="E439" s="2"/>
       <c r="F439" s="5"/>
       <c r="G439" s="2"/>
@@ -9111,7 +9994,9 @@
       <c r="C440" t="s">
         <v>444</v>
       </c>
-      <c r="D440" s="2"/>
+      <c r="D440">
+        <v>80</v>
+      </c>
       <c r="E440" s="2"/>
       <c r="F440" s="5"/>
       <c r="G440" s="2"/>
@@ -9127,7 +10012,9 @@
       <c r="C441" t="s">
         <v>444</v>
       </c>
-      <c r="D441" s="2"/>
+      <c r="D441">
+        <v>80</v>
+      </c>
       <c r="E441" s="2"/>
       <c r="F441" s="5"/>
       <c r="G441" s="2"/>
@@ -9143,7 +10030,9 @@
       <c r="C442" t="s">
         <v>445</v>
       </c>
-      <c r="D442" s="2"/>
+      <c r="D442">
+        <v>76</v>
+      </c>
       <c r="E442" s="2"/>
       <c r="F442" s="5"/>
       <c r="G442" s="2"/>
@@ -9159,7 +10048,9 @@
       <c r="C443" t="s">
         <v>452</v>
       </c>
-      <c r="D443" s="2"/>
+      <c r="D443">
+        <v>74</v>
+      </c>
       <c r="E443" s="2"/>
       <c r="F443" s="5"/>
       <c r="G443" s="2"/>
@@ -9175,7 +10066,9 @@
       <c r="C444" t="s">
         <v>444</v>
       </c>
-      <c r="D444" s="2"/>
+      <c r="D444">
+        <v>80</v>
+      </c>
       <c r="E444" s="2"/>
       <c r="F444" s="5"/>
       <c r="G444" s="2"/>
@@ -9191,7 +10084,9 @@
       <c r="C445" t="s">
         <v>452</v>
       </c>
-      <c r="D445" s="2"/>
+      <c r="D445">
+        <v>74</v>
+      </c>
       <c r="E445" s="2"/>
       <c r="F445" s="5"/>
       <c r="G445" s="2"/>
@@ -9207,7 +10102,9 @@
       <c r="C446" t="s">
         <v>456</v>
       </c>
-      <c r="D446" s="2"/>
+      <c r="D446">
+        <v>77</v>
+      </c>
       <c r="E446" s="2"/>
       <c r="F446" s="5"/>
       <c r="G446" s="2"/>
@@ -9223,7 +10120,9 @@
       <c r="C447" t="s">
         <v>458</v>
       </c>
-      <c r="D447" s="2"/>
+      <c r="D447">
+        <v>72</v>
+      </c>
       <c r="E447" s="2"/>
       <c r="F447" s="5"/>
       <c r="G447" s="2"/>
@@ -9239,7 +10138,9 @@
       <c r="C448" t="s">
         <v>446</v>
       </c>
-      <c r="D448" s="2"/>
+      <c r="D448">
+        <v>78</v>
+      </c>
       <c r="E448" s="2"/>
       <c r="F448" s="5"/>
       <c r="G448" s="2"/>
@@ -9255,7 +10156,9 @@
       <c r="C449" t="s">
         <v>450</v>
       </c>
-      <c r="D449" s="2"/>
+      <c r="D449">
+        <v>81</v>
+      </c>
       <c r="E449" s="2"/>
       <c r="F449" s="5"/>
       <c r="G449" s="2"/>
@@ -9271,7 +10174,9 @@
       <c r="C450" t="s">
         <v>446</v>
       </c>
-      <c r="D450" s="2"/>
+      <c r="D450">
+        <v>78</v>
+      </c>
       <c r="E450" s="2"/>
       <c r="F450" s="5"/>
       <c r="G450" s="2"/>
@@ -9287,7 +10192,9 @@
       <c r="C451" t="s">
         <v>444</v>
       </c>
-      <c r="D451" s="2"/>
+      <c r="D451">
+        <v>80</v>
+      </c>
       <c r="E451" s="2"/>
       <c r="F451" s="5"/>
       <c r="G451" s="2"/>
@@ -9303,7 +10210,9 @@
       <c r="C452" t="s">
         <v>444</v>
       </c>
-      <c r="D452" s="2"/>
+      <c r="D452">
+        <v>80</v>
+      </c>
       <c r="E452" s="2"/>
       <c r="F452" s="5"/>
       <c r="G452" s="2"/>
@@ -9319,7 +10228,9 @@
       <c r="C453" t="s">
         <v>445</v>
       </c>
-      <c r="D453" s="2"/>
+      <c r="D453">
+        <v>76</v>
+      </c>
       <c r="E453" s="2"/>
       <c r="F453" s="5"/>
       <c r="G453" s="2"/>
@@ -9335,7 +10246,9 @@
       <c r="C454" t="s">
         <v>453</v>
       </c>
-      <c r="D454" s="2"/>
+      <c r="D454">
+        <v>82</v>
+      </c>
       <c r="E454" s="2"/>
       <c r="F454" s="5"/>
       <c r="G454" s="2"/>
@@ -9351,7 +10264,9 @@
       <c r="C455" t="s">
         <v>449</v>
       </c>
-      <c r="D455" s="2"/>
+      <c r="D455">
+        <v>79</v>
+      </c>
       <c r="E455" s="2"/>
       <c r="F455" s="5"/>
       <c r="G455" s="2"/>
@@ -9367,7 +10282,9 @@
       <c r="C456" t="s">
         <v>446</v>
       </c>
-      <c r="D456" s="2"/>
+      <c r="D456">
+        <v>78</v>
+      </c>
       <c r="E456" s="2"/>
       <c r="F456" s="5"/>
       <c r="G456" s="2"/>
@@ -9383,7 +10300,9 @@
       <c r="C457" t="s">
         <v>456</v>
       </c>
-      <c r="D457" s="2"/>
+      <c r="D457">
+        <v>77</v>
+      </c>
       <c r="E457" s="2"/>
       <c r="F457" s="5"/>
       <c r="G457" s="2"/>
@@ -9399,7 +10318,9 @@
       <c r="C458" t="s">
         <v>452</v>
       </c>
-      <c r="D458" s="2"/>
+      <c r="D458">
+        <v>74</v>
+      </c>
       <c r="E458" s="2"/>
       <c r="F458" s="5"/>
       <c r="G458" s="2"/>
@@ -9415,7 +10336,9 @@
       <c r="C459" t="s">
         <v>450</v>
       </c>
-      <c r="D459" s="2"/>
+      <c r="D459">
+        <v>81</v>
+      </c>
       <c r="E459" s="2"/>
       <c r="F459" s="5"/>
       <c r="G459" s="2"/>
@@ -9431,7 +10354,9 @@
       <c r="C460" t="s">
         <v>450</v>
       </c>
-      <c r="D460" s="2"/>
+      <c r="D460">
+        <v>81</v>
+      </c>
       <c r="E460" s="2"/>
       <c r="F460" s="5"/>
       <c r="G460" s="2"/>
@@ -9447,7 +10372,9 @@
       <c r="C461" t="s">
         <v>455</v>
       </c>
-      <c r="D461" s="2"/>
+      <c r="D461">
+        <v>75</v>
+      </c>
       <c r="E461" s="2"/>
       <c r="F461" s="5"/>
       <c r="G461" s="2"/>
@@ -9463,7 +10390,9 @@
       <c r="C462" t="s">
         <v>455</v>
       </c>
-      <c r="D462" s="2"/>
+      <c r="D462">
+        <v>75</v>
+      </c>
       <c r="E462" s="2"/>
       <c r="F462" s="5"/>
       <c r="G462" s="2"/>
@@ -9479,7 +10408,9 @@
       <c r="C463" t="s">
         <v>445</v>
       </c>
-      <c r="D463" s="2"/>
+      <c r="D463">
+        <v>76</v>
+      </c>
       <c r="E463" s="2"/>
       <c r="F463" s="5"/>
       <c r="G463" s="2"/>
@@ -9495,7 +10426,9 @@
       <c r="C464" t="s">
         <v>445</v>
       </c>
-      <c r="D464" s="2"/>
+      <c r="D464">
+        <v>76</v>
+      </c>
       <c r="E464" s="2"/>
       <c r="F464" s="5"/>
       <c r="G464" s="2"/>
@@ -9511,7 +10444,9 @@
       <c r="C465" t="s">
         <v>446</v>
       </c>
-      <c r="D465" s="2"/>
+      <c r="D465">
+        <v>78</v>
+      </c>
       <c r="E465" s="2"/>
       <c r="F465" s="5"/>
       <c r="G465" s="2"/>
@@ -9527,7 +10462,9 @@
       <c r="C466" t="s">
         <v>455</v>
       </c>
-      <c r="D466" s="2"/>
+      <c r="D466">
+        <v>75</v>
+      </c>
       <c r="E466" s="2"/>
       <c r="F466" s="5"/>
       <c r="G466" s="2"/>
@@ -9543,7 +10480,9 @@
       <c r="C467" t="s">
         <v>444</v>
       </c>
-      <c r="D467" s="2"/>
+      <c r="D467">
+        <v>80</v>
+      </c>
       <c r="E467" s="2"/>
       <c r="F467" s="5"/>
       <c r="G467" s="2"/>
@@ -9559,7 +10498,9 @@
       <c r="C468" t="s">
         <v>453</v>
       </c>
-      <c r="D468" s="2"/>
+      <c r="D468">
+        <v>82</v>
+      </c>
       <c r="E468" s="2"/>
       <c r="F468" s="5"/>
       <c r="G468" s="2"/>
@@ -9575,7 +10516,9 @@
       <c r="C469" t="s">
         <v>450</v>
       </c>
-      <c r="D469" s="2"/>
+      <c r="D469">
+        <v>81</v>
+      </c>
       <c r="E469" s="2"/>
       <c r="F469" s="5"/>
       <c r="G469" s="2"/>
@@ -9591,7 +10534,9 @@
       <c r="C470" t="s">
         <v>451</v>
       </c>
-      <c r="D470" s="2"/>
+      <c r="D470">
+        <v>84</v>
+      </c>
       <c r="E470" s="2"/>
       <c r="F470" s="5"/>
       <c r="G470" s="2"/>
@@ -9607,7 +10552,9 @@
       <c r="C471" t="s">
         <v>451</v>
       </c>
-      <c r="D471" s="2"/>
+      <c r="D471">
+        <v>84</v>
+      </c>
       <c r="E471" s="2"/>
       <c r="F471" s="5"/>
       <c r="G471" s="2"/>
@@ -9623,7 +10570,9 @@
       <c r="C472" t="s">
         <v>453</v>
       </c>
-      <c r="D472" s="2"/>
+      <c r="D472">
+        <v>82</v>
+      </c>
       <c r="E472" s="2"/>
       <c r="F472" s="5"/>
       <c r="G472" s="2"/>
@@ -9639,7 +10588,9 @@
       <c r="C473" t="s">
         <v>456</v>
       </c>
-      <c r="D473" s="2"/>
+      <c r="D473">
+        <v>77</v>
+      </c>
       <c r="E473" s="2"/>
       <c r="F473" s="5"/>
       <c r="G473" s="2"/>
@@ -9655,7 +10606,9 @@
       <c r="C474" t="s">
         <v>449</v>
       </c>
-      <c r="D474" s="2"/>
+      <c r="D474">
+        <v>79</v>
+      </c>
       <c r="E474" s="2"/>
       <c r="F474" s="5"/>
       <c r="G474" s="2"/>
@@ -9671,7 +10624,9 @@
       <c r="C475" t="s">
         <v>457</v>
       </c>
-      <c r="D475" s="2"/>
+      <c r="D475">
+        <v>83</v>
+      </c>
       <c r="E475" s="2"/>
       <c r="F475" s="5"/>
       <c r="G475" s="2"/>
@@ -9687,7 +10642,9 @@
       <c r="C476" t="s">
         <v>451</v>
       </c>
-      <c r="D476" s="2"/>
+      <c r="D476">
+        <v>84</v>
+      </c>
       <c r="E476" s="2"/>
       <c r="F476" s="5"/>
       <c r="G476" s="2"/>
@@ -9701,7 +10658,9 @@
       <c r="C477" t="s">
         <v>456</v>
       </c>
-      <c r="D477" s="2"/>
+      <c r="D477">
+        <v>77</v>
+      </c>
       <c r="E477" s="2"/>
       <c r="F477" s="5"/>
       <c r="G477" s="2"/>
@@ -9717,7 +10676,9 @@
       <c r="C478" t="s">
         <v>462</v>
       </c>
-      <c r="D478" s="2"/>
+      <c r="D478">
+        <v>69</v>
+      </c>
       <c r="E478" s="2"/>
       <c r="F478" s="5"/>
       <c r="G478" s="2"/>
@@ -9733,7 +10694,9 @@
       <c r="C479" t="s">
         <v>444</v>
       </c>
-      <c r="D479" s="2"/>
+      <c r="D479">
+        <v>80</v>
+      </c>
       <c r="E479" s="2"/>
       <c r="F479" s="5"/>
       <c r="G479" s="2"/>
@@ -9749,7 +10712,9 @@
       <c r="C480" t="s">
         <v>444</v>
       </c>
-      <c r="D480" s="2"/>
+      <c r="D480">
+        <v>80</v>
+      </c>
       <c r="E480" s="2"/>
       <c r="F480" s="5"/>
       <c r="G480" s="2"/>
@@ -9765,7 +10730,9 @@
       <c r="C481" t="s">
         <v>445</v>
       </c>
-      <c r="D481" s="2"/>
+      <c r="D481">
+        <v>76</v>
+      </c>
       <c r="E481" s="2"/>
       <c r="F481" s="5"/>
       <c r="G481" s="2"/>
@@ -9781,7 +10748,9 @@
       <c r="C482" t="s">
         <v>457</v>
       </c>
-      <c r="D482" s="2"/>
+      <c r="D482">
+        <v>83</v>
+      </c>
       <c r="E482" s="2"/>
       <c r="F482" s="5"/>
       <c r="G482" s="2"/>
@@ -9797,7 +10766,9 @@
       <c r="C483" t="s">
         <v>450</v>
       </c>
-      <c r="D483" s="2"/>
+      <c r="D483">
+        <v>81</v>
+      </c>
       <c r="E483" s="2"/>
       <c r="F483" s="5"/>
       <c r="G483" s="2"/>
@@ -9813,7 +10784,9 @@
       <c r="C484" t="s">
         <v>456</v>
       </c>
-      <c r="D484" s="2"/>
+      <c r="D484">
+        <v>77</v>
+      </c>
       <c r="E484" s="2"/>
       <c r="F484" s="5"/>
       <c r="G484" s="2"/>
@@ -9829,7 +10802,9 @@
       <c r="C485" t="s">
         <v>452</v>
       </c>
-      <c r="D485" s="2"/>
+      <c r="D485">
+        <v>74</v>
+      </c>
       <c r="E485" s="2"/>
       <c r="F485" s="5"/>
       <c r="G485" s="2"/>
@@ -9845,7 +10820,9 @@
       <c r="C486" t="s">
         <v>453</v>
       </c>
-      <c r="D486" s="2"/>
+      <c r="D486">
+        <v>82</v>
+      </c>
       <c r="E486" s="2"/>
       <c r="F486" s="5"/>
       <c r="G486" s="2"/>
@@ -9861,7 +10838,9 @@
       <c r="C487" t="s">
         <v>444</v>
       </c>
-      <c r="D487" s="2"/>
+      <c r="D487">
+        <v>80</v>
+      </c>
       <c r="E487" s="2"/>
       <c r="F487" s="5"/>
       <c r="G487" s="2"/>
@@ -9877,7 +10856,9 @@
       <c r="C488" t="s">
         <v>445</v>
       </c>
-      <c r="D488" s="2"/>
+      <c r="D488">
+        <v>76</v>
+      </c>
       <c r="E488" s="2"/>
       <c r="F488" s="5"/>
       <c r="G488" s="2"/>
@@ -9893,7 +10874,9 @@
       <c r="C489" t="s">
         <v>456</v>
       </c>
-      <c r="D489" s="2"/>
+      <c r="D489">
+        <v>77</v>
+      </c>
       <c r="E489" s="2"/>
       <c r="F489" s="5"/>
       <c r="G489" s="2"/>
@@ -9909,7 +10892,9 @@
       <c r="C490" t="s">
         <v>455</v>
       </c>
-      <c r="D490" s="2"/>
+      <c r="D490">
+        <v>75</v>
+      </c>
       <c r="E490" s="2"/>
       <c r="F490" s="5"/>
       <c r="G490" s="2"/>
@@ -9925,7 +10910,9 @@
       <c r="C491" t="s">
         <v>455</v>
       </c>
-      <c r="D491" s="2"/>
+      <c r="D491">
+        <v>75</v>
+      </c>
       <c r="E491" s="2"/>
       <c r="F491" s="5"/>
       <c r="G491" s="2"/>
@@ -9941,7 +10928,9 @@
       <c r="C492" t="s">
         <v>450</v>
       </c>
-      <c r="D492" s="2"/>
+      <c r="D492">
+        <v>81</v>
+      </c>
       <c r="E492" s="2"/>
       <c r="F492" s="5"/>
       <c r="G492" s="2"/>
@@ -9957,7 +10946,9 @@
       <c r="C493" t="s">
         <v>456</v>
       </c>
-      <c r="D493" s="2"/>
+      <c r="D493">
+        <v>77</v>
+      </c>
       <c r="E493" s="2"/>
       <c r="F493" s="5"/>
       <c r="G493" s="2"/>
@@ -9971,7 +10962,9 @@
       <c r="C494" t="s">
         <v>444</v>
       </c>
-      <c r="D494" s="2"/>
+      <c r="D494">
+        <v>80</v>
+      </c>
       <c r="E494" s="2"/>
       <c r="F494" s="5"/>
       <c r="G494" s="2"/>
@@ -9985,7 +10978,9 @@
       <c r="C495" t="s">
         <v>457</v>
       </c>
-      <c r="D495" s="2"/>
+      <c r="D495">
+        <v>83</v>
+      </c>
       <c r="E495" s="2"/>
       <c r="F495" s="5"/>
       <c r="G495" s="2"/>
@@ -10001,7 +10996,9 @@
       <c r="C496" t="s">
         <v>455</v>
       </c>
-      <c r="D496" s="2"/>
+      <c r="D496">
+        <v>75</v>
+      </c>
       <c r="E496" s="2"/>
       <c r="F496" s="5"/>
       <c r="G496" s="2"/>
@@ -10017,7 +11014,9 @@
       <c r="C497" t="s">
         <v>455</v>
       </c>
-      <c r="D497" s="2"/>
+      <c r="D497">
+        <v>75</v>
+      </c>
       <c r="E497" s="2"/>
       <c r="F497" s="5"/>
       <c r="G497" s="2"/>
@@ -10033,7 +11032,9 @@
       <c r="C498" t="s">
         <v>451</v>
       </c>
-      <c r="D498" s="2"/>
+      <c r="D498">
+        <v>84</v>
+      </c>
       <c r="E498" s="2"/>
       <c r="F498" s="5"/>
       <c r="G498" s="2"/>
@@ -10049,7 +11050,9 @@
       <c r="C499" t="s">
         <v>456</v>
       </c>
-      <c r="D499" s="2"/>
+      <c r="D499">
+        <v>77</v>
+      </c>
       <c r="E499" s="2"/>
       <c r="F499" s="5"/>
       <c r="G499" s="2"/>
@@ -10065,7 +11068,9 @@
       <c r="C500" t="s">
         <v>445</v>
       </c>
-      <c r="D500" s="2"/>
+      <c r="D500">
+        <v>76</v>
+      </c>
       <c r="E500" s="2"/>
       <c r="F500" s="5"/>
       <c r="G500" s="2"/>
@@ -10081,7 +11086,9 @@
       <c r="C501" t="s">
         <v>444</v>
       </c>
-      <c r="D501" s="2"/>
+      <c r="D501">
+        <v>80</v>
+      </c>
       <c r="E501" s="2"/>
       <c r="F501" s="5"/>
       <c r="G501" s="2"/>
@@ -10097,7 +11104,9 @@
       <c r="C502" t="s">
         <v>449</v>
       </c>
-      <c r="D502" s="2"/>
+      <c r="D502">
+        <v>79</v>
+      </c>
       <c r="E502" s="2"/>
       <c r="F502" s="5"/>
       <c r="G502" s="2"/>
@@ -10113,7 +11122,9 @@
       <c r="C503" t="s">
         <v>447</v>
       </c>
-      <c r="D503" s="2"/>
+      <c r="D503">
+        <v>86</v>
+      </c>
       <c r="E503" s="2"/>
       <c r="F503" s="5"/>
       <c r="G503" s="2"/>
@@ -10129,7 +11140,9 @@
       <c r="C504" t="s">
         <v>445</v>
       </c>
-      <c r="D504" s="2"/>
+      <c r="D504">
+        <v>76</v>
+      </c>
       <c r="E504" s="2"/>
       <c r="F504" s="5"/>
       <c r="G504" s="2"/>
@@ -10145,7 +11158,9 @@
       <c r="C505" t="s">
         <v>446</v>
       </c>
-      <c r="D505" s="2"/>
+      <c r="D505">
+        <v>78</v>
+      </c>
       <c r="E505" s="2"/>
       <c r="F505" s="5"/>
       <c r="G505" s="2"/>
@@ -10161,7 +11176,9 @@
       <c r="C506" t="s">
         <v>446</v>
       </c>
-      <c r="D506" s="2"/>
+      <c r="D506">
+        <v>78</v>
+      </c>
       <c r="E506" s="2"/>
       <c r="F506" s="5"/>
       <c r="G506" s="2"/>
@@ -10177,7 +11194,9 @@
       <c r="C507" t="s">
         <v>456</v>
       </c>
-      <c r="D507" s="2"/>
+      <c r="D507">
+        <v>77</v>
+      </c>
       <c r="E507" s="2"/>
       <c r="F507" s="5"/>
       <c r="G507" s="2"/>
@@ -10193,7 +11212,9 @@
       <c r="C508" t="s">
         <v>457</v>
       </c>
-      <c r="D508" s="2"/>
+      <c r="D508">
+        <v>83</v>
+      </c>
       <c r="E508" s="2"/>
       <c r="F508" s="5"/>
       <c r="G508" s="2"/>
@@ -10209,7 +11230,9 @@
       <c r="C509" t="s">
         <v>444</v>
       </c>
-      <c r="D509" s="2"/>
+      <c r="D509">
+        <v>80</v>
+      </c>
       <c r="E509" s="2"/>
       <c r="F509" s="5"/>
       <c r="G509" s="2"/>
@@ -10225,7 +11248,9 @@
       <c r="C510" t="s">
         <v>450</v>
       </c>
-      <c r="D510" s="2"/>
+      <c r="D510">
+        <v>81</v>
+      </c>
       <c r="E510" s="2"/>
       <c r="F510" s="5"/>
       <c r="G510" s="2"/>
@@ -10241,7 +11266,9 @@
       <c r="C511" t="s">
         <v>450</v>
       </c>
-      <c r="D511" s="2"/>
+      <c r="D511">
+        <v>81</v>
+      </c>
       <c r="E511" s="2"/>
       <c r="F511" s="5"/>
       <c r="G511" s="2"/>
@@ -10257,7 +11284,9 @@
       <c r="C512" t="s">
         <v>454</v>
       </c>
-      <c r="D512" s="2"/>
+      <c r="D512">
+        <v>85</v>
+      </c>
       <c r="E512" s="2"/>
       <c r="F512" s="5"/>
       <c r="G512" s="2"/>
@@ -10273,7 +11302,9 @@
       <c r="C513" t="s">
         <v>446</v>
       </c>
-      <c r="D513" s="2"/>
+      <c r="D513">
+        <v>78</v>
+      </c>
       <c r="E513" s="2"/>
       <c r="F513" s="5"/>
       <c r="G513" s="2"/>
@@ -10289,7 +11320,9 @@
       <c r="C514" t="s">
         <v>461</v>
       </c>
-      <c r="D514" s="2"/>
+      <c r="D514">
+        <v>88</v>
+      </c>
       <c r="E514" s="2"/>
       <c r="F514" s="5"/>
       <c r="G514" s="2"/>
@@ -10305,7 +11338,9 @@
       <c r="C515" t="s">
         <v>456</v>
       </c>
-      <c r="D515" s="2"/>
+      <c r="D515">
+        <v>77</v>
+      </c>
       <c r="E515" s="2"/>
       <c r="F515" s="5"/>
       <c r="G515" s="2"/>
@@ -10321,7 +11356,9 @@
       <c r="C516" t="s">
         <v>448</v>
       </c>
-      <c r="D516" s="2"/>
+      <c r="D516">
+        <v>73</v>
+      </c>
       <c r="E516" s="2"/>
       <c r="F516" s="5"/>
       <c r="G516" s="2"/>
@@ -10337,7 +11374,9 @@
       <c r="C517" t="s">
         <v>444</v>
       </c>
-      <c r="D517" s="2"/>
+      <c r="D517">
+        <v>80</v>
+      </c>
       <c r="E517" s="2"/>
       <c r="F517" s="5"/>
       <c r="G517" s="2"/>
@@ -10353,7 +11392,9 @@
       <c r="C518" t="s">
         <v>456</v>
       </c>
-      <c r="D518" s="2"/>
+      <c r="D518">
+        <v>77</v>
+      </c>
       <c r="E518" s="2"/>
       <c r="F518" s="5"/>
       <c r="G518" s="2"/>
@@ -10369,7 +11410,9 @@
       <c r="C519" t="s">
         <v>449</v>
       </c>
-      <c r="D519" s="2"/>
+      <c r="D519">
+        <v>79</v>
+      </c>
       <c r="E519" s="2"/>
       <c r="F519" s="5"/>
       <c r="G519" s="2"/>
@@ -10385,7 +11428,9 @@
       <c r="C520" t="s">
         <v>446</v>
       </c>
-      <c r="D520" s="2"/>
+      <c r="D520">
+        <v>78</v>
+      </c>
       <c r="E520" s="2"/>
       <c r="F520" s="5"/>
       <c r="G520" s="2"/>
@@ -10401,7 +11446,9 @@
       <c r="C521" t="s">
         <v>445</v>
       </c>
-      <c r="D521" s="2"/>
+      <c r="D521">
+        <v>76</v>
+      </c>
       <c r="E521" s="2"/>
       <c r="F521" s="5"/>
       <c r="G521" s="2"/>
@@ -10417,7 +11464,9 @@
       <c r="C522" t="s">
         <v>457</v>
       </c>
-      <c r="D522" s="2"/>
+      <c r="D522">
+        <v>83</v>
+      </c>
       <c r="E522" s="2"/>
       <c r="F522" s="5"/>
       <c r="G522" s="2"/>
@@ -10433,7 +11482,9 @@
       <c r="C523" t="s">
         <v>456</v>
       </c>
-      <c r="D523" s="2"/>
+      <c r="D523">
+        <v>77</v>
+      </c>
       <c r="E523" s="2"/>
       <c r="F523" s="5"/>
       <c r="G523" s="2"/>
@@ -10449,7 +11500,9 @@
       <c r="C524" t="s">
         <v>444</v>
       </c>
-      <c r="D524" s="2"/>
+      <c r="D524">
+        <v>80</v>
+      </c>
       <c r="E524" s="2"/>
       <c r="F524" s="5"/>
       <c r="G524" s="2"/>
@@ -10465,7 +11518,9 @@
       <c r="C525" t="s">
         <v>450</v>
       </c>
-      <c r="D525" s="2"/>
+      <c r="D525">
+        <v>81</v>
+      </c>
       <c r="E525" s="2"/>
       <c r="F525" s="5"/>
       <c r="G525" s="2"/>
@@ -10481,7 +11536,9 @@
       <c r="C526" t="s">
         <v>453</v>
       </c>
-      <c r="D526" s="2"/>
+      <c r="D526">
+        <v>82</v>
+      </c>
       <c r="E526" s="2"/>
       <c r="F526" s="5"/>
       <c r="G526" s="2"/>
@@ -10497,7 +11554,9 @@
       <c r="C527" t="s">
         <v>444</v>
       </c>
-      <c r="D527" s="2"/>
+      <c r="D527">
+        <v>80</v>
+      </c>
       <c r="E527" s="2"/>
       <c r="F527" s="5"/>
       <c r="G527" s="2"/>
@@ -10513,7 +11572,9 @@
       <c r="C528" t="s">
         <v>448</v>
       </c>
-      <c r="D528" s="2"/>
+      <c r="D528">
+        <v>73</v>
+      </c>
       <c r="E528" s="2"/>
       <c r="F528" s="5"/>
       <c r="G528" s="2"/>
@@ -10529,7 +11590,9 @@
       <c r="C529" t="s">
         <v>457</v>
       </c>
-      <c r="D529" s="2"/>
+      <c r="D529">
+        <v>83</v>
+      </c>
       <c r="E529" s="2"/>
       <c r="F529" s="5"/>
       <c r="G529" s="2"/>
@@ -10543,7 +11606,9 @@
       <c r="C530" t="s">
         <v>450</v>
       </c>
-      <c r="D530" s="2"/>
+      <c r="D530">
+        <v>81</v>
+      </c>
       <c r="E530" s="2"/>
       <c r="F530" s="5"/>
       <c r="G530" s="2"/>
@@ -10557,7 +11622,9 @@
       <c r="C531" t="s">
         <v>456</v>
       </c>
-      <c r="D531" s="2"/>
+      <c r="D531">
+        <v>77</v>
+      </c>
       <c r="E531" s="2"/>
       <c r="F531" s="5"/>
       <c r="G531" s="2"/>
@@ -10565,7 +11632,6 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="2"/>
-      <c r="D532" s="2"/>
       <c r="E532" s="2"/>
       <c r="F532" s="5"/>
       <c r="G532" s="2"/>

--- a/public/players.xlsx
+++ b/public/players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petrvorel35/projekt2/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A563C34F-35ED-6948-9FEA-14052100209B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3F6F6C-C4C2-D44E-AA28-39A0F40F3F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3040" yWindow="2100" windowWidth="28040" windowHeight="17440" xr2:uid="{7EC8AFE5-59F6-F246-BCB8-55B35148A5E5}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Player</t>
   </si>
   <si>
-    <t>Luka Dončić</t>
-  </si>
-  <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
@@ -53,9 +50,6 @@
     <t>Joel Embiid</t>
   </si>
   <si>
-    <t>Nikola Jokić</t>
-  </si>
-  <si>
     <t>Stephen Curry</t>
   </si>
   <si>
@@ -143,9 +137,6 @@
     <t>Karl-Anthony Towns</t>
   </si>
   <si>
-    <t>Alperen Şengün</t>
-  </si>
-  <si>
     <t>Dejounte Murray</t>
   </si>
   <si>
@@ -203,18 +194,12 @@
     <t>Collin Sexton</t>
   </si>
   <si>
-    <t>Bogdan Bogdanović</t>
-  </si>
-  <si>
     <t>Fred VanVleet</t>
   </si>
   <si>
     <t>Jalen Williams</t>
   </si>
   <si>
-    <t>Nikola Vučević</t>
-  </si>
-  <si>
     <t>Austin Reaves</t>
   </si>
   <si>
@@ -233,18 +218,9 @@
     <t>Jimmy Butler</t>
   </si>
   <si>
-    <t>Kristaps Porziņģis</t>
-  </si>
-  <si>
     <t>RJ Barrett</t>
   </si>
   <si>
-    <t>Jonas Valančiūnas</t>
-  </si>
-  <si>
-    <t>Dennis Schröder</t>
-  </si>
-  <si>
     <t>James Harden</t>
   </si>
   <si>
@@ -356,9 +332,6 @@
     <t>Caris LeVert</t>
   </si>
   <si>
-    <t>Jusuf Nurkić</t>
-  </si>
-  <si>
     <t>Eric Gordon</t>
   </si>
   <si>
@@ -464,9 +437,6 @@
     <t>Derrick Jones Jr.</t>
   </si>
   <si>
-    <t>Dario Šarić</t>
-  </si>
-  <si>
     <t>Evan Mobley</t>
   </si>
   <si>
@@ -557,9 +527,6 @@
     <t>Kyle Lowry</t>
   </si>
   <si>
-    <t>Bojan Bogdanović</t>
-  </si>
-  <si>
     <t>Chris Paul</t>
   </si>
   <si>
@@ -1067,9 +1034,6 @@
     <t>Anthony Gill</t>
   </si>
   <si>
-    <t>Luka Šamanić</t>
-  </si>
-  <si>
     <t>Cody Zeller</t>
   </si>
   <si>
@@ -1088,9 +1052,6 @@
     <t>Kira Lewis Jr.</t>
   </si>
   <si>
-    <t>Dāvis Bertāns</t>
-  </si>
-  <si>
     <t>Harry Giles</t>
   </si>
   <si>
@@ -1130,9 +1091,6 @@
     <t>Tre Mann</t>
   </si>
   <si>
-    <t>Vasilije Micić</t>
-  </si>
-  <si>
     <t>Markieff Morris</t>
   </si>
   <si>
@@ -1142,9 +1100,6 @@
     <t>Kessler Edwards</t>
   </si>
   <si>
-    <t>Nikola Jović</t>
-  </si>
-  <si>
     <t>Jarred Vanderbilt</t>
   </si>
   <si>
@@ -1268,9 +1223,6 @@
     <t>Ish Wainright</t>
   </si>
   <si>
-    <t>Boban Marjanović</t>
-  </si>
-  <si>
     <t>Chris Livingston</t>
   </si>
   <si>
@@ -1355,9 +1307,6 @@
     <t>Monte Morris</t>
   </si>
   <si>
-    <t>Vlatko Čančar</t>
-  </si>
-  <si>
     <t>Damion Lee</t>
   </si>
   <si>
@@ -1592,9 +1541,6 @@
     <t>Xavier Moon</t>
   </si>
   <si>
-    <t>Moussa Diabaté</t>
-  </si>
-  <si>
     <t>Jalen Slawson</t>
   </si>
   <si>
@@ -1628,9 +1574,6 @@
     <t>Saben Lee</t>
   </si>
   <si>
-    <t>Théo Maledon</t>
-  </si>
-  <si>
     <t>Jermaine Samuels</t>
   </si>
   <si>
@@ -1695,6 +1638,63 @@
   </si>
   <si>
     <t>Inches</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Nikola Jovic</t>
+  </si>
+  <si>
+    <t>Nikola Vucevic</t>
+  </si>
+  <si>
+    <t>Bogdan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Dennis Schroder</t>
+  </si>
+  <si>
+    <t>Bojan Bogdanovic</t>
+  </si>
+  <si>
+    <t>Davis Bertans</t>
+  </si>
+  <si>
+    <t>Vasilije Micic</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Vlatko Cancar</t>
+  </si>
+  <si>
+    <t>Moussa Diabate</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
+  </si>
+  <si>
+    <t>Luka Doncic</t>
+  </si>
+  <si>
+    <t>Jusuf Nurkic</t>
+  </si>
+  <si>
+    <t>Theo Maledon</t>
+  </si>
+  <si>
+    <t>Alperen Sengun</t>
+  </si>
+  <si>
+    <t>Boban Marjanovic</t>
+  </si>
+  <si>
+    <t>Dario Saric</t>
+  </si>
+  <si>
+    <t>Luka Samanic</t>
   </si>
 </sst>
 </file>
@@ -2107,7 +2107,7 @@
   <dimension ref="A1:H532"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2120,16 +2120,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2141,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D2">
         <v>80</v>
@@ -2159,10 +2159,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D3">
         <v>76</v>
@@ -2177,10 +2177,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D4">
         <v>78</v>
@@ -2195,10 +2195,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>534</v>
       </c>
       <c r="C5" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="D5">
         <v>86</v>
@@ -2213,10 +2213,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D6">
         <v>76</v>
@@ -2231,10 +2231,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C7" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="D7">
         <v>73</v>
@@ -2249,10 +2249,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C8" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D8">
         <v>79</v>
@@ -2267,10 +2267,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="C9" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D9">
         <v>81</v>
@@ -2285,10 +2285,10 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="C10" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="D10">
         <v>73</v>
@@ -2303,10 +2303,10 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D11">
         <v>80</v>
@@ -2321,10 +2321,10 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="C12" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="D12">
         <v>86</v>
@@ -2339,10 +2339,10 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C13" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D13">
         <v>81</v>
@@ -2357,10 +2357,10 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="C14" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D14">
         <v>81</v>
@@ -2375,10 +2375,10 @@
         <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="C15" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D15">
         <v>79</v>
@@ -2393,10 +2393,10 @@
         <v>77</v>
       </c>
       <c r="B16" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C16" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D16">
         <v>78</v>
@@ -2411,10 +2411,10 @@
         <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="C17" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D17">
         <v>84</v>
@@ -2427,10 +2427,10 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
       <c r="C18" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D18">
         <v>79</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D19">
         <v>74</v>
@@ -2463,10 +2463,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C20" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D20">
         <v>78</v>
@@ -2481,10 +2481,10 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D21">
         <v>76</v>
@@ -2499,10 +2499,10 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="C22" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D22">
         <v>78</v>
@@ -2517,10 +2517,10 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D23">
         <v>82</v>
@@ -2535,10 +2535,10 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="D24">
         <v>85</v>
@@ -2553,10 +2553,10 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="C25" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D25">
         <v>82</v>
@@ -2571,10 +2571,10 @@
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D26">
         <v>75</v>
@@ -2589,10 +2589,10 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="C27" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D27">
         <v>76</v>
@@ -2607,10 +2607,10 @@
         <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D28">
         <v>79</v>
@@ -2625,10 +2625,10 @@
         <v>23</v>
       </c>
       <c r="B29" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="C29" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D29">
         <v>75</v>
@@ -2643,10 +2643,10 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C30" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D30">
         <v>77</v>
@@ -2661,10 +2661,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="C31" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D31">
         <v>74</v>
@@ -2679,10 +2679,10 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D32">
         <v>83</v>
@@ -2697,10 +2697,10 @@
         <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="C33" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="D33">
         <v>85</v>
@@ -2715,10 +2715,10 @@
         <v>43</v>
       </c>
       <c r="B34" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="C34" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D34">
         <v>79</v>
@@ -2733,10 +2733,10 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C35" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D35">
         <v>78</v>
@@ -2751,10 +2751,10 @@
         <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="C36" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D36">
         <v>78</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D37">
         <v>74</v>
@@ -2787,10 +2787,10 @@
         <v>1</v>
       </c>
       <c r="B38" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C38" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D38">
         <v>78</v>
@@ -2805,10 +2805,10 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C39" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D39">
         <v>80</v>
@@ -2823,10 +2823,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C40" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D40">
         <v>84</v>
@@ -2841,10 +2841,10 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D41">
         <v>74</v>
@@ -2859,10 +2859,10 @@
         <v>9</v>
       </c>
       <c r="B42" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C42" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D42">
         <v>79</v>
@@ -2877,10 +2877,10 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="C43" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D43">
         <v>76</v>
@@ -2895,10 +2895,10 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D44">
         <v>80</v>
@@ -2913,10 +2913,10 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="C45" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D45">
         <v>78</v>
@@ -2931,10 +2931,10 @@
         <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D46">
         <v>84</v>
@@ -2949,10 +2949,10 @@
         <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C47" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D47">
         <v>74</v>
@@ -2967,10 +2967,10 @@
         <v>25</v>
       </c>
       <c r="B48" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C48" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D48">
         <v>78</v>
@@ -2985,10 +2985,10 @@
         <v>30</v>
       </c>
       <c r="B49" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="C49" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D49">
         <v>79</v>
@@ -3003,10 +3003,10 @@
         <v>33</v>
       </c>
       <c r="B50" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C50" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D50">
         <v>79</v>
@@ -3021,10 +3021,10 @@
         <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="C51" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D51">
         <v>79</v>
@@ -3039,10 +3039,10 @@
         <v>40</v>
       </c>
       <c r="B52" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C52" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D52">
         <v>80</v>
@@ -3057,10 +3057,10 @@
         <v>44</v>
       </c>
       <c r="B53" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C53" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D53">
         <v>81</v>
@@ -3073,10 +3073,10 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="C54" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D54">
         <v>76</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C55" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D55">
         <v>77</v>
@@ -3109,10 +3109,10 @@
         <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="C56" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D56">
         <v>76</v>
@@ -3127,10 +3127,10 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>368</v>
+        <v>535</v>
       </c>
       <c r="C57" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D57">
         <v>82</v>
@@ -3145,10 +3145,10 @@
         <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="D58">
         <v>72</v>
@@ -3163,10 +3163,10 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="C59" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D59">
         <v>79</v>
@@ -3181,10 +3181,10 @@
         <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C60" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D60">
         <v>75</v>
@@ -3199,10 +3199,10 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C61" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D61">
         <v>78</v>
@@ -3217,10 +3217,10 @@
         <v>13</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D62">
         <v>81</v>
@@ -3235,10 +3235,10 @@
         <v>14</v>
       </c>
       <c r="B63" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D63">
         <v>77</v>
@@ -3253,10 +3253,10 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C64" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D64">
         <v>77</v>
@@ -3271,10 +3271,10 @@
         <v>21</v>
       </c>
       <c r="B65" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="C65" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D65">
         <v>81</v>
@@ -3289,10 +3289,10 @@
         <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D66">
         <v>79</v>
@@ -3307,10 +3307,10 @@
         <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C67" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D67">
         <v>79</v>
@@ -3325,10 +3325,10 @@
         <v>25</v>
       </c>
       <c r="B68" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C68" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D68">
         <v>84</v>
@@ -3343,10 +3343,10 @@
         <v>31</v>
       </c>
       <c r="B69" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C69" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D69">
         <v>82</v>
@@ -3361,10 +3361,10 @@
         <v>42</v>
       </c>
       <c r="B70" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D70">
         <v>80</v>
@@ -3379,10 +3379,10 @@
         <v>55</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C71" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D71">
         <v>79</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C72" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D72">
         <v>79</v>
@@ -3415,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C73" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D73">
         <v>82</v>
@@ -3433,10 +3433,10 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C74" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D74">
         <v>80</v>
@@ -3451,10 +3451,10 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="C75" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D75">
         <v>78</v>
@@ -3469,10 +3469,10 @@
         <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C76" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D76">
         <v>77</v>
@@ -3487,10 +3487,10 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D77">
         <v>82</v>
@@ -3505,10 +3505,10 @@
         <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C78" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D78">
         <v>81</v>
@@ -3523,10 +3523,10 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="C79" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D79">
         <v>78</v>
@@ -3541,10 +3541,10 @@
         <v>13</v>
       </c>
       <c r="B80" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C80" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D80">
         <v>80</v>
@@ -3559,10 +3559,10 @@
         <v>14</v>
       </c>
       <c r="B81" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C81" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D81">
         <v>76</v>
@@ -3577,10 +3577,10 @@
         <v>20</v>
       </c>
       <c r="B82" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C82" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D82">
         <v>76</v>
@@ -3595,10 +3595,10 @@
         <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C83" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D83">
         <v>83</v>
@@ -3613,10 +3613,10 @@
         <v>22</v>
       </c>
       <c r="B84" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D84">
         <v>82</v>
@@ -3631,10 +3631,10 @@
         <v>25</v>
       </c>
       <c r="B85" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="C85" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D85">
         <v>77</v>
@@ -3649,10 +3649,10 @@
         <v>34</v>
       </c>
       <c r="B86" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="C86" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D86">
         <v>82</v>
@@ -3667,10 +3667,10 @@
         <v>35</v>
       </c>
       <c r="B87" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C87" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D87">
         <v>83</v>
@@ -3685,10 +3685,10 @@
         <v>50</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C88" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D88">
         <v>74</v>
@@ -3701,10 +3701,10 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="C89" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D89">
         <v>77</v>
@@ -3719,10 +3719,10 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C90" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D90">
         <v>77</v>
@@ -3737,10 +3737,10 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C91" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D91">
         <v>78</v>
@@ -3755,10 +3755,10 @@
         <v>1</v>
       </c>
       <c r="B92" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C92" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D92">
         <v>81</v>
@@ -3773,10 +3773,10 @@
         <v>2</v>
       </c>
       <c r="B93" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C93" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D93">
         <v>77</v>
@@ -3791,10 +3791,10 @@
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="C94" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D94">
         <v>80</v>
@@ -3809,10 +3809,10 @@
         <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C95" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D95">
         <v>76</v>
@@ -3827,10 +3827,10 @@
         <v>9</v>
       </c>
       <c r="B96" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C96" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="D96">
         <v>73</v>
@@ -3845,10 +3845,10 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="C97" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D97">
         <v>80</v>
@@ -3863,10 +3863,10 @@
         <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C98" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D98">
         <v>76</v>
@@ -3881,10 +3881,10 @@
         <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="C99" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D99">
         <v>80</v>
@@ -3899,10 +3899,10 @@
         <v>16</v>
       </c>
       <c r="B100" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="C100" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D100">
         <v>79</v>
@@ -3917,10 +3917,10 @@
         <v>21</v>
       </c>
       <c r="B101" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="C101" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D101">
         <v>76</v>
@@ -3935,10 +3935,10 @@
         <v>22</v>
       </c>
       <c r="B102" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C102" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D102">
         <v>82</v>
@@ -3953,10 +3953,10 @@
         <v>23</v>
       </c>
       <c r="B103" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C103" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D103">
         <v>77</v>
@@ -3971,10 +3971,10 @@
         <v>25</v>
       </c>
       <c r="B104" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C104" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D104">
         <v>82</v>
@@ -3989,10 +3989,10 @@
         <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="C105" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D105">
         <v>78</v>
@@ -4007,10 +4007,10 @@
         <v>33</v>
       </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C106" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D106">
         <v>83</v>
@@ -4025,10 +4025,10 @@
         <v>44</v>
       </c>
       <c r="B107" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
       <c r="C107" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D107">
         <v>81</v>
@@ -4043,10 +4043,10 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="C108" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D108">
         <v>81</v>
@@ -4061,10 +4061,10 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C109" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D109">
         <v>76</v>
@@ -4079,10 +4079,10 @@
         <v>2</v>
       </c>
       <c r="B110" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="C110" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D110">
         <v>74</v>
@@ -4097,10 +4097,10 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C111" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D111">
         <v>76</v>
@@ -4115,10 +4115,10 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C112" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D112">
         <v>80</v>
@@ -4133,10 +4133,10 @@
         <v>6</v>
       </c>
       <c r="B113" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C113" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D113">
         <v>77</v>
@@ -4151,10 +4151,10 @@
         <v>8</v>
       </c>
       <c r="B114" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C114" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D114">
         <v>79</v>
@@ -4169,10 +4169,10 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D115">
         <v>74</v>
@@ -4187,10 +4187,10 @@
         <v>13</v>
       </c>
       <c r="B116" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C116" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D116">
         <v>78</v>
@@ -4205,10 +4205,10 @@
         <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C117" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D117">
         <v>84</v>
@@ -4223,10 +4223,10 @@
         <v>30</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C118" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D118">
         <v>80</v>
@@ -4241,10 +4241,10 @@
         <v>44</v>
       </c>
       <c r="B119" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="C119" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D119">
         <v>78</v>
@@ -4259,10 +4259,10 @@
         <v>45</v>
       </c>
       <c r="B120" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="C120" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D120">
         <v>82</v>
@@ -4277,10 +4277,10 @@
         <v>51</v>
       </c>
       <c r="B121" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="C121" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D121">
         <v>75</v>
@@ -4295,10 +4295,10 @@
         <v>55</v>
       </c>
       <c r="B122" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C122" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D122">
         <v>84</v>
@@ -4313,10 +4313,10 @@
         <v>67</v>
       </c>
       <c r="B123" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C123" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D123">
         <v>81</v>
@@ -4329,10 +4329,10 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C124" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="D124">
         <v>73</v>
@@ -4347,10 +4347,10 @@
         <v>1</v>
       </c>
       <c r="B125" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C125" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D125">
         <v>77</v>
@@ -4365,10 +4365,10 @@
         <v>2</v>
       </c>
       <c r="B126" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="C126" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D126">
         <v>77</v>
@@ -4383,10 +4383,10 @@
         <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C127" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D127">
         <v>78</v>
@@ -4401,10 +4401,10 @@
         <v>4</v>
       </c>
       <c r="B128" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="C128" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D128">
         <v>83</v>
@@ -4419,10 +4419,10 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="C129" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D129">
         <v>76</v>
@@ -4437,10 +4437,10 @@
         <v>9</v>
       </c>
       <c r="B130" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="C130" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D130">
         <v>74</v>
@@ -4455,10 +4455,10 @@
         <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C131" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="D131">
         <v>73</v>
@@ -4473,10 +4473,10 @@
         <v>12</v>
       </c>
       <c r="B132" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C132" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D132">
         <v>81</v>
@@ -4491,10 +4491,10 @@
         <v>15</v>
       </c>
       <c r="B133" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="C133" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D133">
         <v>80</v>
@@ -4509,10 +4509,10 @@
         <v>20</v>
       </c>
       <c r="B134" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C134" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D134">
         <v>79</v>
@@ -4527,10 +4527,10 @@
         <v>21</v>
       </c>
       <c r="B135" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="C135" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D135">
         <v>82</v>
@@ -4545,10 +4545,10 @@
         <v>30</v>
       </c>
       <c r="B136" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C136" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D136">
         <v>83</v>
@@ -4563,10 +4563,10 @@
         <v>31</v>
       </c>
       <c r="B137" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C137" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D137">
         <v>83</v>
@@ -4581,10 +4581,10 @@
         <v>32</v>
       </c>
       <c r="B138" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C138" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D138">
         <v>81</v>
@@ -4599,10 +4599,10 @@
         <v>35</v>
       </c>
       <c r="B139" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C139" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D139">
         <v>77</v>
@@ -4617,10 +4617,10 @@
         <v>45</v>
       </c>
       <c r="B140" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C140" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D140">
         <v>75</v>
@@ -4633,10 +4633,10 @@
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="C141" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D141">
         <v>74</v>
@@ -4651,10 +4651,10 @@
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C142" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D142">
         <v>79</v>
@@ -4669,10 +4669,10 @@
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C143" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D143">
         <v>76</v>
@@ -4687,10 +4687,10 @@
         <v>1</v>
       </c>
       <c r="B144" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C144" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D144">
         <v>78</v>
@@ -4705,10 +4705,10 @@
         <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C145" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D145">
         <v>80</v>
@@ -4723,10 +4723,10 @@
         <v>4</v>
       </c>
       <c r="B146" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C146" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D146">
         <v>74</v>
@@ -4741,10 +4741,10 @@
         <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C147" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D147">
         <v>76</v>
@@ -4759,10 +4759,10 @@
         <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C148" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D148">
         <v>81</v>
@@ -4777,10 +4777,10 @@
         <v>10</v>
       </c>
       <c r="B149" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="C149" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D149">
         <v>82</v>
@@ -4795,10 +4795,10 @@
         <v>13</v>
       </c>
       <c r="B150" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="C150" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D150">
         <v>75</v>
@@ -4813,10 +4813,10 @@
         <v>14</v>
       </c>
       <c r="B151" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C151" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D151">
         <v>83</v>
@@ -4831,10 +4831,10 @@
         <v>20</v>
       </c>
       <c r="B152" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C152" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D152">
         <v>83</v>
@@ -4849,10 +4849,10 @@
         <v>21</v>
       </c>
       <c r="B153" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="C153" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D153">
         <v>82</v>
@@ -4867,10 +4867,10 @@
         <v>22</v>
       </c>
       <c r="B154" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="C154" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D154">
         <v>80</v>
@@ -4885,10 +4885,10 @@
         <v>24</v>
       </c>
       <c r="B155" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C155" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D155">
         <v>76</v>
@@ -4903,10 +4903,10 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C156" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D156">
         <v>77</v>
@@ -4921,10 +4921,10 @@
         <v>28</v>
       </c>
       <c r="B157" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C157" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D157">
         <v>79</v>
@@ -4939,10 +4939,10 @@
         <v>33</v>
       </c>
       <c r="B158" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C158" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D158">
         <v>83</v>
@@ -4957,10 +4957,10 @@
         <v>45</v>
       </c>
       <c r="B159" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="C159" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D159">
         <v>77</v>
@@ -4975,10 +4975,10 @@
         <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C160" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D160">
         <v>77</v>
@@ -4993,10 +4993,10 @@
         <v>3</v>
       </c>
       <c r="B161" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C161" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D161">
         <v>83</v>
@@ -5011,10 +5011,10 @@
         <v>5</v>
       </c>
       <c r="B162" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C162" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="D162">
         <v>73</v>
@@ -5029,10 +5029,10 @@
         <v>6</v>
       </c>
       <c r="B163" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C163" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D163">
         <v>77</v>
@@ -5047,10 +5047,10 @@
         <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C164" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D164">
         <v>77</v>
@@ -5065,10 +5065,10 @@
         <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>58</v>
+        <v>536</v>
       </c>
       <c r="C165" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D165">
         <v>82</v>
@@ -5083,10 +5083,10 @@
         <v>11</v>
       </c>
       <c r="B166" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C166" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D166">
         <v>78</v>
@@ -5101,10 +5101,10 @@
         <v>12</v>
       </c>
       <c r="B167" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C167" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D167">
         <v>77</v>
@@ -5119,10 +5119,10 @@
         <v>13</v>
       </c>
       <c r="B168" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C168" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D168">
         <v>79</v>
@@ -5137,10 +5137,10 @@
         <v>15</v>
       </c>
       <c r="B169" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C169" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D169">
         <v>80</v>
@@ -5155,10 +5155,10 @@
         <v>17</v>
       </c>
       <c r="B170" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="C170" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D170">
         <v>78</v>
@@ -5173,10 +5173,10 @@
         <v>21</v>
       </c>
       <c r="B171" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="C171" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D171">
         <v>81</v>
@@ -5191,10 +5191,10 @@
         <v>25</v>
       </c>
       <c r="B172" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C172" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D172">
         <v>79</v>
@@ -5209,10 +5209,10 @@
         <v>32</v>
       </c>
       <c r="B173" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C173" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D173">
         <v>77</v>
@@ -5227,10 +5227,10 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C174" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D174">
         <v>79</v>
@@ -5243,10 +5243,10 @@
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="C175" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D175">
         <v>78</v>
@@ -5259,10 +5259,10 @@
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="C176" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D176">
         <v>81</v>
@@ -5277,10 +5277,10 @@
         <v>1</v>
       </c>
       <c r="B177" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C177" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D177">
         <v>81</v>
@@ -5295,10 +5295,10 @@
         <v>2</v>
       </c>
       <c r="B178" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="C178" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D178">
         <v>76</v>
@@ -5313,10 +5313,10 @@
         <v>3</v>
       </c>
       <c r="B179" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="C179" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D179">
         <v>78</v>
@@ -5331,10 +5331,10 @@
         <v>4</v>
       </c>
       <c r="B180" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="C180" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D180">
         <v>76</v>
@@ -5349,10 +5349,10 @@
         <v>5</v>
       </c>
       <c r="B181" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C181" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D181">
         <v>77</v>
@@ -5367,10 +5367,10 @@
         <v>8</v>
       </c>
       <c r="B182" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C182" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D182">
         <v>74</v>
@@ -5385,10 +5385,10 @@
         <v>11</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="D183">
         <v>73</v>
@@ -5403,10 +5403,10 @@
         <v>12</v>
       </c>
       <c r="B184" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C184" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D184">
         <v>80</v>
@@ -5421,10 +5421,10 @@
         <v>13</v>
       </c>
       <c r="B185" t="s">
-        <v>55</v>
+        <v>537</v>
       </c>
       <c r="C185" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D185">
         <v>77</v>
@@ -5439,10 +5439,10 @@
         <v>14</v>
       </c>
       <c r="B186" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C186" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D186">
         <v>78</v>
@@ -5457,10 +5457,10 @@
         <v>15</v>
       </c>
       <c r="B187" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C187" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D187">
         <v>82</v>
@@ -5475,10 +5475,10 @@
         <v>17</v>
       </c>
       <c r="B188" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C188" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D188">
         <v>80</v>
@@ -5493,10 +5493,10 @@
         <v>18</v>
       </c>
       <c r="B189" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="C189" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D189">
         <v>83</v>
@@ -5511,10 +5511,10 @@
         <v>24</v>
       </c>
       <c r="B190" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="C190" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D190">
         <v>81</v>
@@ -5529,10 +5529,10 @@
         <v>25</v>
       </c>
       <c r="B191" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="C191" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D191">
         <v>77</v>
@@ -5547,10 +5547,10 @@
         <v>32</v>
       </c>
       <c r="B192" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="C192" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D192">
         <v>77</v>
@@ -5565,10 +5565,10 @@
         <v>41</v>
       </c>
       <c r="B193" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C193" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D193">
         <v>79</v>
@@ -5581,10 +5581,10 @@
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="C194" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D194">
         <v>80</v>
@@ -5599,10 +5599,10 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="C195" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D195">
         <v>78</v>
@@ -5617,10 +5617,10 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C196" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D196">
         <v>81</v>
@@ -5635,10 +5635,10 @@
         <v>4</v>
       </c>
       <c r="B197" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C197" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D197">
         <v>79</v>
@@ -5653,10 +5653,10 @@
         <v>5</v>
       </c>
       <c r="B198" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C198" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D198">
         <v>75</v>
@@ -5671,10 +5671,10 @@
         <v>9</v>
       </c>
       <c r="B199" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C199" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D199">
         <v>78</v>
@@ -5689,10 +5689,10 @@
         <v>14</v>
       </c>
       <c r="B200" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C200" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D200">
         <v>77</v>
@@ -5707,10 +5707,10 @@
         <v>17</v>
       </c>
       <c r="B201" t="s">
-        <v>68</v>
+        <v>538</v>
       </c>
       <c r="C201" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="D201">
         <v>73</v>
@@ -5725,10 +5725,10 @@
         <v>19</v>
       </c>
       <c r="B202" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C202" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D202">
         <v>84</v>
@@ -5743,10 +5743,10 @@
         <v>21</v>
       </c>
       <c r="B203" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="C203" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D203">
         <v>80</v>
@@ -5761,10 +5761,10 @@
         <v>24</v>
       </c>
       <c r="B204" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="C204" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="D204">
         <v>68</v>
@@ -5779,10 +5779,10 @@
         <v>25</v>
       </c>
       <c r="B205" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C205" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D205">
         <v>81</v>
@@ -5797,10 +5797,10 @@
         <v>32</v>
       </c>
       <c r="B206" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="C206" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D206">
         <v>80</v>
@@ -5815,10 +5815,10 @@
         <v>33</v>
       </c>
       <c r="B207" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C207" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D207">
         <v>77</v>
@@ -5833,10 +5833,10 @@
         <v>43</v>
       </c>
       <c r="B208" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C208" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D208">
         <v>80</v>
@@ -5849,10 +5849,10 @@
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="C209" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D209">
         <v>83</v>
@@ -5865,10 +5865,10 @@
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
       <c r="C210" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="D210">
         <v>85</v>
@@ -5881,10 +5881,10 @@
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="C211" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D211">
         <v>76</v>
@@ -5899,10 +5899,10 @@
         <v>0</v>
       </c>
       <c r="B212" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C212" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D212">
         <v>79</v>
@@ -5917,10 +5917,10 @@
         <v>1</v>
       </c>
       <c r="B213" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C213" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D213">
         <v>79</v>
@@ -5935,10 +5935,10 @@
         <v>2</v>
       </c>
       <c r="B214" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C214" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D214">
         <v>77</v>
@@ -5953,10 +5953,10 @@
         <v>3</v>
       </c>
       <c r="B215" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C215" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="D215">
         <v>73</v>
@@ -5971,10 +5971,10 @@
         <v>4</v>
       </c>
       <c r="B216" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C216" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D216">
         <v>84</v>
@@ -5989,10 +5989,10 @@
         <v>5</v>
       </c>
       <c r="B217" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C217" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D217">
         <v>84</v>
@@ -6007,10 +6007,10 @@
         <v>7</v>
       </c>
       <c r="B218" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C218" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D218">
         <v>79</v>
@@ -6025,10 +6025,10 @@
         <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C219" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D219">
         <v>77</v>
@@ -6043,10 +6043,10 @@
         <v>10</v>
       </c>
       <c r="B220" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="C220" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D220">
         <v>77</v>
@@ -6061,10 +6061,10 @@
         <v>11</v>
       </c>
       <c r="B221" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="C221" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D221">
         <v>77</v>
@@ -6079,10 +6079,10 @@
         <v>12</v>
       </c>
       <c r="B222" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="C222" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D222">
         <v>81</v>
@@ -6097,10 +6097,10 @@
         <v>14</v>
       </c>
       <c r="B223" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="C223" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="D223">
         <v>72</v>
@@ -6115,10 +6115,10 @@
         <v>20</v>
       </c>
       <c r="B224" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C224" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D224">
         <v>79</v>
@@ -6133,10 +6133,10 @@
         <v>21</v>
       </c>
       <c r="B225" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C225" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D225">
         <v>82</v>
@@ -6151,10 +6151,10 @@
         <v>24</v>
       </c>
       <c r="B226" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C226" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D226">
         <v>81</v>
@@ -6169,10 +6169,10 @@
         <v>25</v>
       </c>
       <c r="B227" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C227" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D227">
         <v>79</v>
@@ -6187,10 +6187,10 @@
         <v>31</v>
       </c>
       <c r="B228" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="C228" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D228">
         <v>80</v>
@@ -6203,10 +6203,10 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="C229" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D229">
         <v>76</v>
@@ -6221,10 +6221,10 @@
         <v>0</v>
       </c>
       <c r="B230" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C230" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D230">
         <v>78</v>
@@ -6239,10 +6239,10 @@
         <v>1</v>
       </c>
       <c r="B231" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C231" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D231">
         <v>77</v>
@@ -6257,10 +6257,10 @@
         <v>4</v>
       </c>
       <c r="B232" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="C232" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D232">
         <v>75</v>
@@ -6275,10 +6275,10 @@
         <v>5</v>
       </c>
       <c r="B233" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C233" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="D233">
         <v>73</v>
@@ -6293,10 +6293,10 @@
         <v>7</v>
       </c>
       <c r="B234" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="C234" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D234">
         <v>81</v>
@@ -6311,10 +6311,10 @@
         <v>8</v>
       </c>
       <c r="B235" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C235" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D235">
         <v>81</v>
@@ -6329,10 +6329,10 @@
         <v>9</v>
       </c>
       <c r="B236" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C236" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D236">
         <v>76</v>
@@ -6347,10 +6347,10 @@
         <v>13</v>
       </c>
       <c r="B237" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C237" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D237">
         <v>76</v>
@@ -6365,10 +6365,10 @@
         <v>14</v>
       </c>
       <c r="B238" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="C238" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D238">
         <v>79</v>
@@ -6383,10 +6383,10 @@
         <v>16</v>
       </c>
       <c r="B239" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C239" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D239">
         <v>79</v>
@@ -6401,10 +6401,10 @@
         <v>20</v>
       </c>
       <c r="B240" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C240" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D240">
         <v>76</v>
@@ -6419,10 +6419,10 @@
         <v>21</v>
       </c>
       <c r="B241" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C241" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D241">
         <v>82</v>
@@ -6437,10 +6437,10 @@
         <v>24</v>
       </c>
       <c r="B242" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C242" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D242">
         <v>79</v>
@@ -6455,10 +6455,10 @@
         <v>33</v>
       </c>
       <c r="B243" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C243" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D243">
         <v>81</v>
@@ -6473,10 +6473,10 @@
         <v>35</v>
       </c>
       <c r="B244" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="C244" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D244">
         <v>82</v>
@@ -6491,10 +6491,10 @@
         <v>55</v>
       </c>
       <c r="B245" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C245" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D245">
         <v>77</v>
@@ -6509,10 +6509,10 @@
         <v>88</v>
       </c>
       <c r="B246" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C246" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D246">
         <v>82</v>
@@ -6527,10 +6527,10 @@
         <v>97</v>
       </c>
       <c r="B247" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
       <c r="C247" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D247">
         <v>79</v>
@@ -6545,10 +6545,10 @@
         <v>0</v>
       </c>
       <c r="B248" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C248" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D248">
         <v>82</v>
@@ -6563,10 +6563,10 @@
         <v>2</v>
       </c>
       <c r="B249" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C249" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D249">
         <v>78</v>
@@ -6581,10 +6581,10 @@
         <v>7</v>
       </c>
       <c r="B250" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C250" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D250">
         <v>77</v>
@@ -6599,10 +6599,10 @@
         <v>8</v>
       </c>
       <c r="B251" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="C251" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D251">
         <v>78</v>
@@ -6617,10 +6617,10 @@
         <v>9</v>
       </c>
       <c r="B252" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C252" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D252">
         <v>79</v>
@@ -6635,10 +6635,10 @@
         <v>12</v>
       </c>
       <c r="B253" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C253" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D253">
         <v>79</v>
@@ -6653,10 +6653,10 @@
         <v>13</v>
       </c>
       <c r="B254" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C254" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D254">
         <v>84</v>
@@ -6671,10 +6671,10 @@
         <v>14</v>
       </c>
       <c r="B255" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C255" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D255">
         <v>78</v>
@@ -6689,10 +6689,10 @@
         <v>17</v>
       </c>
       <c r="B256" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C256" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D256">
         <v>78</v>
@@ -6707,10 +6707,10 @@
         <v>20</v>
       </c>
       <c r="B257" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="C257" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D257">
         <v>78</v>
@@ -6725,10 +6725,10 @@
         <v>23</v>
       </c>
       <c r="B258" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C258" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D258">
         <v>76</v>
@@ -6743,10 +6743,10 @@
         <v>24</v>
       </c>
       <c r="B259" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="C259" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D259">
         <v>79</v>
@@ -6761,10 +6761,10 @@
         <v>25</v>
       </c>
       <c r="B260" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C260" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D260">
         <v>74</v>
@@ -6779,10 +6779,10 @@
         <v>28</v>
       </c>
       <c r="B261" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C261" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D261">
         <v>80</v>
@@ -6797,10 +6797,10 @@
         <v>31</v>
       </c>
       <c r="B262" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C262" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D262">
         <v>78</v>
@@ -6815,10 +6815,10 @@
         <v>35</v>
       </c>
       <c r="B263" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C263" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D263">
         <v>82</v>
@@ -6833,10 +6833,10 @@
         <v>44</v>
       </c>
       <c r="B264" t="s">
-        <v>173</v>
+        <v>539</v>
       </c>
       <c r="C264" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D264">
         <v>79</v>
@@ -6849,10 +6849,10 @@
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="C265" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D265">
         <v>74</v>
@@ -6867,10 +6867,10 @@
         <v>1</v>
       </c>
       <c r="B266" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C266" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D266">
         <v>81</v>
@@ -6885,10 +6885,10 @@
         <v>3</v>
       </c>
       <c r="B267" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C267" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D267">
         <v>81</v>
@@ -6903,10 +6903,10 @@
         <v>5</v>
       </c>
       <c r="B268" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C268" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D268">
         <v>76</v>
@@ -6921,10 +6921,10 @@
         <v>6</v>
       </c>
       <c r="B269" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="C269" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="D269">
         <v>72</v>
@@ -6939,10 +6939,10 @@
         <v>7</v>
       </c>
       <c r="B270" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="C270" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D270">
         <v>77</v>
@@ -6957,10 +6957,10 @@
         <v>8</v>
       </c>
       <c r="B271" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="C271" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D271">
         <v>80</v>
@@ -6975,10 +6975,10 @@
         <v>9</v>
       </c>
       <c r="B272" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C272" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D272">
         <v>77</v>
@@ -6993,10 +6993,10 @@
         <v>10</v>
       </c>
       <c r="B273" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C273" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="D273">
         <v>72</v>
@@ -7011,10 +7011,10 @@
         <v>11</v>
       </c>
       <c r="B274" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C274" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D274">
         <v>81</v>
@@ -7029,10 +7029,10 @@
         <v>12</v>
       </c>
       <c r="B275" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="C275" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D275">
         <v>77</v>
@@ -7047,10 +7047,10 @@
         <v>18</v>
       </c>
       <c r="B276" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C276" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D276">
         <v>77</v>
@@ -7065,10 +7065,10 @@
         <v>23</v>
       </c>
       <c r="B277" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="C277" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D277">
         <v>78</v>
@@ -7083,10 +7083,10 @@
         <v>27</v>
       </c>
       <c r="B278" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C278" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="D278">
         <v>85</v>
@@ -7101,10 +7101,10 @@
         <v>32</v>
       </c>
       <c r="B279" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C279" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D279">
         <v>84</v>
@@ -7119,10 +7119,10 @@
         <v>33</v>
       </c>
       <c r="B280" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="C280" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D280">
         <v>82</v>
@@ -7137,10 +7137,10 @@
         <v>55</v>
       </c>
       <c r="B281" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="C281" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D281">
         <v>82</v>
@@ -7153,10 +7153,10 @@
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="C282" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D282">
         <v>77</v>
@@ -7171,10 +7171,10 @@
         <v>2</v>
       </c>
       <c r="B283" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C283" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D283">
         <v>78</v>
@@ -7189,10 +7189,10 @@
         <v>3</v>
       </c>
       <c r="B284" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C284" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D284">
         <v>80</v>
@@ -7207,10 +7207,10 @@
         <v>5</v>
       </c>
       <c r="B285" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C285" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D285">
         <v>75</v>
@@ -7225,10 +7225,10 @@
         <v>6</v>
       </c>
       <c r="B286" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="C286" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D286">
         <v>81</v>
@@ -7243,10 +7243,10 @@
         <v>7</v>
       </c>
       <c r="B287" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C287" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="D287">
         <v>85</v>
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="B288" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C288" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D288">
         <v>77</v>
@@ -7279,10 +7279,10 @@
         <v>9</v>
       </c>
       <c r="B289" t="s">
-        <v>350</v>
+        <v>540</v>
       </c>
       <c r="C289" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D289">
         <v>82</v>
@@ -7297,10 +7297,10 @@
         <v>11</v>
       </c>
       <c r="B290" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C290" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D290">
         <v>76</v>
@@ -7315,10 +7315,10 @@
         <v>12</v>
       </c>
       <c r="B291" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="C291" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D291">
         <v>78</v>
@@ -7333,10 +7333,10 @@
         <v>13</v>
       </c>
       <c r="B292" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C292" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D292">
         <v>82</v>
@@ -7351,10 +7351,10 @@
         <v>17</v>
       </c>
       <c r="B293" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="C293" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D293">
         <v>84</v>
@@ -7369,10 +7369,10 @@
         <v>18</v>
       </c>
       <c r="B294" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="C294" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D294">
         <v>77</v>
@@ -7387,10 +7387,10 @@
         <v>21</v>
       </c>
       <c r="B295" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C295" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D295">
         <v>78</v>
@@ -7405,10 +7405,10 @@
         <v>22</v>
       </c>
       <c r="B296" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C296" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D296">
         <v>76</v>
@@ -7423,10 +7423,10 @@
         <v>23</v>
       </c>
       <c r="B297" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C297" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D297">
         <v>75</v>
@@ -7441,10 +7441,10 @@
         <v>29</v>
       </c>
       <c r="B298" t="s">
-        <v>364</v>
+        <v>541</v>
       </c>
       <c r="C298" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D298">
         <v>77</v>
@@ -7459,10 +7459,10 @@
         <v>30</v>
       </c>
       <c r="B299" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="C299" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D299">
         <v>84</v>
@@ -7477,10 +7477,10 @@
         <v>34</v>
       </c>
       <c r="B300" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C300" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D300">
         <v>78</v>
@@ -7495,10 +7495,10 @@
         <v>0</v>
       </c>
       <c r="B301" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C301" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D301">
         <v>78</v>
@@ -7513,10 +7513,10 @@
         <v>1</v>
       </c>
       <c r="B302" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C302" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D302">
         <v>82</v>
@@ -7531,10 +7531,10 @@
         <v>3</v>
       </c>
       <c r="B303" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C303" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D303">
         <v>79</v>
@@ -7549,10 +7549,10 @@
         <v>4</v>
       </c>
       <c r="B304" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="C304" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D304">
         <v>80</v>
@@ -7567,10 +7567,10 @@
         <v>5</v>
       </c>
       <c r="B305" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C305" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D305">
         <v>77</v>
@@ -7585,10 +7585,10 @@
         <v>6</v>
       </c>
       <c r="B306" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C306" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D306">
         <v>83</v>
@@ -7603,10 +7603,10 @@
         <v>7</v>
       </c>
       <c r="B307" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C307" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D307">
         <v>74</v>
@@ -7621,10 +7621,10 @@
         <v>8</v>
       </c>
       <c r="B308" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C308" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D308">
         <v>80</v>
@@ -7639,10 +7639,10 @@
         <v>9</v>
       </c>
       <c r="B309" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C309" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D309">
         <v>78</v>
@@ -7657,10 +7657,10 @@
         <v>11</v>
       </c>
       <c r="B310" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="C310" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D310">
         <v>80</v>
@@ -7675,10 +7675,10 @@
         <v>15</v>
       </c>
       <c r="B311" t="s">
-        <v>5</v>
+        <v>542</v>
       </c>
       <c r="C311" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D311">
         <v>83</v>
@@ -7693,10 +7693,10 @@
         <v>21</v>
       </c>
       <c r="B312" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="C312" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="D312">
         <v>73</v>
@@ -7711,10 +7711,10 @@
         <v>22</v>
       </c>
       <c r="B313" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="C313" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D313">
         <v>81</v>
@@ -7729,10 +7729,10 @@
         <v>24</v>
       </c>
       <c r="B314" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C314" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D314">
         <v>76</v>
@@ -7747,10 +7747,10 @@
         <v>27</v>
       </c>
       <c r="B315" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C315" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D315">
         <v>76</v>
@@ -7765,10 +7765,10 @@
         <v>30</v>
       </c>
       <c r="B316" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="C316" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="D316">
         <v>85</v>
@@ -7783,10 +7783,10 @@
         <v>50</v>
       </c>
       <c r="B317" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C317" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D317">
         <v>80</v>
@@ -7799,10 +7799,10 @@
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
       <c r="B318" t="s">
-        <v>439</v>
+        <v>543</v>
       </c>
       <c r="C318" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D318">
         <v>80</v>
@@ -7817,10 +7817,10 @@
         <v>0</v>
       </c>
       <c r="B319" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C319" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D319">
         <v>76</v>
@@ -7835,10 +7835,10 @@
         <v>1</v>
       </c>
       <c r="B320" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C320" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D320">
         <v>77</v>
@@ -7853,10 +7853,10 @@
         <v>2</v>
       </c>
       <c r="B321" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C321" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D321">
         <v>79</v>
@@ -7871,10 +7871,10 @@
         <v>4</v>
       </c>
       <c r="B322" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C322" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D322">
         <v>79</v>
@@ -7889,10 +7889,10 @@
         <v>5</v>
       </c>
       <c r="B323" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C323" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D323">
         <v>74</v>
@@ -7907,10 +7907,10 @@
         <v>7</v>
       </c>
       <c r="B324" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C324" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D324">
         <v>79</v>
@@ -7925,10 +7925,10 @@
         <v>10</v>
       </c>
       <c r="B325" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C325" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D325">
         <v>80</v>
@@ -7943,10 +7943,10 @@
         <v>11</v>
       </c>
       <c r="B326" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="C326" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D326">
         <v>79</v>
@@ -7961,10 +7961,10 @@
         <v>12</v>
       </c>
       <c r="B327" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="C327" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D327">
         <v>78</v>
@@ -7979,10 +7979,10 @@
         <v>13</v>
       </c>
       <c r="B328" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C328" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D328">
         <v>80</v>
@@ -7997,10 +7997,10 @@
         <v>14</v>
       </c>
       <c r="B329" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C329" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D329">
         <v>77</v>
@@ -8015,10 +8015,10 @@
         <v>17</v>
       </c>
       <c r="B330" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C330" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D330">
         <v>77</v>
@@ -8033,10 +8033,10 @@
         <v>21</v>
       </c>
       <c r="B331" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C331" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D331">
         <v>79</v>
@@ -8051,10 +8051,10 @@
         <v>22</v>
       </c>
       <c r="B332" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
       <c r="C332" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D332">
         <v>74</v>
@@ -8069,10 +8069,10 @@
         <v>24</v>
       </c>
       <c r="B333" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C333" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D333">
         <v>75</v>
@@ -8087,10 +8087,10 @@
         <v>25</v>
       </c>
       <c r="B334" t="s">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="C334" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D334">
         <v>83</v>
@@ -8105,10 +8105,10 @@
         <v>40</v>
       </c>
       <c r="B335" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C335" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D335">
         <v>84</v>
@@ -8123,10 +8123,10 @@
         <v>44</v>
       </c>
       <c r="B336" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C336" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D336">
         <v>82</v>
@@ -8141,10 +8141,10 @@
         <v>0</v>
       </c>
       <c r="B337" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C337" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D337">
         <v>84</v>
@@ -8159,10 +8159,10 @@
         <v>0</v>
       </c>
       <c r="B338" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C338" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D338">
         <v>75</v>
@@ -8177,10 +8177,10 @@
         <v>3</v>
       </c>
       <c r="B339" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="C339" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D339">
         <v>78</v>
@@ -8195,10 +8195,10 @@
         <v>5</v>
       </c>
       <c r="B340" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C340" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D340">
         <v>75</v>
@@ -8213,10 +8213,10 @@
         <v>7</v>
       </c>
       <c r="B341" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C341" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D341">
         <v>81</v>
@@ -8231,10 +8231,10 @@
         <v>9</v>
       </c>
       <c r="B342" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C342" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D342">
         <v>79</v>
@@ -8249,10 +8249,10 @@
         <v>10</v>
       </c>
       <c r="B343" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C343" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D343">
         <v>82</v>
@@ -8267,10 +8267,10 @@
         <v>13</v>
       </c>
       <c r="B344" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C344" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D344">
         <v>80</v>
@@ -8285,10 +8285,10 @@
         <v>15</v>
       </c>
       <c r="B345" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="C345" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D345">
         <v>74</v>
@@ -8303,10 +8303,10 @@
         <v>17</v>
       </c>
       <c r="B346" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="C346" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D346">
         <v>80</v>
@@ -8321,10 +8321,10 @@
         <v>18</v>
       </c>
       <c r="B347" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="C347" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D347">
         <v>79</v>
@@ -8339,10 +8339,10 @@
         <v>20</v>
       </c>
       <c r="B348" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C348" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D348">
         <v>78</v>
@@ -8357,10 +8357,10 @@
         <v>23</v>
       </c>
       <c r="B349" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="C349" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D349">
         <v>78</v>
@@ -8375,10 +8375,10 @@
         <v>25</v>
       </c>
       <c r="B350" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C350" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D350">
         <v>84</v>
@@ -8393,10 +8393,10 @@
         <v>31</v>
       </c>
       <c r="B351" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="C351" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="D351">
         <v>73</v>
@@ -8411,10 +8411,10 @@
         <v>40</v>
       </c>
       <c r="B352" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C352" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D352">
         <v>80</v>
@@ -8429,10 +8429,10 @@
         <v>41</v>
       </c>
       <c r="B353" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="C353" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D353">
         <v>81</v>
@@ -8447,10 +8447,10 @@
         <v>95</v>
       </c>
       <c r="B354" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="C354" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D354">
         <v>78</v>
@@ -8465,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="B355" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="C355" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D355">
         <v>79</v>
@@ -8483,10 +8483,10 @@
         <v>1</v>
       </c>
       <c r="B356" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C356" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D356">
         <v>78</v>
@@ -8501,10 +8501,10 @@
         <v>3</v>
       </c>
       <c r="B357" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C357" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D357">
         <v>75</v>
@@ -8519,10 +8519,10 @@
         <v>5</v>
       </c>
       <c r="B358" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C358" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D358">
         <v>80</v>
@@ -8537,10 +8537,10 @@
         <v>8</v>
       </c>
       <c r="B359" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C359" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D359">
         <v>79</v>
@@ -8555,10 +8555,10 @@
         <v>11</v>
       </c>
       <c r="B360" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C360" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D360">
         <v>80</v>
@@ -8573,10 +8573,10 @@
         <v>13</v>
       </c>
       <c r="B361" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C361" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="D361">
         <v>73</v>
@@ -8591,10 +8591,10 @@
         <v>14</v>
       </c>
       <c r="B362" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C362" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D362">
         <v>80</v>
@@ -8609,10 +8609,10 @@
         <v>15</v>
       </c>
       <c r="B363" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C363" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="D363">
         <v>72</v>
@@ -8627,10 +8627,10 @@
         <v>17</v>
       </c>
       <c r="B364" t="s">
-        <v>67</v>
+        <v>545</v>
       </c>
       <c r="C364" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D364">
         <v>83</v>
@@ -8645,10 +8645,10 @@
         <v>22</v>
       </c>
       <c r="B365" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="C365" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D365">
         <v>80</v>
@@ -8663,10 +8663,10 @@
         <v>24</v>
       </c>
       <c r="B366" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C366" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D366">
         <v>77</v>
@@ -8681,10 +8681,10 @@
         <v>25</v>
       </c>
       <c r="B367" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C367" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D367">
         <v>80</v>
@@ -8699,10 +8699,10 @@
         <v>32</v>
       </c>
       <c r="B368" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="C368" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D368">
         <v>79</v>
@@ -8717,10 +8717,10 @@
         <v>37</v>
       </c>
       <c r="B369" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="C369" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D369">
         <v>78</v>
@@ -8735,10 +8735,10 @@
         <v>40</v>
       </c>
       <c r="B370" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="C370" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D370">
         <v>83</v>
@@ -8753,10 +8753,10 @@
         <v>50</v>
       </c>
       <c r="B371" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="C371" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D371">
         <v>81</v>
@@ -8771,10 +8771,10 @@
         <v>0</v>
       </c>
       <c r="B372" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="C372" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D372">
         <v>74</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="B373" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C373" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D373">
         <v>77</v>
@@ -8807,10 +8807,10 @@
         <v>1</v>
       </c>
       <c r="B374" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C374" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D374">
         <v>76</v>
@@ -8825,10 +8825,10 @@
         <v>2</v>
       </c>
       <c r="B375" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C375" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="D375">
         <v>85</v>
@@ -8843,10 +8843,10 @@
         <v>3</v>
       </c>
       <c r="B376" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C376" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D376">
         <v>78</v>
@@ -8861,10 +8861,10 @@
         <v>7</v>
       </c>
       <c r="B377" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C377" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D377">
         <v>82</v>
@@ -8879,10 +8879,10 @@
         <v>8</v>
       </c>
       <c r="B378" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C378" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D378">
         <v>77</v>
@@ -8897,10 +8897,10 @@
         <v>9</v>
       </c>
       <c r="B379" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="C379" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D379">
         <v>78</v>
@@ -8915,10 +8915,10 @@
         <v>10</v>
       </c>
       <c r="B380" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C380" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D380">
         <v>77</v>
@@ -8933,10 +8933,10 @@
         <v>11</v>
       </c>
       <c r="B381" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C381" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D381">
         <v>74</v>
@@ -8951,10 +8951,10 @@
         <v>13</v>
       </c>
       <c r="B382" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="C382" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D382">
         <v>79</v>
@@ -8969,10 +8969,10 @@
         <v>18</v>
       </c>
       <c r="B383" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C383" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D383">
         <v>80</v>
@@ -8987,10 +8987,10 @@
         <v>20</v>
       </c>
       <c r="B384" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C384" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D384">
         <v>82</v>
@@ -9005,10 +9005,10 @@
         <v>30</v>
       </c>
       <c r="B385" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C385" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="D385">
         <v>73</v>
@@ -9023,10 +9023,10 @@
         <v>42</v>
       </c>
       <c r="B386" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="C386" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D386">
         <v>82</v>
@@ -9041,10 +9041,10 @@
         <v>55</v>
       </c>
       <c r="B387" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C387" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D387">
         <v>77</v>
@@ -9059,10 +9059,10 @@
         <v>77</v>
       </c>
       <c r="B388" t="s">
-        <v>1</v>
+        <v>546</v>
       </c>
       <c r="C388" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D388">
         <v>79</v>
@@ -9077,10 +9077,10 @@
         <v>88</v>
       </c>
       <c r="B389" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C389" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D389">
         <v>81</v>
@@ -9095,10 +9095,10 @@
         <v>0</v>
       </c>
       <c r="B390" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C390" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D390">
         <v>75</v>
@@ -9113,10 +9113,10 @@
         <v>1</v>
       </c>
       <c r="B391" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C391" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D391">
         <v>78</v>
@@ -9131,10 +9131,10 @@
         <v>2</v>
       </c>
       <c r="B392" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C392" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D392">
         <v>76</v>
@@ -9149,10 +9149,10 @@
         <v>3</v>
       </c>
       <c r="B393" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="C393" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D393">
         <v>76</v>
@@ -9167,10 +9167,10 @@
         <v>4</v>
       </c>
       <c r="B394" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C394" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D394">
         <v>81</v>
@@ -9185,10 +9185,10 @@
         <v>8</v>
       </c>
       <c r="B395" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C395" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D395">
         <v>76</v>
@@ -9203,10 +9203,10 @@
         <v>11</v>
       </c>
       <c r="B396" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="C396" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="D396">
         <v>87</v>
@@ -9221,10 +9221,10 @@
         <v>14</v>
       </c>
       <c r="B397" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C397" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D397">
         <v>81</v>
@@ -9239,10 +9239,10 @@
         <v>18</v>
       </c>
       <c r="B398" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="C398" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D398">
         <v>81</v>
@@ -9257,10 +9257,10 @@
         <v>20</v>
       </c>
       <c r="B399" t="s">
-        <v>106</v>
+        <v>547</v>
       </c>
       <c r="C399" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D399">
         <v>84</v>
@@ -9275,10 +9275,10 @@
         <v>21</v>
       </c>
       <c r="B400" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C400" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D400">
         <v>80</v>
@@ -9293,10 +9293,10 @@
         <v>23</v>
       </c>
       <c r="B401" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C401" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D401">
         <v>75</v>
@@ -9311,10 +9311,10 @@
         <v>25</v>
       </c>
       <c r="B402" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="C402" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D402">
         <v>77</v>
@@ -9329,10 +9329,10 @@
         <v>27</v>
       </c>
       <c r="B403" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="C403" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D403">
         <v>82</v>
@@ -9347,10 +9347,10 @@
         <v>35</v>
       </c>
       <c r="B404" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C404" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D404">
         <v>83</v>
@@ -9365,10 +9365,10 @@
         <v>38</v>
       </c>
       <c r="B405" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="C405" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D405">
         <v>74</v>
@@ -9381,10 +9381,10 @@
     <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="2"/>
       <c r="B406" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="C406" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D406">
         <v>76</v>
@@ -9397,10 +9397,10 @@
     <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="2"/>
       <c r="B407" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="C407" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D407">
         <v>77</v>
@@ -9415,10 +9415,10 @@
         <v>0</v>
       </c>
       <c r="B408" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="C408" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D408">
         <v>79</v>
@@ -9433,10 +9433,10 @@
         <v>0</v>
       </c>
       <c r="B409" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C409" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="D409">
         <v>72</v>
@@ -9451,10 +9451,10 @@
         <v>1</v>
       </c>
       <c r="B410" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C410" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D410">
         <v>79</v>
@@ -9469,10 +9469,10 @@
         <v>2</v>
       </c>
       <c r="B411" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="C411" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D411">
         <v>83</v>
@@ -9487,10 +9487,10 @@
         <v>4</v>
       </c>
       <c r="B412" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C412" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D412">
         <v>76</v>
@@ -9505,10 +9505,10 @@
         <v>5</v>
       </c>
       <c r="B413" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C413" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="D413">
         <v>72</v>
@@ -9523,10 +9523,10 @@
         <v>7</v>
       </c>
       <c r="B414" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="C414" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D414">
         <v>79</v>
@@ -9541,10 +9541,10 @@
         <v>8</v>
       </c>
       <c r="B415" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C415" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D415">
         <v>76</v>
@@ -9559,10 +9559,10 @@
         <v>9</v>
       </c>
       <c r="B416" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C416" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D416">
         <v>78</v>
@@ -9577,10 +9577,10 @@
         <v>10</v>
       </c>
       <c r="B417" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C417" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D417">
         <v>83</v>
@@ -9595,10 +9595,10 @@
         <v>14</v>
       </c>
       <c r="B418" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="C418" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D418">
         <v>77</v>
@@ -9613,10 +9613,10 @@
         <v>17</v>
       </c>
       <c r="B419" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C419" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D419">
         <v>80</v>
@@ -9631,10 +9631,10 @@
         <v>19</v>
       </c>
       <c r="B420" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="C420" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D420">
         <v>77</v>
@@ -9649,10 +9649,10 @@
         <v>25</v>
       </c>
       <c r="B421" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C421" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D421">
         <v>78</v>
@@ -9667,10 +9667,10 @@
         <v>28</v>
       </c>
       <c r="B422" t="s">
-        <v>35</v>
+        <v>549</v>
       </c>
       <c r="C422" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D422">
         <v>83</v>
@@ -9685,10 +9685,10 @@
         <v>32</v>
       </c>
       <c r="B423" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C423" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D423">
         <v>80</v>
@@ -9703,10 +9703,10 @@
         <v>51</v>
       </c>
       <c r="B424" t="s">
-        <v>410</v>
+        <v>550</v>
       </c>
       <c r="C424" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="D424">
         <v>88</v>
@@ -9719,10 +9719,10 @@
     <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
       <c r="B425" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="C425" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D425">
         <v>75</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="B426" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C426" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D426">
         <v>78</v>
@@ -9755,10 +9755,10 @@
         <v>1</v>
       </c>
       <c r="B427" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C427" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D427">
         <v>75</v>
@@ -9773,10 +9773,10 @@
         <v>2</v>
       </c>
       <c r="B428" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="C428" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D428">
         <v>80</v>
@@ -9791,10 +9791,10 @@
         <v>3</v>
       </c>
       <c r="B429" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C429" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D429">
         <v>82</v>
@@ -9809,10 +9809,10 @@
         <v>5</v>
       </c>
       <c r="B430" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C430" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D430">
         <v>80</v>
@@ -9827,10 +9827,10 @@
         <v>7</v>
       </c>
       <c r="B431" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C431" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D431">
         <v>75</v>
@@ -9845,10 +9845,10 @@
         <v>10</v>
       </c>
       <c r="B432" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C432" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D432">
         <v>78</v>
@@ -9863,10 +9863,10 @@
         <v>11</v>
       </c>
       <c r="B433" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="C433" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D433">
         <v>84</v>
@@ -9881,10 +9881,10 @@
         <v>12</v>
       </c>
       <c r="B434" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C434" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D434">
         <v>78</v>
@@ -9899,10 +9899,10 @@
         <v>14</v>
       </c>
       <c r="B435" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="C435" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D435">
         <v>83</v>
@@ -9917,10 +9917,10 @@
         <v>15</v>
       </c>
       <c r="B436" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C436" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D436">
         <v>77</v>
@@ -9935,10 +9935,10 @@
         <v>17</v>
       </c>
       <c r="B437" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="C437" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D437">
         <v>80</v>
@@ -9953,10 +9953,10 @@
         <v>21</v>
       </c>
       <c r="B438" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="C438" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D438">
         <v>79</v>
@@ -9971,10 +9971,10 @@
         <v>23</v>
       </c>
       <c r="B439" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C439" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D439">
         <v>81</v>
@@ -9989,10 +9989,10 @@
         <v>28</v>
       </c>
       <c r="B440" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C440" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D440">
         <v>80</v>
@@ -10007,10 +10007,10 @@
         <v>35</v>
       </c>
       <c r="B441" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C441" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D441">
         <v>80</v>
@@ -10025,10 +10025,10 @@
         <v>55</v>
       </c>
       <c r="B442" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="C442" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D442">
         <v>76</v>
@@ -10043,10 +10043,10 @@
         <v>0</v>
       </c>
       <c r="B443" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="C443" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D443">
         <v>74</v>
@@ -10061,10 +10061,10 @@
         <v>0</v>
       </c>
       <c r="B444" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C444" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D444">
         <v>80</v>
@@ -10079,10 +10079,10 @@
         <v>1</v>
       </c>
       <c r="B445" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="C445" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D445">
         <v>74</v>
@@ -10097,10 +10097,10 @@
         <v>2</v>
       </c>
       <c r="B446" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C446" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D446">
         <v>77</v>
@@ -10115,10 +10115,10 @@
         <v>3</v>
       </c>
       <c r="B447" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C447" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="D447">
         <v>72</v>
@@ -10133,10 +10133,10 @@
         <v>4</v>
       </c>
       <c r="B448" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C448" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D448">
         <v>78</v>
@@ -10151,10 +10151,10 @@
         <v>5</v>
       </c>
       <c r="B449" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C449" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D449">
         <v>81</v>
@@ -10169,10 +10169,10 @@
         <v>11</v>
       </c>
       <c r="B450" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C450" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D450">
         <v>78</v>
@@ -10187,10 +10187,10 @@
         <v>12</v>
       </c>
       <c r="B451" t="s">
-        <v>537</v>
+        <v>518</v>
       </c>
       <c r="C451" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D451">
         <v>80</v>
@@ -10205,10 +10205,10 @@
         <v>15</v>
       </c>
       <c r="B452" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C452" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D452">
         <v>80</v>
@@ -10223,10 +10223,10 @@
         <v>18</v>
       </c>
       <c r="B453" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="C453" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D453">
         <v>76</v>
@@ -10241,10 +10241,10 @@
         <v>20</v>
       </c>
       <c r="B454" t="s">
-        <v>142</v>
+        <v>551</v>
       </c>
       <c r="C454" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D454">
         <v>82</v>
@@ -10259,10 +10259,10 @@
         <v>22</v>
       </c>
       <c r="B455" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C455" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D455">
         <v>79</v>
@@ -10277,10 +10277,10 @@
         <v>23</v>
       </c>
       <c r="B456" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C456" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D456">
         <v>78</v>
@@ -10295,10 +10295,10 @@
         <v>25</v>
       </c>
       <c r="B457" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="C457" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D457">
         <v>77</v>
@@ -10313,10 +10313,10 @@
         <v>30</v>
       </c>
       <c r="B458" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C458" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D458">
         <v>74</v>
@@ -10331,10 +10331,10 @@
         <v>32</v>
       </c>
       <c r="B459" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C459" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D459">
         <v>81</v>
@@ -10349,10 +10349,10 @@
         <v>0</v>
       </c>
       <c r="B460" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="C460" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D460">
         <v>81</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="B461" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C461" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D461">
         <v>75</v>
@@ -10385,10 +10385,10 @@
         <v>2</v>
       </c>
       <c r="B462" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C462" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D462">
         <v>75</v>
@@ -10403,10 +10403,10 @@
         <v>3</v>
       </c>
       <c r="B463" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C463" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D463">
         <v>76</v>
@@ -10421,10 +10421,10 @@
         <v>5</v>
       </c>
       <c r="B464" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C464" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D464">
         <v>76</v>
@@ -10439,10 +10439,10 @@
         <v>8</v>
       </c>
       <c r="B465" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="C465" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D465">
         <v>78</v>
@@ -10457,10 +10457,10 @@
         <v>11</v>
       </c>
       <c r="B466" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="C466" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D466">
         <v>75</v>
@@ -10475,10 +10475,10 @@
         <v>16</v>
       </c>
       <c r="B467" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C467" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D467">
         <v>80</v>
@@ -10493,10 +10493,10 @@
         <v>19</v>
       </c>
       <c r="B468" t="s">
-        <v>343</v>
+        <v>552</v>
       </c>
       <c r="C468" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D468">
         <v>82</v>
@@ -10511,10 +10511,10 @@
         <v>20</v>
       </c>
       <c r="B469" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C469" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D469">
         <v>81</v>
@@ -10529,10 +10529,10 @@
         <v>23</v>
       </c>
       <c r="B470" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C470" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D470">
         <v>84</v>
@@ -10547,10 +10547,10 @@
         <v>24</v>
       </c>
       <c r="B471" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C471" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D471">
         <v>84</v>
@@ -10565,10 +10565,10 @@
         <v>25</v>
       </c>
       <c r="B472" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="C472" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D472">
         <v>82</v>
@@ -10583,10 +10583,10 @@
         <v>30</v>
       </c>
       <c r="B473" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C473" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D473">
         <v>77</v>
@@ -10601,10 +10601,10 @@
         <v>33</v>
       </c>
       <c r="B474" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="C474" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D474">
         <v>79</v>
@@ -10619,10 +10619,10 @@
         <v>41</v>
       </c>
       <c r="B475" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C475" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D475">
         <v>83</v>
@@ -10637,10 +10637,10 @@
         <v>77</v>
       </c>
       <c r="B476" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C476" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D476">
         <v>84</v>
@@ -10653,10 +10653,10 @@
     <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="2"/>
       <c r="B477" t="s">
-        <v>542</v>
+        <v>523</v>
       </c>
       <c r="C477" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D477">
         <v>77</v>
@@ -10671,10 +10671,10 @@
         <v>0</v>
       </c>
       <c r="B478" t="s">
-        <v>543</v>
+        <v>524</v>
       </c>
       <c r="C478" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="D478">
         <v>69</v>
@@ -10689,10 +10689,10 @@
         <v>2</v>
       </c>
       <c r="B479" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="C479" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D479">
         <v>80</v>
@@ -10707,10 +10707,10 @@
         <v>3</v>
       </c>
       <c r="B480" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C480" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D480">
         <v>80</v>
@@ -10725,10 +10725,10 @@
         <v>5</v>
       </c>
       <c r="B481" t="s">
-        <v>544</v>
+        <v>525</v>
       </c>
       <c r="C481" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D481">
         <v>76</v>
@@ -10743,10 +10743,10 @@
         <v>7</v>
       </c>
       <c r="B482" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C482" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D482">
         <v>83</v>
@@ -10761,10 +10761,10 @@
         <v>8</v>
       </c>
       <c r="B483" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C483" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D483">
         <v>81</v>
@@ -10779,10 +10779,10 @@
         <v>10</v>
       </c>
       <c r="B484" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C484" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D484">
         <v>77</v>
@@ -10797,10 +10797,10 @@
         <v>12</v>
       </c>
       <c r="B485" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C485" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="D485">
         <v>74</v>
@@ -10815,10 +10815,10 @@
         <v>13</v>
       </c>
       <c r="B486" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C486" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D486">
         <v>82</v>
@@ -10833,10 +10833,10 @@
         <v>18</v>
       </c>
       <c r="B487" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C487" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D487">
         <v>80</v>
@@ -10851,10 +10851,10 @@
         <v>21</v>
       </c>
       <c r="B488" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C488" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D488">
         <v>76</v>
@@ -10869,10 +10869,10 @@
         <v>22</v>
       </c>
       <c r="B489" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C489" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D489">
         <v>77</v>
@@ -10887,10 +10887,10 @@
         <v>23</v>
       </c>
       <c r="B490" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C490" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D490">
         <v>75</v>
@@ -10905,10 +10905,10 @@
         <v>36</v>
       </c>
       <c r="B491" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C491" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D491">
         <v>75</v>
@@ -10923,10 +10923,10 @@
         <v>45</v>
       </c>
       <c r="B492" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="C492" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D492">
         <v>81</v>
@@ -10941,10 +10941,10 @@
         <v>46</v>
       </c>
       <c r="B493" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C493" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D493">
         <v>77</v>
@@ -10957,10 +10957,10 @@
     <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="2"/>
       <c r="B494" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="C494" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D494">
         <v>80</v>
@@ -10973,10 +10973,10 @@
     <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="2"/>
       <c r="B495" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="C495" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D495">
         <v>83</v>
@@ -10991,10 +10991,10 @@
         <v>0</v>
       </c>
       <c r="B496" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C496" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D496">
         <v>75</v>
@@ -11009,10 +11009,10 @@
         <v>1</v>
       </c>
       <c r="B497" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C497" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="D497">
         <v>75</v>
@@ -11027,10 +11027,10 @@
         <v>2</v>
       </c>
       <c r="B498" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C498" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="D498">
         <v>84</v>
@@ -11045,10 +11045,10 @@
         <v>4</v>
       </c>
       <c r="B499" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C499" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D499">
         <v>77</v>
@@ -11063,10 +11063,10 @@
         <v>5</v>
       </c>
       <c r="B500" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C500" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D500">
         <v>76</v>
@@ -11081,10 +11081,10 @@
         <v>8</v>
       </c>
       <c r="B501" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="C501" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D501">
         <v>80</v>
@@ -11099,10 +11099,10 @@
         <v>9</v>
       </c>
       <c r="B502" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C502" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D502">
         <v>79</v>
@@ -11117,10 +11117,10 @@
         <v>10</v>
       </c>
       <c r="B503" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C503" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="D503">
         <v>86</v>
@@ -11135,10 +11135,10 @@
         <v>11</v>
       </c>
       <c r="B504" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C504" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D504">
         <v>76</v>
@@ -11153,10 +11153,10 @@
         <v>17</v>
       </c>
       <c r="B505" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C505" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D505">
         <v>78</v>
@@ -11171,10 +11171,10 @@
         <v>23</v>
       </c>
       <c r="B506" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C506" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D506">
         <v>78</v>
@@ -11189,10 +11189,10 @@
         <v>24</v>
       </c>
       <c r="B507" t="s">
-        <v>546</v>
+        <v>527</v>
       </c>
       <c r="C507" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D507">
         <v>77</v>
@@ -11207,10 +11207,10 @@
         <v>26</v>
       </c>
       <c r="B508" t="s">
-        <v>547</v>
+        <v>528</v>
       </c>
       <c r="C508" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D508">
         <v>83</v>
@@ -11225,10 +11225,10 @@
         <v>33</v>
       </c>
       <c r="B509" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C509" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D509">
         <v>80</v>
@@ -11243,10 +11243,10 @@
         <v>34</v>
       </c>
       <c r="B510" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C510" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D510">
         <v>81</v>
@@ -11261,10 +11261,10 @@
         <v>35</v>
       </c>
       <c r="B511" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C511" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D511">
         <v>81</v>
@@ -11279,10 +11279,10 @@
         <v>41</v>
       </c>
       <c r="B512" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="C512" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="D512">
         <v>85</v>
@@ -11297,10 +11297,10 @@
         <v>72</v>
       </c>
       <c r="B513" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="C513" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D513">
         <v>78</v>
@@ -11315,10 +11315,10 @@
         <v>1</v>
       </c>
       <c r="B514" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C514" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="D514">
         <v>88</v>
@@ -11333,10 +11333,10 @@
         <v>3</v>
       </c>
       <c r="B515" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C515" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D515">
         <v>77</v>
@@ -11351,10 +11351,10 @@
         <v>4</v>
       </c>
       <c r="B516" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C516" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="D516">
         <v>73</v>
@@ -11369,10 +11369,10 @@
         <v>10</v>
       </c>
       <c r="B517" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C517" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D517">
         <v>80</v>
@@ -11387,10 +11387,10 @@
         <v>14</v>
       </c>
       <c r="B518" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C518" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D518">
         <v>77</v>
@@ -11405,10 +11405,10 @@
         <v>16</v>
       </c>
       <c r="B519" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C519" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="D519">
         <v>79</v>
@@ -11423,10 +11423,10 @@
         <v>17</v>
       </c>
       <c r="B520" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C520" t="s">
-        <v>446</v>
+        <v>429</v>
       </c>
       <c r="D520">
         <v>78</v>
@@ -11441,10 +11441,10 @@
         <v>22</v>
       </c>
       <c r="B521" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C521" t="s">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="D521">
         <v>76</v>
@@ -11459,10 +11459,10 @@
         <v>23</v>
       </c>
       <c r="B522" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C522" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D522">
         <v>83</v>
@@ -11477,10 +11477,10 @@
         <v>24</v>
       </c>
       <c r="B523" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C523" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D523">
         <v>77</v>
@@ -11495,10 +11495,10 @@
         <v>25</v>
       </c>
       <c r="B524" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="C524" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D524">
         <v>80</v>
@@ -11513,10 +11513,10 @@
         <v>26</v>
       </c>
       <c r="B525" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="C525" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D525">
         <v>81</v>
@@ -11531,10 +11531,10 @@
         <v>28</v>
       </c>
       <c r="B526" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C526" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="D526">
         <v>82</v>
@@ -11549,10 +11549,10 @@
         <v>30</v>
       </c>
       <c r="B527" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C527" t="s">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="D527">
         <v>80</v>
@@ -11567,10 +11567,10 @@
         <v>33</v>
       </c>
       <c r="B528" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C528" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="D528">
         <v>73</v>
@@ -11585,10 +11585,10 @@
         <v>54</v>
       </c>
       <c r="B529" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C529" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D529">
         <v>83</v>
@@ -11601,10 +11601,10 @@
     <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="2"/>
       <c r="B530" t="s">
-        <v>550</v>
+        <v>531</v>
       </c>
       <c r="C530" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D530">
         <v>81</v>
@@ -11617,10 +11617,10 @@
     <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="2"/>
       <c r="B531" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="C531" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="D531">
         <v>77</v>
